--- a/回归结果/double玉米.xlsx
+++ b/回归结果/double玉米.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C201451E-8268-4C13-A705-1B98816854DD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="统计性描述" sheetId="1" r:id="rId1"/>
@@ -13,19 +12,18 @@
     <sheet name="vif" sheetId="3" r:id="rId3"/>
     <sheet name="各要素回归" sheetId="4" r:id="rId4"/>
     <sheet name="回归结果" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet6" sheetId="11" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="11" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">回归结果!$A$21:$G$67</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="230">
   <si>
     <t>yield</t>
   </si>
@@ -563,9 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>***</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -658,508 +653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t>&gt;   age</t>
-  </si>
-  <si>
-    <t>&gt; -----</t>
-  </si>
-  <si>
-    <t>&gt; 65494</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>&gt;    76</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>&gt;    31</t>
-  </si>
-  <si>
-    <t>p25</t>
-  </si>
-  <si>
-    <t>&gt;    53</t>
-  </si>
-  <si>
-    <t>p50</t>
-  </si>
-  <si>
-    <t>&gt; 65947</t>
-  </si>
-  <si>
-    <t>p75</t>
-  </si>
-  <si>
-    <t>&gt;    58</t>
-  </si>
-  <si>
-    <t>skewness</t>
-  </si>
-  <si>
-    <t>&gt; 31448</t>
-  </si>
-  <si>
-    <t>kurtosis</t>
-  </si>
-  <si>
-    <t>&gt; 94172</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>&gt; 76516</t>
-  </si>
-  <si>
-    <t>&gt;  9713</t>
-  </si>
-  <si>
-    <t>N=9713</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单产（千克</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亩）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>收获面积（亩）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>投工量（日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亩）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>家庭投工量（日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亩）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>雇佣投工量（日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亩）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>肥料投入（元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亩）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机械投入（元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亩）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>其他投入（元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亩）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>政策补贴（元</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>亩）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>农业保险</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>土地细碎化水平（亩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>块）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>人口结构</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>兼业化水平</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>性别</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年龄</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>文化程度</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>农业培训</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>健康状态</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>家庭背景</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>变量</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lnland</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1194,9 +687,6 @@
   <si>
     <t>f</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">P&gt;t  </t>
   </si>
   <si>
     <t>Robust Std.</t>
@@ -1445,19 +935,56 @@
     <t>**</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ME</t>
+    </r>
+  </si>
+  <si>
+    <t>areanumber</t>
+  </si>
+  <si>
+    <t>Shape_Area</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0.00_ "/>
     <numFmt numFmtId="180" formatCode="&quot;(&quot;General&quot;)&quot;"/>
+    <numFmt numFmtId="181" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="183" formatCode="&quot;(&quot;0.000&quot;)&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1509,12 +1036,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1522,16 +1043,36 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1568,13 +1109,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1638,28 +1194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -1677,16 +1212,22 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1711,6 +1252,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1839,8 +1428,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>161</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2143,23 +1732,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2195,23 +1767,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2387,11 +1942,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS201"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2416,29 +1971,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -2465,7 +2020,7 @@
       <c r="AS1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="3"/>
@@ -2498,7 +2053,7 @@
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="4"/>
       <c r="C3" s="18" t="s">
         <v>126</v>
@@ -2510,7 +2065,7 @@
         <v>128</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="18" t="s">
@@ -2523,7 +2078,7 @@
         <v>128</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L3" s="4"/>
       <c r="M3" s="18" t="s">
@@ -2536,7 +2091,7 @@
         <v>128</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="18" t="s">
@@ -2549,12 +2104,12 @@
         <v>128</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="5">
@@ -2611,7 +2166,7 @@
     </row>
     <row r="5" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="5">
@@ -2668,10 +2223,10 @@
     </row>
     <row r="6" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C6" s="5">
         <v>14.5215</v>
@@ -2727,10 +2282,10 @@
     </row>
     <row r="7" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="5">
         <v>14.477080000000001</v>
@@ -2786,10 +2341,10 @@
     </row>
     <row r="8" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="5">
         <v>4.6417300000000002E-2</v>
@@ -2845,10 +2400,10 @@
     </row>
     <row r="9" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="5">
         <v>141.49160000000001</v>
@@ -2904,10 +2459,10 @@
     </row>
     <row r="10" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C10" s="5">
         <v>57.560760000000002</v>
@@ -2963,10 +2518,10 @@
     </row>
     <row r="11" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="5">
         <v>95.535359999999997</v>
@@ -3022,10 +2577,10 @@
     </row>
     <row r="12" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" s="5">
         <v>102.01439999999999</v>
@@ -3081,10 +2636,10 @@
     </row>
     <row r="13" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="5">
         <v>0.1569497</v>
@@ -3140,10 +2695,10 @@
     </row>
     <row r="14" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="5">
         <v>1.532708</v>
@@ -3199,7 +2754,7 @@
     </row>
     <row r="15" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="5">
@@ -3256,10 +2811,10 @@
     </row>
     <row r="16" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="5">
         <v>0.67883590000000005</v>
@@ -3315,7 +2870,7 @@
     </row>
     <row r="17" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="5">
@@ -3372,10 +2927,10 @@
     </row>
     <row r="18" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="5">
         <v>54.775350000000003</v>
@@ -3431,7 +2986,7 @@
     </row>
     <row r="19" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="5">
@@ -3488,7 +3043,7 @@
     </row>
     <row r="20" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="5">
@@ -3545,10 +3100,10 @@
     </row>
     <row r="21" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C21" s="5">
         <v>4.2562620000000004</v>
@@ -3604,7 +3159,7 @@
     </row>
     <row r="22" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="5">
@@ -3661,55 +3216,55 @@
     </row>
     <row r="23" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B23" s="4"/>
-      <c r="C23" s="35">
+      <c r="C23" s="31">
         <v>9022</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="35">
+      <c r="H23" s="31">
         <v>689</v>
       </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="35">
+      <c r="M23" s="31">
         <v>2</v>
       </c>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
       <c r="Q23" s="4"/>
-      <c r="R23" s="35">
+      <c r="R23" s="31">
         <v>9713</v>
       </c>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
     </row>
     <row r="25" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="3"/>
@@ -3763,7 +3318,7 @@
       <c r="AS26" s="3"/>
     </row>
     <row r="27" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
+      <c r="A27" s="31"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
         <v>20</v>
@@ -5307,8 +4862,8 @@
       <c r="AS40" s="1"/>
     </row>
     <row r="41" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>15</v>
+      <c r="A41" s="4" t="s">
+        <v>226</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="5">
@@ -5417,7 +4972,7 @@
     </row>
     <row r="42" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="5">
@@ -5526,7 +5081,7 @@
     </row>
     <row r="43" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="5">
@@ -5635,7 +5190,7 @@
     </row>
     <row r="44" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="5">
@@ -5744,7 +5299,7 @@
     </row>
     <row r="45" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="5">
@@ -5852,7 +5407,9 @@
       <c r="AS45" s="1"/>
     </row>
     <row r="46" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A46" s="4"/>
+      <c r="A46" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B46" s="4"/>
       <c r="C46" s="6">
         <v>0.19807040000000001</v>
@@ -5959,23 +5516,23 @@
       <c r="AS46" s="4"/>
     </row>
     <row r="49" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A49" s="36" t="s">
+      <c r="A49" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
     </row>
     <row r="50" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B50" s="3"/>
@@ -6032,7 +5589,7 @@
       <c r="AS50" s="3"/>
     </row>
     <row r="51" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A51" s="35"/>
+      <c r="A51" s="31"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
         <v>20</v>
@@ -8610,23 +8167,23 @@
       </c>
     </row>
     <row r="73" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B73" s="36"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="36"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="36"/>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="36"/>
-      <c r="L73" s="36"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="27"/>
     </row>
     <row r="74" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A74" s="37" t="s">
+      <c r="A74" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B74" s="3"/>
@@ -8683,7 +8240,7 @@
       <c r="AS74" s="3"/>
     </row>
     <row r="75" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A75" s="35"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
         <v>20</v>
@@ -11261,23 +10818,23 @@
       </c>
     </row>
     <row r="96" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A96" s="36" t="s">
+      <c r="A96" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="36"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
-      <c r="J96" s="36"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
+      <c r="B96" s="27"/>
+      <c r="C96" s="27"/>
+      <c r="D96" s="27"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
+      <c r="K96" s="27"/>
+      <c r="L96" s="27"/>
     </row>
     <row r="97" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A97" s="37" t="s">
+      <c r="A97" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B97" s="3"/>
@@ -11334,7 +10891,7 @@
       <c r="AS97" s="3"/>
     </row>
     <row r="98" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A98" s="35"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4" t="s">
         <v>20</v>
@@ -13532,23 +13089,23 @@
       <c r="AS117" s="4"/>
     </row>
     <row r="119" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A119" s="36" t="s">
+      <c r="A119" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B119" s="36"/>
-      <c r="C119" s="36"/>
-      <c r="D119" s="36"/>
-      <c r="E119" s="36"/>
-      <c r="F119" s="36"/>
-      <c r="G119" s="36"/>
-      <c r="H119" s="36"/>
-      <c r="I119" s="36"/>
-      <c r="J119" s="36"/>
-      <c r="K119" s="36"/>
-      <c r="L119" s="36"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="27"/>
     </row>
     <row r="120" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A120" s="37" t="s">
+      <c r="A120" s="30" t="s">
         <v>30</v>
       </c>
       <c r="B120" s="3"/>
@@ -13605,7 +13162,7 @@
       <c r="AS120" s="3"/>
     </row>
     <row r="121" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A121" s="35"/>
+      <c r="A121" s="31"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4" t="s">
         <v>20</v>
@@ -16854,23 +16411,19 @@
       <c r="H201" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="A73:L73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A96:L96"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A119:L119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A50:A51"/>
+  <mergeCells count="12">
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="M23:P23"/>
     <mergeCell ref="R23:U23"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16879,7 +16432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -16894,7 +16447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -16909,32 +16462,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="E2" s="34" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="E2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="I2" s="34" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="I2" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -17811,11 +17364,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="S4:AB36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="S4:AB48"/>
   <sheetViews>
-    <sheetView topLeftCell="L19" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6:AB24"/>
+    <sheetView topLeftCell="J19" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28:AA32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17828,315 +17381,362 @@
   <sheetData>
     <row r="4" spans="26:26" x14ac:dyDescent="0.15">
       <c r="Z4" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="19:28" x14ac:dyDescent="0.15">
-      <c r="T17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="Y17" s="26"/>
+      <c r="T17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="Y17" s="21"/>
     </row>
     <row r="18" spans="19:28" x14ac:dyDescent="0.15">
-      <c r="T18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
+      <c r="T18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
     </row>
     <row r="19" spans="19:28" x14ac:dyDescent="0.15">
-      <c r="T19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
+      <c r="T19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
     </row>
     <row r="20" spans="19:28" x14ac:dyDescent="0.15">
-      <c r="T20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
+      <c r="T20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
     </row>
     <row r="21" spans="19:28" x14ac:dyDescent="0.15">
-      <c r="T21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="AA21" s="26"/>
-      <c r="AB21" s="26"/>
+      <c r="T21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
     </row>
     <row r="22" spans="19:28" x14ac:dyDescent="0.15">
-      <c r="T22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="AA22" s="26"/>
-      <c r="AB22" s="26"/>
+      <c r="T22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
     </row>
     <row r="23" spans="19:28" x14ac:dyDescent="0.15">
-      <c r="AA23" s="26"/>
-      <c r="AB23" s="26"/>
+      <c r="AA23" s="21"/>
+      <c r="AB23" s="21"/>
     </row>
     <row r="28" spans="19:28" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="S28" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="40"/>
+      <c r="S28" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="54"/>
     </row>
     <row r="29" spans="19:28" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="S29" s="39" t="s">
-        <v>207</v>
-      </c>
-      <c r="T29" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
+      <c r="S29" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="T29" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="54"/>
+      <c r="AA29" s="54"/>
     </row>
     <row r="30" spans="19:28" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="S30" s="40"/>
-      <c r="T30" s="24" t="s">
+      <c r="S30" s="35"/>
+      <c r="T30" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="U30" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="V30" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="W30" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="X30" s="24" t="s">
+      <c r="U30" s="28"/>
+      <c r="V30" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="W30" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="Y30" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z30" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA30" s="24" t="s">
-        <v>205</v>
-      </c>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
     </row>
     <row r="31" spans="19:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="S31" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="T31" s="27">
+      <c r="S31" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="T31" s="52">
+        <v>-1.7630699999999999E-2</v>
+      </c>
+      <c r="U31" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="V31" s="53">
+        <v>9.0004000000000004E-3</v>
+      </c>
+      <c r="W31" s="52">
         <v>-0.3200442</v>
       </c>
-      <c r="U31" s="27">
+      <c r="X31" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y31" s="53">
         <v>2.3203000000000001E-2</v>
       </c>
-      <c r="V31" s="27">
-        <v>-13.79</v>
-      </c>
-      <c r="W31" s="27">
-        <v>0</v>
-      </c>
-      <c r="X31" s="27">
-        <v>-1.7630699999999999E-2</v>
-      </c>
-      <c r="Y31" s="27">
-        <v>9.0004000000000004E-3</v>
-      </c>
-      <c r="Z31" s="27">
-        <v>-1.96</v>
-      </c>
-      <c r="AA31" s="27">
-        <v>0.05</v>
-      </c>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="46"/>
     </row>
     <row r="32" spans="19:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="S32" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="T32" s="27">
+      <c r="S32" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="T32" s="52">
+        <v>-2.8243299999999999E-2</v>
+      </c>
+      <c r="U32" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="V32" s="53">
+        <v>1.0376399999999999E-2</v>
+      </c>
+      <c r="W32" s="52">
         <v>-0.32835389999999998</v>
       </c>
-      <c r="U32" s="27">
+      <c r="X32" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y32" s="53">
         <v>2.5123199999999998E-2</v>
       </c>
-      <c r="V32" s="27">
-        <v>-13.07</v>
-      </c>
-      <c r="W32" s="27">
-        <v>0</v>
-      </c>
-      <c r="X32" s="27">
-        <v>-2.8243299999999999E-2</v>
-      </c>
-      <c r="Y32" s="27">
-        <v>1.0376399999999999E-2</v>
-      </c>
-      <c r="Z32" s="27">
-        <v>-2.72</v>
-      </c>
-      <c r="AA32" s="27">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="Z32" s="46"/>
+      <c r="AA32" s="46"/>
     </row>
     <row r="33" spans="19:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="S33" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="T33" s="27">
+      <c r="S33" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="T33" s="52">
+        <v>5.03563E-2</v>
+      </c>
+      <c r="U33" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="V33" s="53">
+        <v>2.4289499999999999E-2</v>
+      </c>
+      <c r="W33" s="52">
         <v>0.14352570000000001</v>
       </c>
-      <c r="U33" s="27">
+      <c r="X33" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y33" s="53">
         <v>4.6495500000000002E-2</v>
       </c>
-      <c r="V33" s="27">
-        <v>3.09</v>
-      </c>
-      <c r="W33" s="27">
-        <v>2E-3</v>
-      </c>
-      <c r="X33" s="27">
-        <v>5.03563E-2</v>
-      </c>
-      <c r="Y33" s="27">
-        <v>2.4289499999999999E-2</v>
-      </c>
-      <c r="Z33" s="27">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="AA33" s="27">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="34" spans="19:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="S34" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="T34" s="27">
+      <c r="S34" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="T34" s="52">
+        <v>-1.42995E-2</v>
+      </c>
+      <c r="U34" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="V34" s="53">
+        <v>8.5654000000000008E-3</v>
+      </c>
+      <c r="W34" s="52">
         <v>-7.0711599999999999E-2</v>
       </c>
-      <c r="U34" s="27">
+      <c r="X34" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y34" s="53">
         <v>2.2545800000000001E-2</v>
       </c>
-      <c r="V34" s="27">
-        <v>-3.14</v>
-      </c>
-      <c r="W34" s="27">
-        <v>2E-3</v>
-      </c>
-      <c r="X34" s="27">
-        <v>-1.42995E-2</v>
-      </c>
-      <c r="Y34" s="27">
-        <v>8.5654000000000008E-3</v>
-      </c>
-      <c r="Z34" s="27">
-        <v>-1.67</v>
-      </c>
-      <c r="AA34" s="27">
-        <v>9.5000000000000001E-2</v>
-      </c>
     </row>
     <row r="35" spans="19:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="S35" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="T35" s="27">
+      <c r="S35" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="T35" s="52">
+        <v>-0.11313529999999999</v>
+      </c>
+      <c r="U35" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="V35" s="53">
+        <v>5.5008500000000002E-2</v>
+      </c>
+      <c r="W35" s="52">
         <v>0.64316569999999995</v>
       </c>
-      <c r="U35" s="27">
+      <c r="X35" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y35" s="53">
         <v>0.1433798</v>
-      </c>
-      <c r="V35" s="27">
-        <v>4.49</v>
-      </c>
-      <c r="W35" s="27">
-        <v>0</v>
-      </c>
-      <c r="X35" s="27">
-        <v>-0.11313529999999999</v>
-      </c>
-      <c r="Y35" s="27">
-        <v>5.5008500000000002E-2</v>
-      </c>
-      <c r="Z35" s="27">
-        <v>-2.06</v>
-      </c>
-      <c r="AA35" s="27">
-        <v>0.04</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="36" spans="19:28" ht="15" x14ac:dyDescent="0.15">
       <c r="S36" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="T36" s="28">
+        <v>159</v>
+      </c>
+      <c r="T36" s="6">
+        <v>9.4059E-3</v>
+      </c>
+      <c r="U36" s="6"/>
+      <c r="V36" s="51">
+        <v>7.2049999999999996E-3</v>
+      </c>
+      <c r="W36" s="6">
         <v>-9.8284999999999997E-2</v>
       </c>
-      <c r="U36" s="28">
+      <c r="X36" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y36" s="51">
         <v>1.8197100000000001E-2</v>
       </c>
-      <c r="V36" s="28">
-        <v>-5.4</v>
-      </c>
-      <c r="W36" s="28">
-        <v>0</v>
-      </c>
-      <c r="X36" s="28">
-        <v>9.4059E-3</v>
-      </c>
-      <c r="Y36" s="28">
-        <v>7.2049999999999996E-3</v>
-      </c>
-      <c r="Z36" s="28">
-        <v>1.31</v>
-      </c>
-      <c r="AA36" s="28">
-        <v>0.192</v>
-      </c>
+    </row>
+    <row r="38" spans="19:28" x14ac:dyDescent="0.15">
+      <c r="U38" s="46"/>
+      <c r="V38" s="44"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+    </row>
+    <row r="39" spans="19:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U39" s="46"/>
+      <c r="V39" s="44"/>
+      <c r="W39" s="47"/>
+      <c r="X39" s="47"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+    </row>
+    <row r="40" spans="19:28" ht="15" x14ac:dyDescent="0.15">
+      <c r="T40" s="41"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="45"/>
+      <c r="W40" s="49"/>
+      <c r="X40" s="50"/>
+      <c r="Y40" s="43"/>
+      <c r="Z40" s="42"/>
+      <c r="AB40" s="21"/>
+    </row>
+    <row r="41" spans="19:28" ht="15" x14ac:dyDescent="0.15">
+      <c r="T41" s="41"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="45"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="50"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="42"/>
+      <c r="AB41" s="21"/>
+    </row>
+    <row r="42" spans="19:28" ht="15" x14ac:dyDescent="0.15">
+      <c r="T42" s="41"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="45"/>
+      <c r="W42" s="49"/>
+      <c r="X42" s="50"/>
+      <c r="Y42" s="43"/>
+      <c r="Z42" s="42"/>
+      <c r="AB42" s="21"/>
+    </row>
+    <row r="43" spans="19:28" ht="15" x14ac:dyDescent="0.15">
+      <c r="T43" s="41"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="45"/>
+      <c r="W43" s="49"/>
+      <c r="X43" s="50"/>
+      <c r="Y43" s="43"/>
+      <c r="Z43" s="42"/>
+      <c r="AB43" s="21"/>
+    </row>
+    <row r="44" spans="19:28" ht="15" x14ac:dyDescent="0.15">
+      <c r="T44" s="41"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="49"/>
+      <c r="X44" s="50"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="42"/>
+      <c r="AB44" s="21"/>
+    </row>
+    <row r="45" spans="19:28" ht="15" x14ac:dyDescent="0.15">
+      <c r="T45" s="41"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="45"/>
+      <c r="W45" s="49"/>
+      <c r="X45" s="50"/>
+      <c r="Y45" s="43"/>
+      <c r="Z45" s="42"/>
+      <c r="AB45" s="21"/>
+    </row>
+    <row r="46" spans="19:28" x14ac:dyDescent="0.15">
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="46"/>
+    </row>
+    <row r="47" spans="19:28" x14ac:dyDescent="0.15">
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="46"/>
+    </row>
+    <row r="48" spans="19:28" x14ac:dyDescent="0.15">
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="46"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="X29:AA29"/>
+  <mergeCells count="6">
     <mergeCell ref="S29:S30"/>
-    <mergeCell ref="S28:AA28"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="S28:Y28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A21:X122"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G67" sqref="A23:G67"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18147,26 +17747,26 @@
   </cols>
   <sheetData>
     <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.15">
@@ -18191,15 +17791,15 @@
       <c r="G23" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K23" s="45" t="s">
+      <c r="K23" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
-      <c r="P23" s="36"/>
-      <c r="Q23" s="36"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
     </row>
     <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
@@ -18208,7 +17808,7 @@
       <c r="B24" s="5">
         <v>4.7E-2</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="23">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D24" s="5">
@@ -18223,15 +17823,15 @@
       <c r="G24" s="5">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="K24" s="41" t="s">
+      <c r="K24" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41"/>
-      <c r="Q24" s="41"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
     </row>
     <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
@@ -18240,7 +17840,7 @@
       <c r="B25" s="5">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="23">
         <v>1E-3</v>
       </c>
       <c r="D25" s="5">
@@ -18284,7 +17884,7 @@
       <c r="B26" s="5">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="23">
         <v>5.5E-2</v>
       </c>
       <c r="D26" s="5">
@@ -18305,7 +17905,7 @@
       <c r="L26" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="M26" s="30">
+      <c r="M26" s="23">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="N26" s="5">
@@ -18320,13 +17920,13 @@
       <c r="Q26" s="5">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
     </row>
     <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
@@ -18335,7 +17935,7 @@
       <c r="B27" s="5">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="23">
         <v>7.8E-2</v>
       </c>
       <c r="D27" s="5">
@@ -18356,7 +17956,7 @@
       <c r="L27" s="5">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="M27" s="30">
+      <c r="M27" s="23">
         <v>1E-3</v>
       </c>
       <c r="N27" s="5">
@@ -18371,12 +17971,12 @@
       <c r="Q27" s="5">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -18385,7 +17985,7 @@
       <c r="B28" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="23">
         <v>0.01</v>
       </c>
       <c r="D28" s="5">
@@ -18406,7 +18006,7 @@
       <c r="L28" s="5">
         <v>-0.02</v>
       </c>
-      <c r="M28" s="30">
+      <c r="M28" s="23">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="N28" s="5">
@@ -18421,12 +18021,12 @@
       <c r="Q28" s="5">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
     </row>
     <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
@@ -18435,7 +18035,7 @@
       <c r="B29" s="5">
         <v>0.81</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="23">
         <v>0.17</v>
       </c>
       <c r="D29" s="5">
@@ -18456,7 +18056,7 @@
       <c r="L29" s="5">
         <v>-8.8999999999999996E-2</v>
       </c>
-      <c r="M29" s="30">
+      <c r="M29" s="23">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N29" s="5">
@@ -18471,12 +18071,12 @@
       <c r="Q29" s="5">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
-      <c r="W29" s="26"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
     </row>
     <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -18485,7 +18085,7 @@
       <c r="B30" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C30" s="23">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D30" s="5">
@@ -18506,7 +18106,7 @@
       <c r="L30" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M30" s="30">
+      <c r="M30" s="23">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="N30" s="5">
@@ -18521,12 +18121,12 @@
       <c r="Q30" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
     </row>
     <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -18535,7 +18135,7 @@
       <c r="B31" s="5">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="23">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D31" s="5">
@@ -18556,7 +18156,7 @@
       <c r="L31" s="5">
         <v>0.51900000000000002</v>
       </c>
-      <c r="M31" s="30">
+      <c r="M31" s="23">
         <v>0.155</v>
       </c>
       <c r="N31" s="5">
@@ -18571,12 +18171,12 @@
       <c r="Q31" s="5">
         <v>0.82299999999999995</v>
       </c>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="26"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
     </row>
     <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -18585,7 +18185,7 @@
       <c r="B32" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C32" s="30">
+      <c r="C32" s="23">
         <v>0</v>
       </c>
       <c r="D32" s="5">
@@ -18606,7 +18206,7 @@
       <c r="L32" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M32" s="30">
+      <c r="M32" s="23">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N32" s="5">
@@ -18621,12 +18221,12 @@
       <c r="Q32" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="26"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
     </row>
     <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -18635,7 +18235,7 @@
       <c r="B33" s="5">
         <v>-8.4000000000000005E-2</v>
       </c>
-      <c r="C33" s="30">
+      <c r="C33" s="23">
         <v>1.9E-2</v>
       </c>
       <c r="D33" s="5">
@@ -18656,7 +18256,7 @@
       <c r="L33" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M33" s="30">
+      <c r="M33" s="23">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="N33" s="5">
@@ -18671,12 +18271,12 @@
       <c r="Q33" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
-      <c r="W33" s="26"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
     </row>
     <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
@@ -18685,7 +18285,7 @@
       <c r="B34" s="5">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="23">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="D34" s="5">
@@ -18706,7 +18306,7 @@
       <c r="L34" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M34" s="30">
+      <c r="M34" s="23">
         <v>0</v>
       </c>
       <c r="N34" s="5">
@@ -18721,12 +18321,12 @@
       <c r="Q34" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
-      <c r="W34" s="26"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
     </row>
     <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
@@ -18735,7 +18335,7 @@
       <c r="B35" s="5">
         <v>-2E-3</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="23">
         <v>1E-3</v>
       </c>
       <c r="D35" s="5">
@@ -18756,7 +18356,7 @@
       <c r="L35" s="5">
         <v>-6.3E-2</v>
       </c>
-      <c r="M35" s="30">
+      <c r="M35" s="23">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="N35" s="5">
@@ -18771,12 +18371,12 @@
       <c r="Q35" s="5">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
     </row>
     <row r="36" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
@@ -18785,7 +18385,7 @@
       <c r="B36" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="23">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D36" s="5">
@@ -18806,7 +18406,7 @@
       <c r="L36" s="5">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="M36" s="30">
+      <c r="M36" s="23">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="N36" s="5">
@@ -18821,12 +18421,12 @@
       <c r="Q36" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
     </row>
     <row r="37" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -18835,7 +18435,7 @@
       <c r="B37" s="5">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C37" s="23">
         <v>1E-3</v>
       </c>
       <c r="D37" s="5">
@@ -18856,7 +18456,7 @@
       <c r="L37" s="5">
         <v>-1E-3</v>
       </c>
-      <c r="M37" s="30">
+      <c r="M37" s="23">
         <v>1E-3</v>
       </c>
       <c r="N37" s="5">
@@ -18871,12 +18471,12 @@
       <c r="Q37" s="5">
         <v>1E-3</v>
       </c>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
-      <c r="W37" s="26"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
     </row>
     <row r="38" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -18885,7 +18485,7 @@
       <c r="B38" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C38" s="23">
         <v>1.4E-2</v>
       </c>
       <c r="D38" s="5">
@@ -18906,7 +18506,7 @@
       <c r="L38" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M38" s="30">
+      <c r="M38" s="23">
         <v>0.01</v>
       </c>
       <c r="N38" s="5">
@@ -18921,12 +18521,12 @@
       <c r="Q38" s="5">
         <v>2.3E-2</v>
       </c>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
-      <c r="W38" s="26"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
     </row>
     <row r="39" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
@@ -18935,7 +18535,7 @@
       <c r="B39" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="23">
         <v>2E-3</v>
       </c>
       <c r="D39" s="5">
@@ -18956,7 +18556,7 @@
       <c r="L39" s="5">
         <v>0</v>
       </c>
-      <c r="M39" s="30">
+      <c r="M39" s="23">
         <v>1E-3</v>
       </c>
       <c r="N39" s="5">
@@ -18971,12 +18571,12 @@
       <c r="Q39" s="5">
         <v>2E-3</v>
       </c>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
-      <c r="W39" s="26"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
     </row>
     <row r="40" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -18985,7 +18585,7 @@
       <c r="B40" s="5">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C40" s="23">
         <v>1.2E-2</v>
       </c>
       <c r="D40" s="5">
@@ -19006,7 +18606,7 @@
       <c r="L40" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="M40" s="30">
+      <c r="M40" s="23">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="N40" s="5">
@@ -19021,12 +18621,12 @@
       <c r="Q40" s="5">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
-      <c r="W40" s="26"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
     </row>
     <row r="41" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -19035,7 +18635,7 @@
       <c r="B41" s="5">
         <v>0</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="23">
         <v>0</v>
       </c>
       <c r="D41" s="5">
@@ -19056,7 +18656,7 @@
       <c r="L41" s="5">
         <v>1E-3</v>
       </c>
-      <c r="M41" s="30">
+      <c r="M41" s="23">
         <v>2E-3</v>
       </c>
       <c r="N41" s="5">
@@ -19071,12 +18671,12 @@
       <c r="Q41" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
-      <c r="W41" s="26"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
     </row>
     <row r="42" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -19085,7 +18685,7 @@
       <c r="B42" s="5">
         <v>2E-3</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C42" s="23">
         <v>2E-3</v>
       </c>
       <c r="D42" s="5">
@@ -19106,7 +18706,7 @@
       <c r="L42" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M42" s="30">
+      <c r="M42" s="23">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="N42" s="5">
@@ -19121,12 +18721,12 @@
       <c r="Q42" s="5">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26"/>
-      <c r="W42" s="26"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
     </row>
     <row r="43" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
@@ -19135,7 +18735,7 @@
       <c r="B43" s="5">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C43" s="23">
         <v>1.2E-2</v>
       </c>
       <c r="D43" s="5">
@@ -19156,7 +18756,7 @@
       <c r="L43" s="5">
         <v>0</v>
       </c>
-      <c r="M43" s="30">
+      <c r="M43" s="23">
         <v>0</v>
       </c>
       <c r="N43" s="5">
@@ -19171,12 +18771,12 @@
       <c r="Q43" s="5">
         <v>1E-3</v>
       </c>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
-      <c r="W43" s="26"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
     </row>
     <row r="44" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
@@ -19185,7 +18785,7 @@
       <c r="B44" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C44" s="30">
+      <c r="C44" s="23">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D44" s="5">
@@ -19206,7 +18806,7 @@
       <c r="L44" s="5">
         <v>1E-3</v>
       </c>
-      <c r="M44" s="30">
+      <c r="M44" s="23">
         <v>1E-3</v>
       </c>
       <c r="N44" s="5">
@@ -19221,12 +18821,12 @@
       <c r="Q44" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
-      <c r="W44" s="26"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
     </row>
     <row r="45" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -19235,7 +18835,7 @@
       <c r="B45" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="C45" s="30">
+      <c r="C45" s="23">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D45" s="5">
@@ -19256,7 +18856,7 @@
       <c r="L45" s="5">
         <v>-2.5999999999999999E-2</v>
       </c>
-      <c r="M45" s="30">
+      <c r="M45" s="23">
         <v>0.01</v>
       </c>
       <c r="N45" s="5">
@@ -19271,12 +18871,12 @@
       <c r="Q45" s="5">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26"/>
-      <c r="W45" s="26"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
     </row>
     <row r="46" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
@@ -19285,7 +18885,7 @@
       <c r="B46" s="5">
         <v>-1E-3</v>
       </c>
-      <c r="C46" s="30">
+      <c r="C46" s="23">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D46" s="5">
@@ -19306,7 +18906,7 @@
       <c r="L46" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="M46" s="30">
+      <c r="M46" s="23">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N46" s="5">
@@ -19321,12 +18921,12 @@
       <c r="Q46" s="5">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="26"/>
-      <c r="V46" s="26"/>
-      <c r="W46" s="26"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
     </row>
     <row r="47" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -19335,7 +18935,7 @@
       <c r="B47" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C47" s="30">
+      <c r="C47" s="23">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D47" s="5">
@@ -19356,7 +18956,7 @@
       <c r="L47" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="M47" s="30">
+      <c r="M47" s="23">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="N47" s="5">
@@ -19371,12 +18971,12 @@
       <c r="Q47" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="R47" s="26"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="26"/>
-      <c r="W47" s="26"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
+      <c r="W47" s="21"/>
     </row>
     <row r="48" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
@@ -19385,7 +18985,7 @@
       <c r="B48" s="5">
         <v>-6.4000000000000001E-2</v>
       </c>
-      <c r="C48" s="30">
+      <c r="C48" s="23">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D48" s="5">
@@ -19406,7 +19006,7 @@
       <c r="L48" s="5">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="M48" s="30">
+      <c r="M48" s="23">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N48" s="5">
@@ -19421,12 +19021,12 @@
       <c r="Q48" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="26"/>
-      <c r="U48" s="26"/>
-      <c r="V48" s="26"/>
-      <c r="W48" s="26"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
     </row>
     <row r="49" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
@@ -19435,7 +19035,7 @@
       <c r="B49" s="5">
         <v>-2E-3</v>
       </c>
-      <c r="C49" s="30">
+      <c r="C49" s="23">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D49" s="5">
@@ -19456,7 +19056,7 @@
       <c r="L49" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="M49" s="30">
+      <c r="M49" s="23">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N49" s="5">
@@ -19471,12 +19071,12 @@
       <c r="Q49" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R49" s="26"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="26"/>
-      <c r="U49" s="26"/>
-      <c r="V49" s="26"/>
-      <c r="W49" s="26"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
     </row>
     <row r="50" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
@@ -19485,7 +19085,7 @@
       <c r="B50" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C50" s="30">
+      <c r="C50" s="23">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D50" s="5">
@@ -19506,7 +19106,7 @@
       <c r="L50" s="5">
         <v>-3.1E-2</v>
       </c>
-      <c r="M50" s="30">
+      <c r="M50" s="23">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="N50" s="5">
@@ -19521,12 +19121,12 @@
       <c r="Q50" s="5">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="R50" s="26"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="26"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="26"/>
-      <c r="W50" s="26"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
+      <c r="W50" s="21"/>
     </row>
     <row r="51" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
@@ -19535,7 +19135,7 @@
       <c r="B51" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C51" s="30">
+      <c r="C51" s="23">
         <v>1E-3</v>
       </c>
       <c r="D51" s="5">
@@ -19556,7 +19156,7 @@
       <c r="L51" s="5">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="M51" s="30">
+      <c r="M51" s="23">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="N51" s="5">
@@ -19571,12 +19171,12 @@
       <c r="Q51" s="5">
         <v>-1.6E-2</v>
       </c>
-      <c r="R51" s="26"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="26"/>
-      <c r="W51" s="26"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
+      <c r="W51" s="21"/>
     </row>
     <row r="52" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
@@ -19585,7 +19185,7 @@
       <c r="B52" s="5">
         <v>0</v>
       </c>
-      <c r="C52" s="30">
+      <c r="C52" s="23">
         <v>0</v>
       </c>
       <c r="D52" s="5">
@@ -19606,7 +19206,7 @@
       <c r="L52" s="5">
         <v>-2.8000000000000001E-2</v>
       </c>
-      <c r="M52" s="30">
+      <c r="M52" s="23">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="N52" s="5">
@@ -19621,12 +19221,12 @@
       <c r="Q52" s="5">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="R52" s="26"/>
-      <c r="S52" s="26"/>
-      <c r="T52" s="26"/>
-      <c r="U52" s="26"/>
-      <c r="V52" s="26"/>
-      <c r="W52" s="26"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="21"/>
     </row>
     <row r="53" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
@@ -19635,7 +19235,7 @@
       <c r="B53" s="5">
         <v>0.16200000000000001</v>
       </c>
-      <c r="C53" s="30">
+      <c r="C53" s="23">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="D53" s="5">
@@ -19656,7 +19256,7 @@
       <c r="L53" s="5">
         <v>1E-3</v>
       </c>
-      <c r="M53" s="30">
+      <c r="M53" s="23">
         <v>1E-3</v>
       </c>
       <c r="N53" s="5">
@@ -19671,12 +19271,12 @@
       <c r="Q53" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="R53" s="26"/>
-      <c r="S53" s="26"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="26"/>
-      <c r="V53" s="26"/>
-      <c r="W53" s="26"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
     </row>
     <row r="54" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
@@ -19685,7 +19285,7 @@
       <c r="B54" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="C54" s="30">
+      <c r="C54" s="23">
         <v>2.4E-2</v>
       </c>
       <c r="D54" s="5">
@@ -19706,7 +19306,7 @@
       <c r="L54" s="5">
         <v>0</v>
       </c>
-      <c r="M54" s="30">
+      <c r="M54" s="23">
         <v>0</v>
       </c>
       <c r="N54" s="5">
@@ -19721,12 +19321,12 @@
       <c r="Q54" s="5">
         <v>0</v>
       </c>
-      <c r="R54" s="26"/>
-      <c r="S54" s="26"/>
-      <c r="T54" s="26"/>
-      <c r="U54" s="26"/>
-      <c r="V54" s="26"/>
-      <c r="W54" s="26"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
     </row>
     <row r="55" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
@@ -19735,7 +19335,7 @@
       <c r="B55" s="5">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="C55" s="30">
+      <c r="C55" s="23">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="D55" s="5">
@@ -19756,7 +19356,7 @@
       <c r="L55" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="M55" s="30">
+      <c r="M55" s="23">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="N55" s="5">
@@ -19771,12 +19371,12 @@
       <c r="Q55" s="5">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="R55" s="26"/>
-      <c r="S55" s="26"/>
-      <c r="T55" s="26"/>
-      <c r="U55" s="26"/>
-      <c r="V55" s="26"/>
-      <c r="W55" s="26"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
     </row>
     <row r="56" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
@@ -19785,7 +19385,7 @@
       <c r="B56" s="5">
         <v>-8.3000000000000004E-2</v>
       </c>
-      <c r="C56" s="30">
+      <c r="C56" s="23">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="D56" s="5">
@@ -19806,7 +19406,7 @@
       <c r="L56" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="M56" s="30">
+      <c r="M56" s="23">
         <v>1.2E-2</v>
       </c>
       <c r="N56" s="5">
@@ -19821,12 +19421,12 @@
       <c r="Q56" s="5">
         <v>0.05</v>
       </c>
-      <c r="R56" s="26"/>
-      <c r="S56" s="26"/>
-      <c r="T56" s="26"/>
-      <c r="U56" s="26"/>
-      <c r="V56" s="26"/>
-      <c r="W56" s="26"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
     </row>
     <row r="57" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
@@ -19835,7 +19435,7 @@
       <c r="B57" s="5">
         <v>0.107</v>
       </c>
-      <c r="C57" s="30">
+      <c r="C57" s="23">
         <v>2.4E-2</v>
       </c>
       <c r="D57" s="5">
@@ -19856,7 +19456,7 @@
       <c r="L57" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="M57" s="30">
+      <c r="M57" s="23">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="N57" s="5">
@@ -19871,12 +19471,12 @@
       <c r="Q57" s="5">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="R57" s="26"/>
-      <c r="S57" s="26"/>
-      <c r="T57" s="26"/>
-      <c r="U57" s="26"/>
-      <c r="V57" s="26"/>
-      <c r="W57" s="26"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
+      <c r="W57" s="21"/>
     </row>
     <row r="58" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
@@ -19885,7 +19485,7 @@
       <c r="B58" s="5">
         <v>2E-3</v>
       </c>
-      <c r="C58" s="30">
+      <c r="C58" s="23">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D58" s="5">
@@ -19906,7 +19506,7 @@
       <c r="L58" s="5">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="M58" s="30">
+      <c r="M58" s="23">
         <v>1.2E-2</v>
       </c>
       <c r="N58" s="5">
@@ -19921,12 +19521,12 @@
       <c r="Q58" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="R58" s="26"/>
-      <c r="S58" s="26"/>
-      <c r="T58" s="26"/>
-      <c r="U58" s="26"/>
-      <c r="V58" s="26"/>
-      <c r="W58" s="26"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
     </row>
     <row r="59" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
@@ -19935,7 +19535,7 @@
       <c r="B59" s="5">
         <v>0</v>
       </c>
-      <c r="C59" s="30">
+      <c r="C59" s="23">
         <v>0</v>
       </c>
       <c r="D59" s="5">
@@ -19956,7 +19556,7 @@
       <c r="L59" s="5">
         <v>4.593</v>
       </c>
-      <c r="M59" s="30">
+      <c r="M59" s="23">
         <v>0.39800000000000002</v>
       </c>
       <c r="N59" s="5">
@@ -19971,12 +19571,12 @@
       <c r="Q59" s="5">
         <v>5.3719999999999999</v>
       </c>
-      <c r="R59" s="26"/>
-      <c r="S59" s="26"/>
-      <c r="T59" s="26"/>
-      <c r="U59" s="26"/>
-      <c r="V59" s="26"/>
-      <c r="W59" s="26"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
+      <c r="W59" s="21"/>
     </row>
     <row r="60" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
@@ -19985,7 +19585,7 @@
       <c r="B60" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="C60" s="30">
+      <c r="C60" s="23">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D60" s="5">
@@ -20011,12 +19611,12 @@
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="26"/>
-      <c r="T60" s="26"/>
-      <c r="U60" s="26"/>
-      <c r="V60" s="26"/>
-      <c r="W60" s="26"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
+      <c r="W60" s="21"/>
     </row>
     <row r="61" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
@@ -20025,7 +19625,7 @@
       <c r="B61" s="5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C61" s="30">
+      <c r="C61" s="23">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D61" s="5">
@@ -20051,12 +19651,12 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
-      <c r="R61" s="26"/>
-      <c r="S61" s="26"/>
-      <c r="T61" s="26"/>
-      <c r="U61" s="26"/>
-      <c r="V61" s="26"/>
-      <c r="W61" s="26"/>
+      <c r="R61" s="21"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="21"/>
+      <c r="U61" s="21"/>
+      <c r="V61" s="21"/>
+      <c r="W61" s="21"/>
     </row>
     <row r="62" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
@@ -20065,7 +19665,7 @@
       <c r="B62" s="5">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="C62" s="30">
+      <c r="C62" s="23">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D62" s="5">
@@ -20091,12 +19691,12 @@
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
-      <c r="R62" s="26"/>
-      <c r="S62" s="26"/>
-      <c r="T62" s="26"/>
-      <c r="U62" s="26"/>
-      <c r="V62" s="26"/>
-      <c r="W62" s="26"/>
+      <c r="R62" s="21"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="21"/>
+      <c r="U62" s="21"/>
+      <c r="V62" s="21"/>
+      <c r="W62" s="21"/>
     </row>
     <row r="63" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
@@ -20105,7 +19705,7 @@
       <c r="B63" s="5">
         <v>0.05</v>
       </c>
-      <c r="C63" s="30">
+      <c r="C63" s="23">
         <v>1.4E-2</v>
       </c>
       <c r="D63" s="5">
@@ -20128,7 +19728,7 @@
       <c r="B64" s="5">
         <v>3.452</v>
       </c>
-      <c r="C64" s="30">
+      <c r="C64" s="23">
         <v>0.42399999999999999</v>
       </c>
       <c r="D64" s="5">
@@ -20148,14 +19748,14 @@
       <c r="A65" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="31">
-        <v>0</v>
-      </c>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
+      <c r="B65" s="24">
+        <v>0</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
     </row>
     <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
@@ -20194,30 +19794,30 @@
       <c r="G69" s="1"/>
     </row>
     <row r="83" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A83" s="45" t="s">
+      <c r="A83" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="B83" s="36"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="36"/>
-      <c r="F83" s="36"/>
-      <c r="G83" s="36"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
     </row>
     <row r="84" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A84" s="41" t="s">
+      <c r="A84" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B84" s="41"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="J84" s="42" t="s">
+      <c r="B84" s="36"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="36"/>
+      <c r="G84" s="36"/>
+      <c r="J84" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="K84" s="42"/>
+      <c r="K84" s="37"/>
     </row>
     <row r="85" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
@@ -20248,12 +19848,12 @@
         <v>98</v>
       </c>
       <c r="L85" s="2"/>
-      <c r="N85" s="26"/>
-      <c r="O85" s="26"/>
-      <c r="P85" s="26"/>
-      <c r="Q85" s="26"/>
-      <c r="R85" s="26"/>
-      <c r="S85" s="26"/>
+      <c r="N85" s="21"/>
+      <c r="O85" s="21"/>
+      <c r="P85" s="21"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="21"/>
+      <c r="S85" s="21"/>
     </row>
     <row r="86" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
@@ -20262,7 +19862,7 @@
       <c r="B86" s="5">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="C86" s="30">
+      <c r="C86" s="23">
         <v>1.4E-2</v>
       </c>
       <c r="D86" s="5">
@@ -20284,12 +19884,12 @@
         <v>104</v>
       </c>
       <c r="L86" s="2"/>
-      <c r="N86" s="26"/>
-      <c r="O86" s="26"/>
-      <c r="P86" s="26"/>
-      <c r="Q86" s="26"/>
-      <c r="R86" s="26"/>
-      <c r="S86" s="26"/>
+      <c r="N86" s="21"/>
+      <c r="O86" s="21"/>
+      <c r="P86" s="21"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="21"/>
+      <c r="S86" s="21"/>
     </row>
     <row r="87" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
@@ -20298,7 +19898,7 @@
       <c r="B87" s="5">
         <v>1E-3</v>
       </c>
-      <c r="C87" s="30">
+      <c r="C87" s="23">
         <v>2E-3</v>
       </c>
       <c r="D87" s="5">
@@ -20320,12 +19920,12 @@
         <v>99</v>
       </c>
       <c r="L87" s="2"/>
-      <c r="N87" s="26"/>
-      <c r="O87" s="26"/>
-      <c r="P87" s="26"/>
-      <c r="Q87" s="26"/>
-      <c r="R87" s="26"/>
-      <c r="S87" s="26"/>
+      <c r="N87" s="21"/>
+      <c r="O87" s="21"/>
+      <c r="P87" s="21"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="21"/>
+      <c r="S87" s="21"/>
     </row>
     <row r="88" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
@@ -20334,7 +19934,7 @@
       <c r="B88" s="5">
         <v>-8.2000000000000003E-2</v>
       </c>
-      <c r="C88" s="30">
+      <c r="C88" s="23">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="D88" s="5">
@@ -20356,12 +19956,12 @@
         <v>100</v>
       </c>
       <c r="L88" s="2"/>
-      <c r="N88" s="26"/>
-      <c r="O88" s="26"/>
-      <c r="P88" s="26"/>
-      <c r="Q88" s="26"/>
-      <c r="R88" s="26"/>
-      <c r="S88" s="26"/>
+      <c r="N88" s="21"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="21"/>
+      <c r="Q88" s="21"/>
+      <c r="R88" s="21"/>
+      <c r="S88" s="21"/>
     </row>
     <row r="89" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
@@ -20370,7 +19970,7 @@
       <c r="B89" s="5">
         <v>-0.12</v>
       </c>
-      <c r="C89" s="30">
+      <c r="C89" s="23">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D89" s="5">
@@ -20392,12 +19992,12 @@
         <v>105</v>
       </c>
       <c r="L89" s="2"/>
-      <c r="N89" s="26"/>
-      <c r="O89" s="26"/>
-      <c r="P89" s="26"/>
-      <c r="Q89" s="26"/>
-      <c r="R89" s="26"/>
-      <c r="S89" s="26"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
+      <c r="R89" s="21"/>
+      <c r="S89" s="21"/>
     </row>
     <row r="90" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
@@ -20406,7 +20006,7 @@
       <c r="B90" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="C90" s="30">
+      <c r="C90" s="23">
         <v>0.01</v>
       </c>
       <c r="D90" s="5">
@@ -20428,12 +20028,12 @@
         <v>106</v>
       </c>
       <c r="L90" s="2"/>
-      <c r="N90" s="26"/>
-      <c r="O90" s="26"/>
-      <c r="P90" s="26"/>
-      <c r="Q90" s="26"/>
-      <c r="R90" s="26"/>
-      <c r="S90" s="26"/>
+      <c r="N90" s="21"/>
+      <c r="O90" s="21"/>
+      <c r="P90" s="21"/>
+      <c r="Q90" s="21"/>
+      <c r="R90" s="21"/>
+      <c r="S90" s="21"/>
     </row>
     <row r="91" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
@@ -20442,7 +20042,7 @@
       <c r="B91" s="5">
         <v>0.109</v>
       </c>
-      <c r="C91" s="30">
+      <c r="C91" s="23">
         <v>0.183</v>
       </c>
       <c r="D91" s="5">
@@ -20464,12 +20064,12 @@
         <v>101</v>
       </c>
       <c r="L91" s="2"/>
-      <c r="N91" s="26"/>
-      <c r="O91" s="26"/>
-      <c r="P91" s="26"/>
-      <c r="Q91" s="26"/>
-      <c r="R91" s="26"/>
-      <c r="S91" s="26"/>
+      <c r="N91" s="21"/>
+      <c r="O91" s="21"/>
+      <c r="P91" s="21"/>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="21"/>
+      <c r="S91" s="21"/>
     </row>
     <row r="92" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
@@ -20478,7 +20078,7 @@
       <c r="B92" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C92" s="30">
+      <c r="C92" s="23">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D92" s="5">
@@ -20500,12 +20100,12 @@
         <v>107</v>
       </c>
       <c r="L92" s="2"/>
-      <c r="N92" s="26"/>
-      <c r="O92" s="26"/>
-      <c r="P92" s="26"/>
-      <c r="Q92" s="26"/>
-      <c r="R92" s="26"/>
-      <c r="S92" s="26"/>
+      <c r="N92" s="21"/>
+      <c r="O92" s="21"/>
+      <c r="P92" s="21"/>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="21"/>
+      <c r="S92" s="21"/>
     </row>
     <row r="93" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -20514,7 +20114,7 @@
       <c r="B93" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C93" s="30">
+      <c r="C93" s="23">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D93" s="5">
@@ -20536,12 +20136,12 @@
         <v>102</v>
       </c>
       <c r="L93" s="2"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="26"/>
-      <c r="P93" s="26"/>
-      <c r="Q93" s="26"/>
-      <c r="R93" s="26"/>
-      <c r="S93" s="26"/>
+      <c r="N93" s="21"/>
+      <c r="O93" s="21"/>
+      <c r="P93" s="21"/>
+      <c r="Q93" s="21"/>
+      <c r="R93" s="21"/>
+      <c r="S93" s="21"/>
     </row>
     <row r="94" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
@@ -20550,7 +20150,7 @@
       <c r="B94" s="5">
         <v>2E-3</v>
       </c>
-      <c r="C94" s="30">
+      <c r="C94" s="23">
         <v>0</v>
       </c>
       <c r="D94" s="5">
@@ -20572,12 +20172,12 @@
         <v>103</v>
       </c>
       <c r="L94" s="2"/>
-      <c r="N94" s="26"/>
-      <c r="O94" s="26"/>
-      <c r="P94" s="26"/>
-      <c r="Q94" s="26"/>
-      <c r="R94" s="26"/>
-      <c r="S94" s="26"/>
+      <c r="N94" s="21"/>
+      <c r="O94" s="21"/>
+      <c r="P94" s="21"/>
+      <c r="Q94" s="21"/>
+      <c r="R94" s="21"/>
+      <c r="S94" s="21"/>
     </row>
     <row r="95" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
@@ -20586,7 +20186,7 @@
       <c r="B95" s="5">
         <v>-2.3E-2</v>
       </c>
-      <c r="C95" s="30">
+      <c r="C95" s="23">
         <v>0.02</v>
       </c>
       <c r="D95" s="5">
@@ -20606,12 +20206,12 @@
         <v>122</v>
       </c>
       <c r="L95" s="2"/>
-      <c r="N95" s="26"/>
-      <c r="O95" s="26"/>
-      <c r="P95" s="26"/>
-      <c r="Q95" s="26"/>
-      <c r="R95" s="26"/>
-      <c r="S95" s="26"/>
+      <c r="N95" s="21"/>
+      <c r="O95" s="21"/>
+      <c r="P95" s="21"/>
+      <c r="Q95" s="21"/>
+      <c r="R95" s="21"/>
+      <c r="S95" s="21"/>
     </row>
     <row r="96" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
@@ -20620,7 +20220,7 @@
       <c r="B96" s="5">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="C96" s="30">
+      <c r="C96" s="23">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D96" s="5">
@@ -20640,12 +20240,12 @@
         <v>123</v>
       </c>
       <c r="L96" s="2"/>
-      <c r="N96" s="26"/>
-      <c r="O96" s="26"/>
-      <c r="P96" s="26"/>
-      <c r="Q96" s="26"/>
-      <c r="R96" s="26"/>
-      <c r="S96" s="26"/>
+      <c r="N96" s="21"/>
+      <c r="O96" s="21"/>
+      <c r="P96" s="21"/>
+      <c r="Q96" s="21"/>
+      <c r="R96" s="21"/>
+      <c r="S96" s="21"/>
     </row>
     <row r="97" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
@@ -20654,7 +20254,7 @@
       <c r="B97" s="5">
         <v>2E-3</v>
       </c>
-      <c r="C97" s="30">
+      <c r="C97" s="23">
         <v>1E-3</v>
       </c>
       <c r="D97" s="5">
@@ -20669,12 +20269,12 @@
       <c r="G97" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N97" s="26"/>
-      <c r="O97" s="26"/>
-      <c r="P97" s="26"/>
-      <c r="Q97" s="26"/>
-      <c r="R97" s="26"/>
-      <c r="S97" s="26"/>
+      <c r="N97" s="21"/>
+      <c r="O97" s="21"/>
+      <c r="P97" s="21"/>
+      <c r="Q97" s="21"/>
+      <c r="R97" s="21"/>
+      <c r="S97" s="21"/>
     </row>
     <row r="98" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
@@ -20683,7 +20283,7 @@
       <c r="B98" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C98" s="30">
+      <c r="C98" s="23">
         <v>1.2E-2</v>
       </c>
       <c r="D98" s="5">
@@ -20698,18 +20298,18 @@
       <c r="G98" s="5">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="J98" s="43" t="s">
+      <c r="J98" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="K98" s="43"/>
+      <c r="K98" s="38"/>
       <c r="L98" s="15"/>
       <c r="M98" s="15"/>
-      <c r="N98" s="26"/>
-      <c r="O98" s="26"/>
-      <c r="P98" s="26"/>
-      <c r="Q98" s="26"/>
-      <c r="R98" s="26"/>
-      <c r="S98" s="26"/>
+      <c r="N98" s="21"/>
+      <c r="O98" s="21"/>
+      <c r="P98" s="21"/>
+      <c r="Q98" s="21"/>
+      <c r="R98" s="21"/>
+      <c r="S98" s="21"/>
     </row>
     <row r="99" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
@@ -20718,7 +20318,7 @@
       <c r="B99" s="5">
         <v>1E-3</v>
       </c>
-      <c r="C99" s="30">
+      <c r="C99" s="23">
         <v>1E-3</v>
       </c>
       <c r="D99" s="5">
@@ -20741,12 +20341,12 @@
       </c>
       <c r="L99" s="15"/>
       <c r="M99" s="15"/>
-      <c r="N99" s="26"/>
-      <c r="O99" s="26"/>
-      <c r="P99" s="26"/>
-      <c r="Q99" s="26"/>
-      <c r="R99" s="26"/>
-      <c r="S99" s="26"/>
+      <c r="N99" s="21"/>
+      <c r="O99" s="21"/>
+      <c r="P99" s="21"/>
+      <c r="Q99" s="21"/>
+      <c r="R99" s="21"/>
+      <c r="S99" s="21"/>
     </row>
     <row r="100" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
@@ -20755,7 +20355,7 @@
       <c r="B100" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="C100" s="30">
+      <c r="C100" s="23">
         <v>1.6E-2</v>
       </c>
       <c r="D100" s="5">
@@ -20778,12 +20378,12 @@
       </c>
       <c r="L100" s="15"/>
       <c r="M100" s="15"/>
-      <c r="N100" s="26"/>
-      <c r="O100" s="26"/>
-      <c r="P100" s="26"/>
-      <c r="Q100" s="26"/>
-      <c r="R100" s="26"/>
-      <c r="S100" s="26"/>
+      <c r="N100" s="21"/>
+      <c r="O100" s="21"/>
+      <c r="P100" s="21"/>
+      <c r="Q100" s="21"/>
+      <c r="R100" s="21"/>
+      <c r="S100" s="21"/>
     </row>
     <row r="101" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -20792,7 +20392,7 @@
       <c r="B101" s="5">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="C101" s="30">
+      <c r="C101" s="23">
         <v>2E-3</v>
       </c>
       <c r="D101" s="5">
@@ -20815,12 +20415,12 @@
       </c>
       <c r="L101" s="15"/>
       <c r="M101" s="15"/>
-      <c r="N101" s="26"/>
-      <c r="O101" s="26"/>
-      <c r="P101" s="26"/>
-      <c r="Q101" s="26"/>
-      <c r="R101" s="26"/>
-      <c r="S101" s="26"/>
+      <c r="N101" s="21"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="21"/>
+      <c r="Q101" s="21"/>
+      <c r="R101" s="21"/>
+      <c r="S101" s="21"/>
     </row>
     <row r="102" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
@@ -20829,7 +20429,7 @@
       <c r="B102" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C102" s="30">
+      <c r="C102" s="23">
         <v>1.2E-2</v>
       </c>
       <c r="D102" s="5">
@@ -20852,12 +20452,12 @@
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
-      <c r="N102" s="26"/>
-      <c r="O102" s="26"/>
-      <c r="P102" s="26"/>
-      <c r="Q102" s="26"/>
-      <c r="R102" s="26"/>
-      <c r="S102" s="26"/>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="21"/>
+      <c r="Q102" s="21"/>
+      <c r="R102" s="21"/>
+      <c r="S102" s="21"/>
     </row>
     <row r="103" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
@@ -20866,7 +20466,7 @@
       <c r="B103" s="5">
         <v>0</v>
       </c>
-      <c r="C103" s="30">
+      <c r="C103" s="23">
         <v>0</v>
       </c>
       <c r="D103" s="5">
@@ -20887,12 +20487,12 @@
       </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
-      <c r="N103" s="26"/>
-      <c r="O103" s="26"/>
-      <c r="P103" s="26"/>
-      <c r="Q103" s="26"/>
-      <c r="R103" s="26"/>
-      <c r="S103" s="26"/>
+      <c r="N103" s="21"/>
+      <c r="O103" s="21"/>
+      <c r="P103" s="21"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="21"/>
+      <c r="S103" s="21"/>
     </row>
     <row r="104" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
@@ -20901,7 +20501,7 @@
       <c r="B104" s="5">
         <v>-2E-3</v>
       </c>
-      <c r="C104" s="30">
+      <c r="C104" s="23">
         <v>2E-3</v>
       </c>
       <c r="D104" s="5">
@@ -20920,12 +20520,12 @@
       <c r="K104" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="N104" s="26"/>
-      <c r="O104" s="26"/>
-      <c r="P104" s="26"/>
-      <c r="Q104" s="26"/>
-      <c r="R104" s="26"/>
-      <c r="S104" s="26"/>
+      <c r="N104" s="21"/>
+      <c r="O104" s="21"/>
+      <c r="P104" s="21"/>
+      <c r="Q104" s="21"/>
+      <c r="R104" s="21"/>
+      <c r="S104" s="21"/>
     </row>
     <row r="105" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
@@ -20934,7 +20534,7 @@
       <c r="B105" s="5">
         <v>-0.03</v>
       </c>
-      <c r="C105" s="30">
+      <c r="C105" s="23">
         <v>1.2E-2</v>
       </c>
       <c r="D105" s="5">
@@ -20949,12 +20549,12 @@
       <c r="G105" s="5">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="N105" s="26"/>
-      <c r="O105" s="26"/>
-      <c r="P105" s="26"/>
-      <c r="Q105" s="26"/>
-      <c r="R105" s="26"/>
-      <c r="S105" s="26"/>
+      <c r="N105" s="21"/>
+      <c r="O105" s="21"/>
+      <c r="P105" s="21"/>
+      <c r="Q105" s="21"/>
+      <c r="R105" s="21"/>
+      <c r="S105" s="21"/>
     </row>
     <row r="106" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
@@ -20963,7 +20563,7 @@
       <c r="B106" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="C106" s="30">
+      <c r="C106" s="23">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D106" s="5">
@@ -20978,12 +20578,12 @@
       <c r="G106" s="5">
         <v>2.4E-2</v>
       </c>
-      <c r="N106" s="26"/>
-      <c r="O106" s="26"/>
-      <c r="P106" s="26"/>
-      <c r="Q106" s="26"/>
-      <c r="R106" s="26"/>
-      <c r="S106" s="26"/>
+      <c r="N106" s="21"/>
+      <c r="O106" s="21"/>
+      <c r="P106" s="21"/>
+      <c r="Q106" s="21"/>
+      <c r="R106" s="21"/>
+      <c r="S106" s="21"/>
     </row>
     <row r="107" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
@@ -20992,7 +20592,7 @@
       <c r="B107" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="C107" s="30">
+      <c r="C107" s="23">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D107" s="5">
@@ -21007,12 +20607,12 @@
       <c r="G107" s="5">
         <v>2.7E-2</v>
       </c>
-      <c r="N107" s="26"/>
-      <c r="O107" s="26"/>
-      <c r="P107" s="26"/>
-      <c r="Q107" s="26"/>
-      <c r="R107" s="26"/>
-      <c r="S107" s="26"/>
+      <c r="N107" s="21"/>
+      <c r="O107" s="21"/>
+      <c r="P107" s="21"/>
+      <c r="Q107" s="21"/>
+      <c r="R107" s="21"/>
+      <c r="S107" s="21"/>
     </row>
     <row r="108" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
@@ -21021,7 +20621,7 @@
       <c r="B108" s="5">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="C108" s="30">
+      <c r="C108" s="23">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D108" s="5">
@@ -21036,12 +20636,12 @@
       <c r="G108" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N108" s="26"/>
-      <c r="O108" s="26"/>
-      <c r="P108" s="26"/>
-      <c r="Q108" s="26"/>
-      <c r="R108" s="26"/>
-      <c r="S108" s="26"/>
+      <c r="N108" s="21"/>
+      <c r="O108" s="21"/>
+      <c r="P108" s="21"/>
+      <c r="Q108" s="21"/>
+      <c r="R108" s="21"/>
+      <c r="S108" s="21"/>
     </row>
     <row r="109" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
@@ -21050,7 +20650,7 @@
       <c r="B109" s="5">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="C109" s="30">
+      <c r="C109" s="23">
         <v>2E-3</v>
       </c>
       <c r="D109" s="5">
@@ -21065,12 +20665,12 @@
       <c r="G109" s="5">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="N109" s="26"/>
-      <c r="O109" s="26"/>
-      <c r="P109" s="26"/>
-      <c r="Q109" s="26"/>
-      <c r="R109" s="26"/>
-      <c r="S109" s="26"/>
+      <c r="N109" s="21"/>
+      <c r="O109" s="21"/>
+      <c r="P109" s="21"/>
+      <c r="Q109" s="21"/>
+      <c r="R109" s="21"/>
+      <c r="S109" s="21"/>
     </row>
     <row r="110" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
@@ -21079,7 +20679,7 @@
       <c r="B110" s="5">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="C110" s="30">
+      <c r="C110" s="23">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="D110" s="5">
@@ -21094,12 +20694,12 @@
       <c r="G110" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N110" s="26"/>
-      <c r="O110" s="26"/>
-      <c r="P110" s="26"/>
-      <c r="Q110" s="26"/>
-      <c r="R110" s="26"/>
-      <c r="S110" s="26"/>
+      <c r="N110" s="21"/>
+      <c r="O110" s="21"/>
+      <c r="P110" s="21"/>
+      <c r="Q110" s="21"/>
+      <c r="R110" s="21"/>
+      <c r="S110" s="21"/>
     </row>
     <row r="111" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
@@ -21108,7 +20708,7 @@
       <c r="B111" s="5">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="C111" s="30">
+      <c r="C111" s="23">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D111" s="5">
@@ -21123,12 +20723,12 @@
       <c r="G111" s="5">
         <v>-1.4E-2</v>
       </c>
-      <c r="N111" s="26"/>
-      <c r="O111" s="26"/>
-      <c r="P111" s="26"/>
-      <c r="Q111" s="26"/>
-      <c r="R111" s="26"/>
-      <c r="S111" s="26"/>
+      <c r="N111" s="21"/>
+      <c r="O111" s="21"/>
+      <c r="P111" s="21"/>
+      <c r="Q111" s="21"/>
+      <c r="R111" s="21"/>
+      <c r="S111" s="21"/>
     </row>
     <row r="112" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
@@ -21137,7 +20737,7 @@
       <c r="B112" s="5">
         <v>-4.1000000000000002E-2</v>
       </c>
-      <c r="C112" s="30">
+      <c r="C112" s="23">
         <v>1.6E-2</v>
       </c>
       <c r="D112" s="5">
@@ -21152,12 +20752,12 @@
       <c r="G112" s="5">
         <v>-0.01</v>
       </c>
-      <c r="N112" s="26"/>
-      <c r="O112" s="26"/>
-      <c r="P112" s="26"/>
-      <c r="Q112" s="26"/>
-      <c r="R112" s="26"/>
-      <c r="S112" s="26"/>
+      <c r="N112" s="21"/>
+      <c r="O112" s="21"/>
+      <c r="P112" s="21"/>
+      <c r="Q112" s="21"/>
+      <c r="R112" s="21"/>
+      <c r="S112" s="21"/>
     </row>
     <row r="113" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
@@ -21166,7 +20766,7 @@
       <c r="B113" s="5">
         <v>-1E-3</v>
       </c>
-      <c r="C113" s="30">
+      <c r="C113" s="23">
         <v>1E-3</v>
       </c>
       <c r="D113" s="5">
@@ -21181,12 +20781,12 @@
       <c r="G113" s="5">
         <v>2E-3</v>
       </c>
-      <c r="N113" s="26"/>
-      <c r="O113" s="26"/>
-      <c r="P113" s="26"/>
-      <c r="Q113" s="26"/>
-      <c r="R113" s="26"/>
-      <c r="S113" s="26"/>
+      <c r="N113" s="21"/>
+      <c r="O113" s="21"/>
+      <c r="P113" s="21"/>
+      <c r="Q113" s="21"/>
+      <c r="R113" s="21"/>
+      <c r="S113" s="21"/>
     </row>
     <row r="114" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
@@ -21195,7 +20795,7 @@
       <c r="B114" s="5">
         <v>0</v>
       </c>
-      <c r="C114" s="30">
+      <c r="C114" s="23">
         <v>0</v>
       </c>
       <c r="D114" s="5">
@@ -21210,12 +20810,12 @@
       <c r="G114" s="5">
         <v>0</v>
       </c>
-      <c r="N114" s="26"/>
-      <c r="O114" s="26"/>
-      <c r="P114" s="26"/>
-      <c r="Q114" s="26"/>
-      <c r="R114" s="26"/>
-      <c r="S114" s="26"/>
+      <c r="N114" s="21"/>
+      <c r="O114" s="21"/>
+      <c r="P114" s="21"/>
+      <c r="Q114" s="21"/>
+      <c r="R114" s="21"/>
+      <c r="S114" s="21"/>
     </row>
     <row r="115" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
@@ -21224,7 +20824,7 @@
       <c r="B115" s="5">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C115" s="30">
+      <c r="C115" s="23">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D115" s="5">
@@ -21239,12 +20839,12 @@
       <c r="G115" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="N115" s="26"/>
-      <c r="O115" s="26"/>
-      <c r="P115" s="26"/>
-      <c r="Q115" s="26"/>
-      <c r="R115" s="26"/>
-      <c r="S115" s="26"/>
+      <c r="N115" s="21"/>
+      <c r="O115" s="21"/>
+      <c r="P115" s="21"/>
+      <c r="Q115" s="21"/>
+      <c r="R115" s="21"/>
+      <c r="S115" s="21"/>
     </row>
     <row r="116" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
@@ -21253,7 +20853,7 @@
       <c r="B116" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="C116" s="30">
+      <c r="C116" s="23">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D116" s="5">
@@ -21268,12 +20868,12 @@
       <c r="G116" s="5">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="N116" s="26"/>
-      <c r="O116" s="26"/>
-      <c r="P116" s="26"/>
-      <c r="Q116" s="26"/>
-      <c r="R116" s="26"/>
-      <c r="S116" s="26"/>
+      <c r="N116" s="21"/>
+      <c r="O116" s="21"/>
+      <c r="P116" s="21"/>
+      <c r="Q116" s="21"/>
+      <c r="R116" s="21"/>
+      <c r="S116" s="21"/>
     </row>
     <row r="117" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
@@ -21282,7 +20882,7 @@
       <c r="B117" s="5">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="C117" s="30">
+      <c r="C117" s="23">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D117" s="5">
@@ -21297,12 +20897,12 @@
       <c r="G117" s="5">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="N117" s="26"/>
-      <c r="O117" s="26"/>
-      <c r="P117" s="26"/>
-      <c r="Q117" s="26"/>
-      <c r="R117" s="26"/>
-      <c r="S117" s="26"/>
+      <c r="N117" s="21"/>
+      <c r="O117" s="21"/>
+      <c r="P117" s="21"/>
+      <c r="Q117" s="21"/>
+      <c r="R117" s="21"/>
+      <c r="S117" s="21"/>
     </row>
     <row r="118" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
@@ -21311,7 +20911,7 @@
       <c r="B118" s="5">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C118" s="30">
+      <c r="C118" s="23">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D118" s="5">
@@ -21326,12 +20926,12 @@
       <c r="G118" s="5">
         <v>0.10199999999999999</v>
       </c>
-      <c r="N118" s="26"/>
-      <c r="O118" s="26"/>
-      <c r="P118" s="26"/>
-      <c r="Q118" s="26"/>
-      <c r="R118" s="26"/>
-      <c r="S118" s="26"/>
+      <c r="N118" s="21"/>
+      <c r="O118" s="21"/>
+      <c r="P118" s="21"/>
+      <c r="Q118" s="21"/>
+      <c r="R118" s="21"/>
+      <c r="S118" s="21"/>
     </row>
     <row r="119" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
@@ -21340,7 +20940,7 @@
       <c r="B119" s="5">
         <v>5.8810000000000002</v>
       </c>
-      <c r="C119" s="30">
+      <c r="C119" s="23">
         <v>0.49299999999999999</v>
       </c>
       <c r="D119" s="5">
@@ -21355,31 +20955,31 @@
       <c r="G119" s="5">
         <v>6.8479999999999999</v>
       </c>
-      <c r="N119" s="26"/>
-      <c r="O119" s="26"/>
-      <c r="P119" s="26"/>
-      <c r="Q119" s="26"/>
-      <c r="R119" s="26"/>
-      <c r="S119" s="26"/>
+      <c r="N119" s="21"/>
+      <c r="O119" s="21"/>
+      <c r="P119" s="21"/>
+      <c r="Q119" s="21"/>
+      <c r="R119" s="21"/>
+      <c r="S119" s="21"/>
     </row>
     <row r="120" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A120" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B120" s="31">
+      <c r="B120" s="24">
         <v>0.21099999999999999</v>
       </c>
-      <c r="C120" s="31"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="31"/>
-      <c r="N120" s="26"/>
-      <c r="O120" s="26"/>
-      <c r="P120" s="26"/>
-      <c r="Q120" s="26"/>
-      <c r="R120" s="26"/>
-      <c r="S120" s="26"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="N120" s="21"/>
+      <c r="O120" s="21"/>
+      <c r="P120" s="21"/>
+      <c r="Q120" s="21"/>
+      <c r="R120" s="21"/>
+      <c r="S120" s="21"/>
     </row>
     <row r="121" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
@@ -21393,12 +20993,12 @@
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
-      <c r="N121" s="26"/>
-      <c r="O121" s="26"/>
-      <c r="P121" s="26"/>
-      <c r="Q121" s="26"/>
-      <c r="R121" s="26"/>
-      <c r="S121" s="26"/>
+      <c r="N121" s="21"/>
+      <c r="O121" s="21"/>
+      <c r="P121" s="21"/>
+      <c r="Q121" s="21"/>
+      <c r="R121" s="21"/>
+      <c r="S121" s="21"/>
     </row>
     <row r="122" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
@@ -21412,11 +21012,11 @@
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
-      <c r="N122" s="26"/>
-      <c r="O122" s="26"/>
-      <c r="P122" s="26"/>
-      <c r="Q122" s="26"/>
-      <c r="R122" s="26"/>
+      <c r="N122" s="21"/>
+      <c r="O122" s="21"/>
+      <c r="P122" s="21"/>
+      <c r="Q122" s="21"/>
+      <c r="R122" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -21436,1354 +21036,32 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D5C8F8-9E13-4B08-A7F7-5556B65742BE}">
-  <dimension ref="A1:P72"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1">
-        <v>459.14659999999998</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.837126</v>
-      </c>
-      <c r="D5" s="1">
-        <v>13.868069999999999</v>
-      </c>
-      <c r="E5" s="1">
-        <v>13.81907</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5.1001499999999998E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>140.09469999999999</v>
-      </c>
-      <c r="H5" s="1">
-        <v>59.963610000000003</v>
-      </c>
-      <c r="I5" s="1">
-        <v>94.886269999999996</v>
-      </c>
-      <c r="J5" s="1">
-        <v>100.7687</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.16730159999999999</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.95830329999999997</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.73363670000000003</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0.67147999999999997</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.54864610000000003</v>
-      </c>
-      <c r="P5" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="1">
-        <v>650</v>
-      </c>
-      <c r="C7" s="1">
-        <v>52</v>
-      </c>
-      <c r="D7" s="1">
-        <v>75</v>
-      </c>
-      <c r="E7" s="1">
-        <v>75.001000000000005</v>
-      </c>
-      <c r="F7" s="1">
-        <v>12.72827</v>
-      </c>
-      <c r="G7" s="1">
-        <v>350.00099999999998</v>
-      </c>
-      <c r="H7" s="1">
-        <v>250.001</v>
-      </c>
-      <c r="I7" s="1">
-        <v>167.501</v>
-      </c>
-      <c r="J7" s="1">
-        <v>431.00099999999998</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>2.7641659999999999</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="1">
-        <v>200</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.351351</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="G9" s="1">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="I9" s="1">
-        <v>46.667670000000001</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="1">
-        <v>400</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>6</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5.9625389999999996</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>100.001</v>
-      </c>
-      <c r="H11" s="1">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="I11" s="1">
-        <v>62.500999999999998</v>
-      </c>
-      <c r="J11" s="1">
-        <v>70.858140000000006</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N11" s="1">
-        <v>0.50346310000000005</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B13" s="1">
-        <v>483.33330000000001</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="D13" s="1">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="G13" s="1">
-        <v>133.33439999999999</v>
-      </c>
-      <c r="H13" s="1">
-        <v>50.000999999999998</v>
-      </c>
-      <c r="I13" s="1">
-        <v>87.143860000000004</v>
-      </c>
-      <c r="J13" s="1">
-        <v>100.001</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1">
-        <v>0.66666669999999995</v>
-      </c>
-      <c r="N13" s="1">
-        <v>0.75501629999999997</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B15" s="1">
-        <v>533.33330000000001</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>16.66667</v>
-      </c>
-      <c r="E15" s="1">
-        <v>16.667670000000001</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1E-3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>170.001</v>
-      </c>
-      <c r="H15" s="1">
-        <v>90.001000000000005</v>
-      </c>
-      <c r="I15" s="1">
-        <v>120.001</v>
-      </c>
-      <c r="J15" s="1">
-        <v>124.6439</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1">
-        <v>0.89342080000000001</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="1">
-        <v>-0.50976250000000001</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2.7396950000000002</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2.4788800000000002</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2.4787880000000002</v>
-      </c>
-      <c r="F17" s="1">
-        <v>18.398340000000001</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.8493328</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1.122047</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.55170560000000002</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.906228</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1.782735</v>
-      </c>
-      <c r="L17" s="1">
-        <v>-4.5854359999999996</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1.6911099999999999</v>
-      </c>
-      <c r="N17" s="1">
-        <v>-0.86288640000000005</v>
-      </c>
-      <c r="O17" s="1">
-        <v>-0.19551209999999999</v>
-      </c>
-      <c r="P17" s="1">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2.6202359999999998</v>
-      </c>
-      <c r="C19" s="1">
-        <v>16.860659999999999</v>
-      </c>
-      <c r="D19" s="1">
-        <v>10.454549999999999</v>
-      </c>
-      <c r="E19" s="1">
-        <v>10.463990000000001</v>
-      </c>
-      <c r="F19" s="1">
-        <v>390.2756</v>
-      </c>
-      <c r="G19" s="1">
-        <v>4.621111</v>
-      </c>
-      <c r="H19" s="1">
-        <v>3.8706559999999999</v>
-      </c>
-      <c r="I19" s="1">
-        <v>2.1855950000000002</v>
-      </c>
-      <c r="J19" s="1">
-        <v>10.938599999999999</v>
-      </c>
-      <c r="K19" s="1">
-        <v>4.1781459999999999</v>
-      </c>
-      <c r="L19" s="1">
-        <v>22.026230000000002</v>
-      </c>
-      <c r="M19" s="1">
-        <v>9.1640800000000002</v>
-      </c>
-      <c r="N19" s="1">
-        <v>2.6795620000000002</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1.038225</v>
-      </c>
-      <c r="P19" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="1">
-        <v>104.7474</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3.8081179999999999</v>
-      </c>
-      <c r="D21" s="1">
-        <v>12.889419999999999</v>
-      </c>
-      <c r="E21" s="1">
-        <v>12.891400000000001</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.54727930000000002</v>
-      </c>
-      <c r="G21" s="1">
-        <v>57.687040000000003</v>
-      </c>
-      <c r="H21" s="1">
-        <v>58.308050000000001</v>
-      </c>
-      <c r="I21" s="1">
-        <v>38.365270000000002</v>
-      </c>
-      <c r="J21" s="1">
-        <v>65.065290000000005</v>
-      </c>
-      <c r="K21" s="1">
-        <v>0.37326409999999999</v>
-      </c>
-      <c r="L21" s="1">
-        <v>0.19990550000000001</v>
-      </c>
-      <c r="M21" s="1">
-        <v>0.4195142</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0.27138469999999998</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0.49765350000000003</v>
-      </c>
-      <c r="P21" s="1">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="1">
-        <v>9713</v>
-      </c>
-      <c r="C23" s="1">
-        <v>9713</v>
-      </c>
-      <c r="D23" s="1">
-        <v>9713</v>
-      </c>
-      <c r="E23" s="1">
-        <v>9713</v>
-      </c>
-      <c r="F23" s="1">
-        <v>9713</v>
-      </c>
-      <c r="G23" s="1">
-        <v>9713</v>
-      </c>
-      <c r="H23" s="1">
-        <v>9713</v>
-      </c>
-      <c r="I23" s="1">
-        <v>9713</v>
-      </c>
-      <c r="J23" s="1">
-        <v>9713</v>
-      </c>
-      <c r="K23" s="1">
-        <v>9713</v>
-      </c>
-      <c r="L23" s="1">
-        <v>9713</v>
-      </c>
-      <c r="M23" s="1">
-        <v>9713</v>
-      </c>
-      <c r="N23" s="1">
-        <v>9713</v>
-      </c>
-      <c r="O23" s="1">
-        <v>9713</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B30" s="1">
-        <v>7.0690710000000001</v>
-      </c>
-      <c r="C30" s="1">
-        <v>5.4257199999999998E-2</v>
-      </c>
-      <c r="D30" s="1">
-        <v>4.2605789999999999</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.20765980000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B31" s="1">
-        <v>17</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1">
-        <v>5</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" s="1">
-        <v>7</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>4</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="1">
-        <v>7.0690710000000001</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>4</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="1">
-        <v>8</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B36" s="1">
-        <v>-0.46064690000000003</v>
-      </c>
-      <c r="C36" s="1">
-        <v>3.9354939999999998</v>
-      </c>
-      <c r="D36" s="1">
-        <v>-0.68179529999999999</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1.441406</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B37" s="1">
-        <v>5.7457539999999998</v>
-      </c>
-      <c r="C37" s="1">
-        <v>16.488109999999999</v>
-      </c>
-      <c r="D37" s="1">
-        <v>5.0847449999999998</v>
-      </c>
-      <c r="E37" s="1">
-        <v>3.0776520000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1.9550650000000001</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0.22653609999999999</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0.62612959999999995</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.40565279999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B39" s="1">
-        <v>9713</v>
-      </c>
-      <c r="C39" s="1">
-        <v>9713</v>
-      </c>
-      <c r="D39" s="1">
-        <v>9713</v>
-      </c>
-      <c r="E39" s="1">
-        <v>9713</v>
-      </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C53" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H53" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C54" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" s="22">
-        <v>459.14659999999998</v>
-      </c>
-      <c r="E54" s="22">
-        <v>650</v>
-      </c>
-      <c r="F54" s="22">
-        <v>200</v>
-      </c>
-      <c r="G54" s="22">
-        <v>-0.50976250000000001</v>
-      </c>
-      <c r="H54" s="22">
-        <v>2.6202359999999998</v>
-      </c>
-      <c r="I54" s="22">
-        <v>104.7474</v>
-      </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C55" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" s="22">
-        <v>3.837126</v>
-      </c>
-      <c r="E55" s="22">
-        <v>52</v>
-      </c>
-      <c r="F55" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="G55" s="22">
-        <v>2.7396950000000002</v>
-      </c>
-      <c r="H55" s="22">
-        <v>16.860659999999999</v>
-      </c>
-      <c r="I55" s="22">
-        <v>3.8081179999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C56" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56" s="22">
-        <v>13.868069999999999</v>
-      </c>
-      <c r="E56" s="22">
-        <v>75</v>
-      </c>
-      <c r="F56" s="22">
-        <v>1.351351</v>
-      </c>
-      <c r="G56" s="22">
-        <v>2.4788800000000002</v>
-      </c>
-      <c r="H56" s="22">
-        <v>10.454549999999999</v>
-      </c>
-      <c r="I56" s="22">
-        <v>12.889419999999999</v>
-      </c>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C57" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D57" s="22">
-        <v>13.81907</v>
-      </c>
-      <c r="E57" s="22">
-        <v>75.001000000000005</v>
-      </c>
-      <c r="F57" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="G57" s="22">
-        <v>2.4787880000000002</v>
-      </c>
-      <c r="H57" s="22">
-        <v>10.463990000000001</v>
-      </c>
-      <c r="I57" s="22">
-        <v>12.891400000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C58" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D58" s="22">
-        <v>5.1001499999999998E-2</v>
-      </c>
-      <c r="E58" s="22">
-        <v>12.72827</v>
-      </c>
-      <c r="F58" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="G58" s="22">
-        <v>18.398340000000001</v>
-      </c>
-      <c r="H58" s="22">
-        <v>390.2756</v>
-      </c>
-      <c r="I58" s="22">
-        <v>0.54727930000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C59" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D59" s="22">
-        <v>140.09469999999999</v>
-      </c>
-      <c r="E59" s="22">
-        <v>350.00099999999998</v>
-      </c>
-      <c r="F59" s="22">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="G59" s="22">
-        <v>0.8493328</v>
-      </c>
-      <c r="H59" s="22">
-        <v>4.621111</v>
-      </c>
-      <c r="I59" s="22">
-        <v>57.687040000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C60" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D60" s="22">
-        <v>59.963610000000003</v>
-      </c>
-      <c r="E60" s="22">
-        <v>250.001</v>
-      </c>
-      <c r="F60" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="G60" s="22">
-        <v>1.122047</v>
-      </c>
-      <c r="H60" s="22">
-        <v>3.8706559999999999</v>
-      </c>
-      <c r="I60" s="22">
-        <v>58.308050000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C61" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D61" s="22">
-        <v>94.886269999999996</v>
-      </c>
-      <c r="E61" s="22">
-        <v>167.501</v>
-      </c>
-      <c r="F61" s="22">
-        <v>46.667670000000001</v>
-      </c>
-      <c r="G61" s="22">
-        <v>0.55170560000000002</v>
-      </c>
-      <c r="H61" s="22">
-        <v>2.1855950000000002</v>
-      </c>
-      <c r="I61" s="22">
-        <v>38.365270000000002</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C62" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" s="22">
-        <v>100.7687</v>
-      </c>
-      <c r="E62" s="22">
-        <v>431.00099999999998</v>
-      </c>
-      <c r="F62" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="G62" s="22">
-        <v>1.906228</v>
-      </c>
-      <c r="H62" s="22">
-        <v>10.938599999999999</v>
-      </c>
-      <c r="I62" s="22">
-        <v>65.065290000000005</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C63" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D63" s="22">
-        <v>0.16730159999999999</v>
-      </c>
-      <c r="E63" s="22">
-        <v>1</v>
-      </c>
-      <c r="F63" s="22">
-        <v>0</v>
-      </c>
-      <c r="G63" s="22">
-        <v>1.782735</v>
-      </c>
-      <c r="H63" s="22">
-        <v>4.1781459999999999</v>
-      </c>
-      <c r="I63" s="22">
-        <v>0.37326409999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="C64" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D64" s="22">
-        <v>1.649357</v>
-      </c>
-      <c r="E64" s="22">
-        <v>50</v>
-      </c>
-      <c r="F64" s="22">
-        <v>0</v>
-      </c>
-      <c r="G64" s="22">
-        <v>6.4825220000000003</v>
-      </c>
-      <c r="H64" s="22">
-        <v>170.85720000000001</v>
-      </c>
-      <c r="I64" s="22">
-        <v>1.3795059999999999</v>
-      </c>
-      <c r="L64" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="M64" s="25">
-        <v>1</v>
-      </c>
-      <c r="N64" s="25">
-        <v>0</v>
-      </c>
-      <c r="O64" s="25">
-        <v>-0.2</v>
-      </c>
-      <c r="P64" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C65" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D65" s="22">
-        <v>0.73363670000000003</v>
-      </c>
-      <c r="E65" s="22">
-        <v>2.7641659999999999</v>
-      </c>
-      <c r="F65" s="22">
-        <v>0</v>
-      </c>
-      <c r="G65" s="22">
-        <v>1.6911099999999999</v>
-      </c>
-      <c r="H65" s="22">
-        <v>9.1640800000000002</v>
-      </c>
-      <c r="I65" s="22">
-        <v>0.4195142</v>
-      </c>
-    </row>
-    <row r="66" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C66" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D66" s="22">
-        <v>0.67147999999999997</v>
-      </c>
-      <c r="E66" s="22">
-        <v>1</v>
-      </c>
-      <c r="F66" s="22">
-        <v>0</v>
-      </c>
-      <c r="G66" s="22">
-        <v>-0.86288640000000005</v>
-      </c>
-      <c r="H66" s="22">
-        <v>2.6795620000000002</v>
-      </c>
-      <c r="I66" s="22">
-        <v>0.27138469999999998</v>
-      </c>
-      <c r="L66" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="M66" s="25">
-        <v>1</v>
-      </c>
-      <c r="N66" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C67" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D67" s="22">
-        <v>0.54864610000000003</v>
-      </c>
-      <c r="E67" s="22">
-        <v>1</v>
-      </c>
-      <c r="F67" s="22">
-        <v>0</v>
-      </c>
-      <c r="G67" s="22">
-        <v>-0.19551209999999999</v>
-      </c>
-      <c r="H67" s="22">
-        <v>1.038225</v>
-      </c>
-      <c r="I67" s="22">
-        <v>0.49765350000000003</v>
-      </c>
-    </row>
-    <row r="68" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C68" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D68" s="22">
-        <v>54.654940000000003</v>
-      </c>
-      <c r="E68" s="22">
-        <v>76</v>
-      </c>
-      <c r="F68" s="22">
-        <v>31</v>
-      </c>
-      <c r="G68" s="22">
-        <v>-0.23314480000000001</v>
-      </c>
-      <c r="H68" s="22">
-        <v>3.9417200000000001</v>
-      </c>
-      <c r="I68" s="22">
-        <v>8.1765159999999995</v>
-      </c>
-    </row>
-    <row r="69" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C69" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D69" s="22">
-        <v>7.0690710000000001</v>
-      </c>
-      <c r="E69" s="22">
-        <v>17</v>
-      </c>
-      <c r="F69" s="22">
-        <v>0</v>
-      </c>
-      <c r="G69" s="22">
-        <v>-0.46064690000000003</v>
-      </c>
-      <c r="H69" s="22">
-        <v>5.7457539999999998</v>
-      </c>
-      <c r="I69" s="22">
-        <v>1.9550650000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C70" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D70" s="22">
-        <v>5.4257199999999998E-2</v>
-      </c>
-      <c r="E70" s="22">
-        <v>1</v>
-      </c>
-      <c r="F70" s="22">
-        <v>0</v>
-      </c>
-      <c r="G70" s="22">
-        <v>3.9354939999999998</v>
-      </c>
-      <c r="H70" s="22">
-        <v>16.488109999999999</v>
-      </c>
-      <c r="I70" s="22">
-        <v>0.22653609999999999</v>
-      </c>
-    </row>
-    <row r="71" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C71" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D71" s="22">
-        <v>4.2605789999999999</v>
-      </c>
-      <c r="E71" s="22">
-        <v>5</v>
-      </c>
-      <c r="F71" s="22">
-        <v>1</v>
-      </c>
-      <c r="G71" s="22">
-        <v>-0.68179529999999999</v>
-      </c>
-      <c r="H71" s="22">
-        <v>5.0847449999999998</v>
-      </c>
-      <c r="I71" s="22">
-        <v>0.62612959999999995</v>
-      </c>
-    </row>
-    <row r="72" spans="3:14" x14ac:dyDescent="0.15">
-      <c r="C72" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D72" s="23">
-        <v>0.20765980000000001</v>
-      </c>
-      <c r="E72" s="23">
-        <v>1</v>
-      </c>
-      <c r="F72" s="23">
-        <v>0</v>
-      </c>
-      <c r="G72" s="23">
-        <v>1.441406</v>
-      </c>
-      <c r="H72" s="23">
-        <v>3.0776520000000001</v>
-      </c>
-      <c r="I72" s="23">
-        <v>0.40565279999999998</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B998375-8C0C-459B-8B1A-5150957B0E55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
+      <c r="A1" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -22807,15 +21085,15 @@
         <v>56</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="30">
+        <v>169</v>
+      </c>
+      <c r="C4" s="23">
         <v>1.4E-2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" s="30">
+        <v>197</v>
+      </c>
+      <c r="E4" s="23">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="J4" s="8" t="s">
@@ -22839,15 +21117,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="30">
+        <v>170</v>
+      </c>
+      <c r="C5" s="23">
         <v>2E-3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E5" s="30">
+        <v>198</v>
+      </c>
+      <c r="E5" s="23">
         <v>1E-3</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -22856,7 +21134,7 @@
       <c r="K5" s="5">
         <v>4.7E-2</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="23">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="M5" s="5">
@@ -22866,7 +21144,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -22874,15 +21152,15 @@
         <v>51</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="30">
+        <v>171</v>
+      </c>
+      <c r="C6" s="23">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="E6" s="30">
+        <v>199</v>
+      </c>
+      <c r="E6" s="23">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -22891,7 +21169,7 @@
       <c r="K6" s="5">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="23">
         <v>1E-3</v>
       </c>
       <c r="M6" s="5">
@@ -22901,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -22909,15 +21187,15 @@
         <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="30">
+        <v>172</v>
+      </c>
+      <c r="C7" s="23">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="30">
+        <v>200</v>
+      </c>
+      <c r="E7" s="23">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -22926,7 +21204,7 @@
       <c r="K7" s="5">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="23">
         <v>5.5E-2</v>
       </c>
       <c r="M7" s="5">
@@ -22941,15 +21219,15 @@
         <v>49</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="30">
+        <v>173</v>
+      </c>
+      <c r="C8" s="23">
         <v>0.01</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" s="30">
+        <v>201</v>
+      </c>
+      <c r="E8" s="23">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -22958,7 +21236,7 @@
       <c r="K8" s="5">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="23">
         <v>7.8E-2</v>
       </c>
       <c r="M8" s="5">
@@ -22973,15 +21251,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9" s="30">
+        <v>174</v>
+      </c>
+      <c r="C9" s="23">
         <v>0.183</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="E9" s="30">
+        <v>202</v>
+      </c>
+      <c r="E9" s="23">
         <v>0.155</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -22990,7 +21268,7 @@
       <c r="K9" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="L9" s="30">
+      <c r="L9" s="23">
         <v>0.01</v>
       </c>
       <c r="M9" s="5">
@@ -23005,15 +21283,15 @@
         <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="30">
+        <v>175</v>
+      </c>
+      <c r="C10" s="23">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E10" s="30">
+        <v>203</v>
+      </c>
+      <c r="E10" s="23">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -23022,7 +21300,7 @@
       <c r="K10" s="5">
         <v>0.81</v>
       </c>
-      <c r="L10" s="30">
+      <c r="L10" s="23">
         <v>0.17</v>
       </c>
       <c r="M10" s="5">
@@ -23032,7 +21310,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -23040,15 +21318,15 @@
         <v>46</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C11" s="30">
+        <v>176</v>
+      </c>
+      <c r="C11" s="23">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E11" s="30">
+        <v>204</v>
+      </c>
+      <c r="E11" s="23">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -23057,7 +21335,7 @@
       <c r="K11" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="23">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="M11" s="5">
@@ -23067,7 +21345,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -23075,15 +21353,15 @@
         <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C12" s="30">
+        <v>177</v>
+      </c>
+      <c r="C12" s="23">
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="E12" s="30">
+        <v>205</v>
+      </c>
+      <c r="E12" s="23">
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -23092,7 +21370,7 @@
       <c r="K12" s="5">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="L12" s="30">
+      <c r="L12" s="23">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M12" s="5">
@@ -23107,15 +21385,15 @@
         <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" s="30">
+        <v>178</v>
+      </c>
+      <c r="C13" s="23">
         <v>0.02</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="E13" s="30">
+        <v>206</v>
+      </c>
+      <c r="E13" s="23">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -23124,7 +21402,7 @@
       <c r="K13" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="23">
         <v>0</v>
       </c>
       <c r="M13" s="5">
@@ -23134,7 +21412,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -23142,15 +21420,15 @@
         <v>75</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C14" s="30">
+        <v>179</v>
+      </c>
+      <c r="C14" s="23">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E14" s="30">
+        <v>207</v>
+      </c>
+      <c r="E14" s="23">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -23159,7 +21437,7 @@
       <c r="K14" s="5">
         <v>-8.4000000000000005E-2</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="23">
         <v>1.9E-2</v>
       </c>
       <c r="M14" s="5">
@@ -23169,7 +21447,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -23177,15 +21455,15 @@
         <v>76</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" s="30">
+        <v>180</v>
+      </c>
+      <c r="C15" s="23">
         <v>1E-3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="30">
+        <v>194</v>
+      </c>
+      <c r="E15" s="23">
         <v>1E-3</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -23194,7 +21472,7 @@
       <c r="K15" s="5">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="23">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="M15" s="5">
@@ -23204,7 +21482,7 @@
         <v>0.06</v>
       </c>
       <c r="O15" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -23212,15 +21490,15 @@
         <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C16" s="30">
+        <v>181</v>
+      </c>
+      <c r="C16" s="23">
         <v>1.2E-2</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" s="30">
+        <v>208</v>
+      </c>
+      <c r="E16" s="23">
         <v>0.01</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -23229,7 +21507,7 @@
       <c r="K16" s="5">
         <v>-2E-3</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="23">
         <v>1E-3</v>
       </c>
       <c r="M16" s="5">
@@ -23239,7 +21517,7 @@
         <v>0.02</v>
       </c>
       <c r="O16" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -23247,15 +21525,15 @@
         <v>77</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" s="30">
+        <v>170</v>
+      </c>
+      <c r="C17" s="23">
         <v>1E-3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E17" s="30">
+        <v>185</v>
+      </c>
+      <c r="E17" s="23">
         <v>1E-3</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -23264,7 +21542,7 @@
       <c r="K17" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="23">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="M17" s="5">
@@ -23279,15 +21557,15 @@
         <v>78</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C18" s="30">
+        <v>182</v>
+      </c>
+      <c r="C18" s="23">
         <v>1.6E-2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="E18" s="30">
+        <v>209</v>
+      </c>
+      <c r="E18" s="23">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -23296,7 +21574,7 @@
       <c r="K18" s="5">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="L18" s="30">
+      <c r="L18" s="23">
         <v>1E-3</v>
       </c>
       <c r="M18" s="5">
@@ -23306,7 +21584,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="O18" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -23314,15 +21592,15 @@
         <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C19" s="30">
+        <v>183</v>
+      </c>
+      <c r="C19" s="23">
         <v>2E-3</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E19" s="30">
+        <v>170</v>
+      </c>
+      <c r="E19" s="23">
         <v>2E-3</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -23331,7 +21609,7 @@
       <c r="K19" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="23">
         <v>1.4E-2</v>
       </c>
       <c r="M19" s="5">
@@ -23346,15 +21624,15 @@
         <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="30">
+        <v>184</v>
+      </c>
+      <c r="C20" s="23">
         <v>1.2E-2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E20" s="30">
+        <v>203</v>
+      </c>
+      <c r="E20" s="23">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -23363,7 +21641,7 @@
       <c r="K20" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="23">
         <v>2E-3</v>
       </c>
       <c r="M20" s="5">
@@ -23373,7 +21651,7 @@
         <v>1E-3</v>
       </c>
       <c r="O20" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -23381,15 +21659,15 @@
         <v>15</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C21" s="30">
+        <v>185</v>
+      </c>
+      <c r="C21" s="23">
         <v>0</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="E21" s="30">
+        <v>185</v>
+      </c>
+      <c r="E21" s="23">
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -23398,7 +21676,7 @@
       <c r="K21" s="5">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="L21" s="30">
+      <c r="L21" s="23">
         <v>1.2E-2</v>
       </c>
       <c r="M21" s="5">
@@ -23413,15 +21691,15 @@
         <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C22" s="30">
+        <v>186</v>
+      </c>
+      <c r="C22" s="23">
         <v>2E-3</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E22" s="30">
+        <v>170</v>
+      </c>
+      <c r="E22" s="23">
         <v>1E-3</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -23430,7 +21708,7 @@
       <c r="K22" s="5">
         <v>0</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="23">
         <v>0</v>
       </c>
       <c r="M22" s="5">
@@ -23445,15 +21723,15 @@
         <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C23" s="30">
+        <v>187</v>
+      </c>
+      <c r="C23" s="23">
         <v>1.2E-2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E23" s="30">
+        <v>210</v>
+      </c>
+      <c r="E23" s="23">
         <v>0.01</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -23462,7 +21740,7 @@
       <c r="K23" s="5">
         <v>2E-3</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="23">
         <v>2E-3</v>
       </c>
       <c r="M23" s="5">
@@ -23477,15 +21755,15 @@
         <v>18</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C24" s="30">
+        <v>188</v>
+      </c>
+      <c r="C24" s="23">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E24" s="30">
+        <v>211</v>
+      </c>
+      <c r="E24" s="23">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -23494,7 +21772,7 @@
       <c r="K24" s="5">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="L24" s="30">
+      <c r="L24" s="23">
         <v>1.2E-2</v>
       </c>
       <c r="M24" s="5">
@@ -23509,15 +21787,15 @@
         <v>19</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C25" s="30">
+        <v>189</v>
+      </c>
+      <c r="C25" s="23">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="E25" s="30">
+        <v>212</v>
+      </c>
+      <c r="E25" s="23">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -23526,7 +21804,7 @@
       <c r="K25" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L25" s="30">
+      <c r="L25" s="23">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M25" s="5">
@@ -23536,7 +21814,7 @@
         <v>1E-3</v>
       </c>
       <c r="O25" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -23544,15 +21822,15 @@
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C26" s="30">
+        <v>190</v>
+      </c>
+      <c r="C26" s="23">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E26" s="30">
+        <v>213</v>
+      </c>
+      <c r="E26" s="23">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -23561,7 +21839,7 @@
       <c r="K26" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="23">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="M26" s="5">
@@ -23571,7 +21849,7 @@
         <v>2E-3</v>
       </c>
       <c r="O26" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -23579,15 +21857,15 @@
         <v>10</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C27" s="30">
+        <v>191</v>
+      </c>
+      <c r="C27" s="23">
         <v>2E-3</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E27" s="30">
+        <v>214</v>
+      </c>
+      <c r="E27" s="23">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -23596,7 +21874,7 @@
       <c r="K27" s="5">
         <v>-1E-3</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="23">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M27" s="5">
@@ -23611,15 +21889,15 @@
         <v>60</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C28" s="30">
+        <v>179</v>
+      </c>
+      <c r="C28" s="23">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E28" s="30">
+        <v>215</v>
+      </c>
+      <c r="E28" s="23">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -23628,7 +21906,7 @@
       <c r="K28" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28" s="23">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M28" s="5">
@@ -23638,7 +21916,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="O28" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -23646,15 +21924,15 @@
         <v>58</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C29" s="30">
+        <v>192</v>
+      </c>
+      <c r="C29" s="23">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E29" s="30">
+        <v>216</v>
+      </c>
+      <c r="E29" s="23">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -23663,7 +21941,7 @@
       <c r="K29" s="5">
         <v>-6.4000000000000001E-2</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="23">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="M29" s="5">
@@ -23673,7 +21951,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -23681,15 +21959,15 @@
         <v>12</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C30" s="30">
+        <v>193</v>
+      </c>
+      <c r="C30" s="23">
         <v>1.6E-2</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E30" s="30">
+        <v>217</v>
+      </c>
+      <c r="E30" s="23">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -23698,7 +21976,7 @@
       <c r="K30" s="5">
         <v>-2E-3</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L30" s="23">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="M30" s="5">
@@ -23713,15 +21991,15 @@
         <v>59</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C31" s="30">
+        <v>194</v>
+      </c>
+      <c r="C31" s="23">
         <v>1E-3</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E31" s="30">
+        <v>170</v>
+      </c>
+      <c r="E31" s="23">
         <v>1E-3</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -23730,7 +22008,7 @@
       <c r="K31" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L31" s="30">
+      <c r="L31" s="23">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="M31" s="5">
@@ -23745,15 +22023,15 @@
         <v>82</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C32" s="30">
+        <v>195</v>
+      </c>
+      <c r="C32" s="23">
         <v>0.49299999999999999</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E32" s="30">
+        <v>218</v>
+      </c>
+      <c r="E32" s="23">
         <v>0.39800000000000002</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -23762,7 +22040,7 @@
       <c r="K32" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="23">
         <v>1E-3</v>
       </c>
       <c r="M32" s="5">
@@ -23772,19 +22050,19 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C33" s="30"/>
+        <v>168</v>
+      </c>
+      <c r="C33" s="23"/>
       <c r="D33" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>82</v>
@@ -23792,7 +22070,7 @@
       <c r="K33" s="5">
         <v>3.452</v>
       </c>
-      <c r="L33" s="30">
+      <c r="L33" s="23">
         <v>0.42399999999999999</v>
       </c>
       <c r="M33" s="5">
@@ -23802,40 +22080,40 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.15">
-      <c r="A34" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="31"/>
+      <c r="A34" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="24"/>
       <c r="D34" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K34" s="31">
-        <v>0</v>
-      </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
+      <c r="K34" s="24">
+        <v>0</v>
+      </c>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>211</v>
+        <v>165</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>166</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>88</v>
@@ -23852,11 +22130,11 @@
         <v>88</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>89</v>
@@ -23878,4 +22156,477 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E10:M49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="5" width="47.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="5:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>228</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="56">
+        <v>1</v>
+      </c>
+      <c r="F12" s="56">
+        <v>1</v>
+      </c>
+      <c r="G12" s="56">
+        <v>613882.93999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="56">
+        <v>1</v>
+      </c>
+      <c r="F13" s="56">
+        <v>12</v>
+      </c>
+      <c r="G13" s="56">
+        <v>325464.01</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="56">
+        <v>1</v>
+      </c>
+      <c r="F14" s="56">
+        <v>38</v>
+      </c>
+      <c r="G14" s="56">
+        <v>290389.75</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="56">
+        <v>1</v>
+      </c>
+      <c r="F15" s="56">
+        <v>26</v>
+      </c>
+      <c r="G15" s="56">
+        <v>221768.17</v>
+      </c>
+      <c r="I15">
+        <f>SUM(G12:G36)</f>
+        <v>4421909.8400000008</v>
+      </c>
+      <c r="K15">
+        <f>SUM(G28:G46)</f>
+        <v>2972215.41</v>
+      </c>
+      <c r="M15">
+        <f>SUM(G40:G48)</f>
+        <v>1568807.16</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="56">
+        <v>1</v>
+      </c>
+      <c r="F16" s="56">
+        <v>18</v>
+      </c>
+      <c r="G16" s="56">
+        <v>198288.78</v>
+      </c>
+      <c r="I16">
+        <f>I15/G49</f>
+        <v>0.70984874877545179</v>
+      </c>
+      <c r="K16">
+        <f>K15/G49</f>
+        <v>0.47712944547047037</v>
+      </c>
+      <c r="M16">
+        <f>M15/G49</f>
+        <v>0.25184045805781735</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="56">
+        <v>1</v>
+      </c>
+      <c r="F17" s="56">
+        <v>4</v>
+      </c>
+      <c r="G17" s="56">
+        <v>190092.75</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="56">
+        <v>1</v>
+      </c>
+      <c r="F18" s="56">
+        <v>19</v>
+      </c>
+      <c r="G18" s="56">
+        <v>154640.03</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="56">
+        <v>1</v>
+      </c>
+      <c r="F19" s="56">
+        <v>32</v>
+      </c>
+      <c r="G19" s="56">
+        <v>154115.67000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="56">
+        <v>1</v>
+      </c>
+      <c r="F20" s="56">
+        <v>31</v>
+      </c>
+      <c r="G20" s="56">
+        <v>146555.62</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="56">
+        <v>1</v>
+      </c>
+      <c r="F21" s="56">
+        <v>10</v>
+      </c>
+      <c r="G21" s="56">
+        <v>140116.24</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="56">
+        <v>1</v>
+      </c>
+      <c r="F22" s="56">
+        <v>5</v>
+      </c>
+      <c r="G22" s="56">
+        <v>107840.98</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="56">
+        <v>1</v>
+      </c>
+      <c r="F23" s="56">
+        <v>16</v>
+      </c>
+      <c r="G23" s="56">
+        <v>105107.33</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="56">
+        <v>1</v>
+      </c>
+      <c r="F24" s="56">
+        <v>37</v>
+      </c>
+      <c r="G24" s="56">
+        <v>104545.45</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="56">
+        <v>1</v>
+      </c>
+      <c r="F25" s="56">
+        <v>27</v>
+      </c>
+      <c r="G25" s="56">
+        <v>72095.899999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="56">
+        <v>1</v>
+      </c>
+      <c r="F26" s="56">
+        <v>15</v>
+      </c>
+      <c r="G26" s="56">
+        <v>61570.05</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="56">
+        <v>1</v>
+      </c>
+      <c r="F27" s="56">
+        <v>13</v>
+      </c>
+      <c r="G27" s="56">
+        <v>53871.01</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="56">
+        <v>1.2</v>
+      </c>
+      <c r="F28" s="56">
+        <v>21</v>
+      </c>
+      <c r="G28" s="56">
+        <v>555744.56999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="56">
+        <v>1.2</v>
+      </c>
+      <c r="F29" s="56">
+        <v>7</v>
+      </c>
+      <c r="G29" s="56">
+        <v>211115.16</v>
+      </c>
+    </row>
+    <row r="30" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="56">
+        <v>1.2</v>
+      </c>
+      <c r="F30" s="56">
+        <v>25</v>
+      </c>
+      <c r="G30" s="56">
+        <v>160450.59</v>
+      </c>
+    </row>
+    <row r="31" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="56">
+        <v>1.2</v>
+      </c>
+      <c r="F31" s="56">
+        <v>30</v>
+      </c>
+      <c r="G31" s="56">
+        <v>131425.56</v>
+      </c>
+    </row>
+    <row r="32" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="56">
+        <v>1.2</v>
+      </c>
+      <c r="F32" s="56">
+        <v>3</v>
+      </c>
+      <c r="G32" s="56">
+        <v>107642.43</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="56">
+        <v>1.2</v>
+      </c>
+      <c r="F33" s="56">
+        <v>11</v>
+      </c>
+      <c r="G33" s="56">
+        <v>102853.46</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="56">
+        <v>1.2</v>
+      </c>
+      <c r="F34" s="56">
+        <v>28</v>
+      </c>
+      <c r="G34" s="56">
+        <v>89612.479999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="56">
+        <v>1.2</v>
+      </c>
+      <c r="F35" s="56">
+        <v>29</v>
+      </c>
+      <c r="G35" s="56">
+        <v>62049.08</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="56">
+        <v>1.2</v>
+      </c>
+      <c r="F36" s="56">
+        <v>9</v>
+      </c>
+      <c r="G36" s="56">
+        <v>60671.83</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="56">
+        <v>1.2</v>
+      </c>
+      <c r="F37" s="56">
+        <v>20</v>
+      </c>
+      <c r="G37" s="56">
+        <v>44495.11</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="56">
+        <v>2</v>
+      </c>
+      <c r="F38" s="56">
+        <v>14</v>
+      </c>
+      <c r="G38" s="56">
+        <v>157217.45000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="56">
+        <v>2</v>
+      </c>
+      <c r="F39" s="56">
+        <v>24</v>
+      </c>
+      <c r="G39" s="56">
+        <v>36939.51</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="56">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F40" s="56">
+        <v>35</v>
+      </c>
+      <c r="G40" s="56">
+        <v>267834.62</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="56">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F41" s="56">
+        <v>22</v>
+      </c>
+      <c r="G41" s="56">
+        <v>230726.27</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="56">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F42" s="56">
+        <v>17</v>
+      </c>
+      <c r="G42" s="56">
+        <v>204124.81</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="56">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F43" s="56">
+        <v>23</v>
+      </c>
+      <c r="G43" s="56">
+        <v>176058.26</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="56">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F44" s="56">
+        <v>34</v>
+      </c>
+      <c r="G44" s="56">
+        <v>158894.73000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="56">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F45" s="56">
+        <v>6</v>
+      </c>
+      <c r="G45" s="56">
+        <v>116980.05</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="56">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F46" s="56">
+        <v>8</v>
+      </c>
+      <c r="G46" s="56">
+        <v>97379.44</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="56">
+        <v>3</v>
+      </c>
+      <c r="F47" s="56">
+        <v>2</v>
+      </c>
+      <c r="G47" s="56">
+        <v>233427.19</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="56">
+        <v>3</v>
+      </c>
+      <c r="F48" s="56">
+        <v>36</v>
+      </c>
+      <c r="G48" s="56">
+        <v>83381.789999999994</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.15">
+      <c r="G49">
+        <f>SUM(G12:G48)</f>
+        <v>6229369.0700000012</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="E12:G48">
+    <sortCondition ref="E12:E48"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/回归结果/double玉米.xlsx
+++ b/回归结果/double玉米.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="统计性描述" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="233">
   <si>
     <t>yield</t>
   </si>
@@ -561,14 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>***</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>农业保险</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -646,10 +638,6 @@
   </si>
   <si>
     <t>样本数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准差</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -972,17 +960,42 @@
   <si>
     <t>Shape_Area</t>
   </si>
+  <si>
+    <t>***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N=9713</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N=9022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N=689</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="180" formatCode="&quot;(&quot;General&quot;)&quot;"/>
-    <numFmt numFmtId="181" formatCode="0.000_);[Red]\(0.000\)"/>
-    <numFmt numFmtId="183" formatCode="&quot;(&quot;0.000&quot;)&quot;"/>
+    <numFmt numFmtId="178" formatCode="&quot;(&quot;General&quot;)&quot;"/>
+    <numFmt numFmtId="179" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="180" formatCode="&quot;(&quot;0.000&quot;)&quot;"/>
+    <numFmt numFmtId="183" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1130,7 +1143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1185,12 +1198,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1200,7 +1207,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1218,49 +1225,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1272,25 +1243,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1301,6 +1269,75 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1945,20 +1982,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS201"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="6" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="1.625" customWidth="1"/>
-    <col min="8" max="11" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.625" customWidth="1"/>
-    <col min="13" max="13" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.625" customWidth="1"/>
-    <col min="18" max="23" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="4.125" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="13" width="7.125" customWidth="1"/>
+    <col min="14" max="14" width="4.125" customWidth="1"/>
+    <col min="15" max="15" width="6" customWidth="1"/>
+    <col min="16" max="17" width="7.125" customWidth="1"/>
+    <col min="18" max="18" width="4.5" customWidth="1"/>
+    <col min="19" max="23" width="9.125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="1.625" customWidth="1"/>
     <col min="25" max="30" width="9.5" bestFit="1" customWidth="1"/>
     <col min="31" max="34" width="9.125" bestFit="1" customWidth="1"/>
@@ -1971,29 +2014,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -2020,1251 +2063,1044 @@
       <c r="AS1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3">
+      <c r="B2" s="22"/>
+      <c r="C2" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="56">
+        <v>1</v>
+      </c>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="56">
         <v>2</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3">
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="56">
         <v>3</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="22"/>
       <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="31"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="18" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="H3" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="I3" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="18" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="L3" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="M3" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="P3" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="18" t="s">
+      <c r="N3" s="6"/>
+      <c r="O3" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="P3" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="Q3" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="U3" s="18" t="s">
-        <v>151</v>
-      </c>
+      <c r="R3" s="64"/>
     </row>
     <row r="4" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="63">
+        <v>459.14659999999998</v>
+      </c>
+      <c r="D4" s="63">
+        <v>650</v>
+      </c>
+      <c r="E4" s="63">
+        <v>200</v>
+      </c>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63">
+        <v>458.80329999999998</v>
+      </c>
+      <c r="H4" s="63">
+        <v>650</v>
+      </c>
+      <c r="I4" s="63">
+        <v>200</v>
+      </c>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63">
+        <v>463.6961</v>
+      </c>
+      <c r="L4" s="63">
+        <v>650</v>
+      </c>
+      <c r="M4" s="63">
+        <v>200</v>
+      </c>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63">
+        <v>440.38459999999998</v>
+      </c>
+      <c r="P4" s="63">
+        <v>480.76920000000001</v>
+      </c>
+      <c r="Q4" s="63">
+        <v>400</v>
+      </c>
+      <c r="R4" s="61"/>
+    </row>
+    <row r="5" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="63">
+        <v>3.837126</v>
+      </c>
+      <c r="D5" s="63">
+        <v>52</v>
+      </c>
+      <c r="E5" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63">
+        <v>3.055021</v>
+      </c>
+      <c r="H5" s="63">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I5" s="63">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63">
+        <v>13.94136</v>
+      </c>
+      <c r="L5" s="63">
+        <v>40</v>
+      </c>
+      <c r="M5" s="63">
+        <v>10</v>
+      </c>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63">
+        <v>51</v>
+      </c>
+      <c r="P5" s="63">
+        <v>52</v>
+      </c>
+      <c r="Q5" s="63">
+        <v>50</v>
+      </c>
+      <c r="R5" s="61"/>
+    </row>
+    <row r="6" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="5">
-        <v>458.80329999999998</v>
-      </c>
-      <c r="D4" s="5">
-        <v>650</v>
-      </c>
-      <c r="E4" s="5">
-        <v>200</v>
-      </c>
-      <c r="F4" s="5">
-        <v>105.1883</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5">
-        <v>463.6961</v>
-      </c>
-      <c r="I4" s="5">
-        <v>650</v>
-      </c>
-      <c r="J4" s="5">
-        <v>200</v>
-      </c>
-      <c r="K4" s="5">
-        <v>98.884640000000005</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5">
-        <v>440.38459999999998</v>
-      </c>
-      <c r="N4" s="5">
-        <v>480.76920000000001</v>
-      </c>
-      <c r="O4" s="5">
-        <v>400</v>
-      </c>
-      <c r="P4" s="5">
-        <v>57.112470000000002</v>
-      </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5">
-        <v>459.14659999999998</v>
-      </c>
-      <c r="S4" s="5">
-        <v>650</v>
-      </c>
-      <c r="T4" s="5">
-        <v>200</v>
-      </c>
-      <c r="U4" s="5">
-        <v>104.7474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="19" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="63">
+        <v>13.868069999999999</v>
+      </c>
+      <c r="D6" s="63">
+        <v>75</v>
+      </c>
+      <c r="E6" s="63">
+        <v>1.351351</v>
+      </c>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63">
+        <v>14.5215</v>
+      </c>
+      <c r="H6" s="63">
+        <v>75</v>
+      </c>
+      <c r="I6" s="63">
+        <v>1.351351</v>
+      </c>
+      <c r="J6" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="63">
+        <v>5.3424740000000002</v>
+      </c>
+      <c r="L6" s="63">
+        <v>50</v>
+      </c>
+      <c r="M6" s="63">
+        <v>1.351351</v>
+      </c>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63">
+        <v>3.3038460000000001</v>
+      </c>
+      <c r="P6" s="63">
+        <v>4.8076930000000004</v>
+      </c>
+      <c r="Q6" s="63">
+        <v>1.8</v>
+      </c>
+      <c r="R6" s="61"/>
+    </row>
+    <row r="7" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="5">
-        <v>3.055021</v>
-      </c>
-      <c r="D5" s="5">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2.2535799999999999</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5">
-        <v>13.94136</v>
-      </c>
-      <c r="I5" s="5">
-        <v>40</v>
-      </c>
-      <c r="J5" s="5">
-        <v>10</v>
-      </c>
-      <c r="K5" s="5">
-        <v>4.6245130000000003</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5">
-        <v>51</v>
-      </c>
-      <c r="N5" s="5">
-        <v>52</v>
-      </c>
-      <c r="O5" s="5">
+      <c r="B7" s="37"/>
+      <c r="C7" s="63">
+        <v>13.81907</v>
+      </c>
+      <c r="D7" s="63">
+        <v>75.001000000000005</v>
+      </c>
+      <c r="E7" s="63">
+        <v>1E-3</v>
+      </c>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63">
+        <v>14.477080000000001</v>
+      </c>
+      <c r="H7" s="63">
+        <v>75.001000000000005</v>
+      </c>
+      <c r="I7" s="63">
+        <v>1E-3</v>
+      </c>
+      <c r="J7" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="63">
+        <v>5.2374869999999998</v>
+      </c>
+      <c r="L7" s="63">
+        <v>50.000999999999998</v>
+      </c>
+      <c r="M7" s="63">
+        <v>1E-3</v>
+      </c>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63">
+        <v>1.8625389999999999</v>
+      </c>
+      <c r="P7" s="63">
+        <v>1.924077</v>
+      </c>
+      <c r="Q7" s="63">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="R7" s="61"/>
+    </row>
+    <row r="8" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="63">
+        <v>5.1001499999999998E-2</v>
+      </c>
+      <c r="D8" s="63">
+        <v>12.72827</v>
+      </c>
+      <c r="E8" s="63">
+        <v>1E-3</v>
+      </c>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63">
+        <v>4.6417300000000002E-2</v>
+      </c>
+      <c r="H8" s="63">
+        <v>12.72827</v>
+      </c>
+      <c r="I8" s="63">
+        <v>1E-3</v>
+      </c>
+      <c r="J8" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="K8" s="63">
+        <v>0.1069876</v>
+      </c>
+      <c r="L8" s="63">
+        <v>12.72827</v>
+      </c>
+      <c r="M8" s="63">
+        <v>1E-3</v>
+      </c>
+      <c r="N8" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="O8" s="63">
+        <v>1.443308</v>
+      </c>
+      <c r="P8" s="63">
+        <v>2.885615</v>
+      </c>
+      <c r="Q8" s="63">
+        <v>1E-3</v>
+      </c>
+      <c r="R8" s="61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="63">
+        <v>140.09469999999999</v>
+      </c>
+      <c r="D9" s="63">
+        <v>350.00099999999998</v>
+      </c>
+      <c r="E9" s="63">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63">
+        <v>141.49160000000001</v>
+      </c>
+      <c r="H9" s="63">
+        <v>350.00099999999998</v>
+      </c>
+      <c r="I9" s="63">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63">
+        <v>121.6416</v>
+      </c>
+      <c r="L9" s="63">
+        <v>267.44290000000001</v>
+      </c>
+      <c r="M9" s="63">
+        <v>10.000999999999999</v>
+      </c>
+      <c r="N9" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="O9" s="63">
+        <v>195.38560000000001</v>
+      </c>
+      <c r="P9" s="63">
+        <v>230.77019999999999</v>
+      </c>
+      <c r="Q9" s="63">
+        <v>160.001</v>
+      </c>
+      <c r="R9" s="61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="63">
+        <v>59.963610000000003</v>
+      </c>
+      <c r="D10" s="63">
+        <v>250.001</v>
+      </c>
+      <c r="E10" s="63">
+        <v>1E-3</v>
+      </c>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63">
+        <v>57.560760000000002</v>
+      </c>
+      <c r="H10" s="63">
+        <v>250.001</v>
+      </c>
+      <c r="I10" s="63">
+        <v>1E-3</v>
+      </c>
+      <c r="J10" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="K10" s="63">
+        <v>91.186729999999997</v>
+      </c>
+      <c r="L10" s="63">
+        <v>240.001</v>
+      </c>
+      <c r="M10" s="63">
+        <v>1E-3</v>
+      </c>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63">
+        <v>142.84719999999999</v>
+      </c>
+      <c r="P10" s="63">
+        <v>157.69329999999999</v>
+      </c>
+      <c r="Q10" s="63">
+        <v>128.001</v>
+      </c>
+      <c r="R10" s="61"/>
+    </row>
+    <row r="11" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="63">
+        <v>94.886269999999996</v>
+      </c>
+      <c r="D11" s="63">
+        <v>167.501</v>
+      </c>
+      <c r="E11" s="63">
+        <v>46.667670000000001</v>
+      </c>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63">
+        <v>95.535359999999997</v>
+      </c>
+      <c r="H11" s="63">
+        <v>167.501</v>
+      </c>
+      <c r="I11" s="63">
+        <v>46.667670000000001</v>
+      </c>
+      <c r="J11" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="K11" s="63">
+        <v>86.46069</v>
+      </c>
+      <c r="L11" s="63">
+        <v>167.501</v>
+      </c>
+      <c r="M11" s="63">
+        <v>46.667670000000001</v>
+      </c>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63">
+        <v>69.462540000000004</v>
+      </c>
+      <c r="P11" s="63">
+        <v>76.924080000000004</v>
+      </c>
+      <c r="Q11" s="63">
+        <v>62.000999999999998</v>
+      </c>
+      <c r="R11" s="61"/>
+    </row>
+    <row r="12" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="63">
+        <v>100.7687</v>
+      </c>
+      <c r="D12" s="63">
+        <v>431.00099999999998</v>
+      </c>
+      <c r="E12" s="63">
+        <v>1E-3</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63">
+        <v>102.01439999999999</v>
+      </c>
+      <c r="H12" s="63">
+        <v>431.00099999999998</v>
+      </c>
+      <c r="I12" s="63">
+        <v>1E-3</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="K12" s="63">
+        <v>84.715760000000003</v>
+      </c>
+      <c r="L12" s="63">
+        <v>431.00099999999998</v>
+      </c>
+      <c r="M12" s="63">
+        <v>1E-3</v>
+      </c>
+      <c r="N12" s="63"/>
+      <c r="O12" s="63">
+        <v>11.61609</v>
+      </c>
+      <c r="P12" s="63">
+        <v>14.831189999999999</v>
+      </c>
+      <c r="Q12" s="63">
+        <v>8.4009999999999998</v>
+      </c>
+      <c r="R12" s="61"/>
+    </row>
+    <row r="13" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="63">
+        <v>0.16730159999999999</v>
+      </c>
+      <c r="D13" s="63">
+        <v>1</v>
+      </c>
+      <c r="E13" s="63">
+        <v>0</v>
+      </c>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63">
+        <v>0.1569497</v>
+      </c>
+      <c r="H13" s="63">
+        <v>1</v>
+      </c>
+      <c r="I13" s="63">
+        <v>0</v>
+      </c>
+      <c r="J13" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="K13" s="63">
+        <v>0.3033382</v>
+      </c>
+      <c r="L13" s="63">
+        <v>1</v>
+      </c>
+      <c r="M13" s="63">
+        <v>0</v>
+      </c>
+      <c r="N13" s="63"/>
+      <c r="O13" s="63">
+        <v>0</v>
+      </c>
+      <c r="P13" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="63">
+        <v>0</v>
+      </c>
+      <c r="R13" s="61"/>
+    </row>
+    <row r="14" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="63">
+        <v>1.649357</v>
+      </c>
+      <c r="D14" s="63">
         <v>50</v>
       </c>
-      <c r="P5" s="5">
-        <v>1.4142140000000001</v>
-      </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5">
-        <v>3.837126</v>
-      </c>
-      <c r="S5" s="5">
-        <v>52</v>
-      </c>
-      <c r="T5" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="U5" s="5">
-        <v>3.8081179999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C6" s="5">
-        <v>14.5215</v>
-      </c>
-      <c r="D6" s="5">
-        <v>75</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1.351351</v>
-      </c>
-      <c r="F6" s="5">
-        <v>13.099</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5">
-        <v>5.3424740000000002</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="E14" s="63">
+        <v>0</v>
+      </c>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63">
+        <v>1.532708</v>
+      </c>
+      <c r="H14" s="63">
+        <v>23</v>
+      </c>
+      <c r="I14" s="63">
+        <v>0</v>
+      </c>
+      <c r="J14" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="63">
+        <v>3.093629</v>
+      </c>
+      <c r="L14" s="63">
+        <v>15</v>
+      </c>
+      <c r="M14" s="63">
+        <v>0.2</v>
+      </c>
+      <c r="N14" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="O14" s="63">
+        <v>30.3</v>
+      </c>
+      <c r="P14" s="63">
         <v>50</v>
       </c>
-      <c r="J6" s="5">
-        <v>1.351351</v>
-      </c>
-      <c r="K6" s="5">
-        <v>4.0896030000000003</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5">
-        <v>3.3038460000000001</v>
-      </c>
-      <c r="N6" s="5">
-        <v>4.8076930000000004</v>
-      </c>
-      <c r="O6" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="P6" s="5">
-        <v>2.12676</v>
-      </c>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5">
-        <v>13.868069999999999</v>
-      </c>
-      <c r="S6" s="5">
-        <v>75</v>
-      </c>
-      <c r="T6" s="5">
-        <v>1.351351</v>
-      </c>
-      <c r="U6" s="5">
-        <v>12.889419999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="5">
-        <v>14.477080000000001</v>
-      </c>
-      <c r="D7" s="5">
-        <v>75.001000000000005</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="F7" s="5">
-        <v>13.1</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5">
-        <v>5.2374869999999998</v>
-      </c>
-      <c r="I7" s="5">
-        <v>50.000999999999998</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="K7" s="5">
-        <v>3.9974759999999998</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5">
-        <v>1.8625389999999999</v>
-      </c>
-      <c r="N7" s="5">
-        <v>1.924077</v>
-      </c>
-      <c r="O7" s="5">
-        <v>1.8009999999999999</v>
-      </c>
-      <c r="P7" s="5">
-        <v>8.7028700000000001E-2</v>
-      </c>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5">
-        <v>13.81907</v>
-      </c>
-      <c r="S7" s="5">
-        <v>75.001000000000005</v>
-      </c>
-      <c r="T7" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="U7" s="5">
-        <v>12.891400000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="5">
-        <v>4.6417300000000002E-2</v>
-      </c>
-      <c r="D8" s="5">
-        <v>12.72827</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.51267180000000001</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5">
-        <v>0.1069876</v>
-      </c>
-      <c r="I8" s="5">
-        <v>12.72827</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0.87561330000000004</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5">
-        <v>1.443308</v>
-      </c>
-      <c r="N8" s="5">
-        <v>2.885615</v>
-      </c>
-      <c r="O8" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="P8" s="5">
-        <v>2.0397310000000002</v>
-      </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5">
-        <v>5.1001499999999998E-2</v>
-      </c>
-      <c r="S8" s="5">
-        <v>12.72827</v>
-      </c>
-      <c r="T8" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="U8" s="5">
-        <v>0.54727930000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="5">
-        <v>141.49160000000001</v>
-      </c>
-      <c r="D9" s="5">
-        <v>350.00099999999998</v>
-      </c>
-      <c r="E9" s="5">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="F9" s="5">
-        <v>58.117260000000002</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5">
-        <v>121.6416</v>
-      </c>
-      <c r="I9" s="5">
-        <v>267.44290000000001</v>
-      </c>
-      <c r="J9" s="5">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="K9" s="5">
-        <v>48.061599999999999</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5">
-        <v>195.38560000000001</v>
-      </c>
-      <c r="N9" s="5">
-        <v>230.77019999999999</v>
-      </c>
-      <c r="O9" s="5">
-        <v>160.001</v>
-      </c>
-      <c r="P9" s="5">
-        <v>50.041400000000003</v>
-      </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5">
-        <v>140.09469999999999</v>
-      </c>
-      <c r="S9" s="5">
-        <v>350.00099999999998</v>
-      </c>
-      <c r="T9" s="5">
-        <v>10.000999999999999</v>
-      </c>
-      <c r="U9" s="5">
-        <v>57.687040000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="5">
-        <v>57.560760000000002</v>
-      </c>
-      <c r="D10" s="5">
-        <v>250.001</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="F10" s="5">
-        <v>58.561920000000001</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5">
-        <v>91.186729999999997</v>
-      </c>
-      <c r="I10" s="5">
-        <v>240.001</v>
-      </c>
-      <c r="J10" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="K10" s="5">
-        <v>44.192819999999998</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5">
-        <v>142.84719999999999</v>
-      </c>
-      <c r="N10" s="5">
-        <v>157.69329999999999</v>
-      </c>
-      <c r="O10" s="5">
-        <v>128.001</v>
-      </c>
-      <c r="P10" s="5">
-        <v>20.995629999999998</v>
-      </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5">
-        <v>59.963610000000003</v>
-      </c>
-      <c r="S10" s="5">
-        <v>250.001</v>
-      </c>
-      <c r="T10" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="U10" s="5">
-        <v>58.308050000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="5">
-        <v>95.535359999999997</v>
-      </c>
-      <c r="D11" s="5">
-        <v>167.501</v>
-      </c>
-      <c r="E11" s="5">
-        <v>46.667670000000001</v>
-      </c>
-      <c r="F11" s="5">
-        <v>38.546759999999999</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5">
-        <v>86.46069</v>
-      </c>
-      <c r="I11" s="5">
-        <v>167.501</v>
-      </c>
-      <c r="J11" s="5">
-        <v>46.667670000000001</v>
-      </c>
-      <c r="K11" s="5">
-        <v>34.880090000000003</v>
-      </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5">
-        <v>69.462540000000004</v>
-      </c>
-      <c r="N11" s="5">
-        <v>76.924080000000004</v>
-      </c>
-      <c r="O11" s="5">
-        <v>62.000999999999998</v>
-      </c>
-      <c r="P11" s="5">
-        <v>10.552210000000001</v>
-      </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5">
-        <v>94.886269999999996</v>
-      </c>
-      <c r="S11" s="5">
-        <v>167.501</v>
-      </c>
-      <c r="T11" s="5">
-        <v>46.667670000000001</v>
-      </c>
-      <c r="U11" s="5">
-        <v>38.365270000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="19" t="s">
+      <c r="Q14" s="63">
+        <v>10.6</v>
+      </c>
+      <c r="R14" s="37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="5">
-        <v>102.01439999999999</v>
-      </c>
-      <c r="D12" s="5">
-        <v>431.00099999999998</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="F12" s="5">
-        <v>66.592579999999998</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5">
-        <v>84.715760000000003</v>
-      </c>
-      <c r="I12" s="5">
-        <v>431.00099999999998</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="K12" s="5">
-        <v>36.247100000000003</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5">
-        <v>11.61609</v>
-      </c>
-      <c r="N12" s="5">
-        <v>14.831189999999999</v>
-      </c>
-      <c r="O12" s="5">
-        <v>8.4009999999999998</v>
-      </c>
-      <c r="P12" s="5">
-        <v>4.5468299999999999</v>
-      </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5">
-        <v>100.7687</v>
-      </c>
-      <c r="S12" s="5">
-        <v>431.00099999999998</v>
-      </c>
-      <c r="T12" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="U12" s="5">
-        <v>65.065290000000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0.1569497</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.36377350000000003</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5">
-        <v>0.3033382</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0.460034</v>
-      </c>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5">
-        <v>0</v>
-      </c>
-      <c r="O13" s="5">
-        <v>0</v>
-      </c>
-      <c r="P13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5">
-        <v>0.16730159999999999</v>
-      </c>
-      <c r="S13" s="5">
-        <v>1</v>
-      </c>
-      <c r="T13" s="5">
-        <v>0</v>
-      </c>
-      <c r="U13" s="5">
-        <v>0.37326409999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="19" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="63">
+        <v>0.73363670000000003</v>
+      </c>
+      <c r="D15" s="63">
+        <v>2.7641659999999999</v>
+      </c>
+      <c r="E15" s="63">
+        <v>0</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63">
+        <v>0.73408209999999996</v>
+      </c>
+      <c r="H15" s="63">
+        <v>2.7641659999999999</v>
+      </c>
+      <c r="I15" s="63">
+        <v>0</v>
+      </c>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63">
+        <v>0.72896680000000003</v>
+      </c>
+      <c r="L15" s="63">
+        <v>2.7641659999999999</v>
+      </c>
+      <c r="M15" s="63">
+        <v>0</v>
+      </c>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63">
+        <v>0.3333333</v>
+      </c>
+      <c r="P15" s="63">
+        <v>0.66666669999999995</v>
+      </c>
+      <c r="Q15" s="63">
+        <v>0</v>
+      </c>
+      <c r="R15" s="61"/>
+    </row>
+    <row r="16" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="62" t="s">
         <v>141</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1.532708</v>
-      </c>
-      <c r="D14" s="5">
-        <v>23</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1.2002349999999999</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5">
-        <v>3.093629</v>
-      </c>
-      <c r="I14" s="5">
+      <c r="B16" s="37"/>
+      <c r="C16" s="63">
+        <v>0.67147999999999997</v>
+      </c>
+      <c r="D16" s="63">
+        <v>1</v>
+      </c>
+      <c r="E16" s="63">
+        <v>0</v>
+      </c>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63">
+        <v>0.67883590000000005</v>
+      </c>
+      <c r="H16" s="63">
+        <v>1</v>
+      </c>
+      <c r="I16" s="63">
+        <v>0</v>
+      </c>
+      <c r="J16" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="K16" s="63">
+        <v>0.57601480000000005</v>
+      </c>
+      <c r="L16" s="63">
+        <v>0.98635320000000004</v>
+      </c>
+      <c r="M16" s="63">
+        <v>0</v>
+      </c>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63">
+        <v>0.37652819999999998</v>
+      </c>
+      <c r="P16" s="63">
+        <v>0.40740589999999999</v>
+      </c>
+      <c r="Q16" s="63">
+        <v>0.34565050000000003</v>
+      </c>
+      <c r="R16" s="61"/>
+    </row>
+    <row r="17" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="62" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="63">
+        <v>0.54864610000000003</v>
+      </c>
+      <c r="D17" s="63">
+        <v>1</v>
+      </c>
+      <c r="E17" s="63">
+        <v>0</v>
+      </c>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63">
+        <v>0.54799379999999998</v>
+      </c>
+      <c r="H17" s="63">
+        <v>1</v>
+      </c>
+      <c r="I17" s="63">
+        <v>0</v>
+      </c>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63">
+        <v>0.55732950000000003</v>
+      </c>
+      <c r="L17" s="63">
+        <v>1</v>
+      </c>
+      <c r="M17" s="63">
+        <v>0</v>
+      </c>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="P17" s="63">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="63">
+        <v>0</v>
+      </c>
+      <c r="R17" s="61"/>
+    </row>
+    <row r="18" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="63">
+        <v>54.654940000000003</v>
+      </c>
+      <c r="D18" s="63">
+        <v>76</v>
+      </c>
+      <c r="E18" s="63">
+        <v>31</v>
+      </c>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63">
+        <v>54.775350000000003</v>
+      </c>
+      <c r="H18" s="63">
+        <v>76</v>
+      </c>
+      <c r="I18" s="63">
+        <v>31</v>
+      </c>
+      <c r="J18" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="K18" s="63">
+        <v>53.070489999999999</v>
+      </c>
+      <c r="L18" s="63">
+        <v>76</v>
+      </c>
+      <c r="M18" s="63">
+        <v>31</v>
+      </c>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63">
+        <v>57.329729999999998</v>
+      </c>
+      <c r="P18" s="63">
+        <v>60</v>
+      </c>
+      <c r="Q18" s="63">
+        <v>54.659469999999999</v>
+      </c>
+      <c r="R18" s="61"/>
+    </row>
+    <row r="19" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="63">
+        <v>7.0690710000000001</v>
+      </c>
+      <c r="D19" s="63">
+        <v>17</v>
+      </c>
+      <c r="E19" s="63">
+        <v>0</v>
+      </c>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63">
+        <v>7.0596579999999998</v>
+      </c>
+      <c r="H19" s="63">
+        <v>17</v>
+      </c>
+      <c r="I19" s="63">
+        <v>0</v>
+      </c>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63">
+        <v>7.1895259999999999</v>
+      </c>
+      <c r="L19" s="63">
         <v>15</v>
       </c>
-      <c r="J14" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="K14" s="5">
-        <v>1.481031</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5">
-        <v>30.3</v>
-      </c>
-      <c r="N14" s="5">
-        <v>50</v>
-      </c>
-      <c r="O14" s="5">
-        <v>10.6</v>
-      </c>
-      <c r="P14" s="5">
-        <v>27.860009999999999</v>
-      </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5">
-        <v>1.649357</v>
-      </c>
-      <c r="S14" s="5">
-        <v>50</v>
-      </c>
-      <c r="T14" s="5">
-        <v>0</v>
-      </c>
-      <c r="U14" s="5">
-        <v>1.3795059999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A15" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="5">
-        <v>0.73408209999999996</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2.7641659999999999</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.42160959999999997</v>
-      </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5">
-        <v>0.72896680000000003</v>
-      </c>
-      <c r="I15" s="5">
-        <v>2.7641659999999999</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0.39094230000000002</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5">
-        <v>0.3333333</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0.66666669999999995</v>
-      </c>
-      <c r="O15" s="5">
-        <v>0</v>
-      </c>
-      <c r="P15" s="5">
-        <v>0.4714045</v>
-      </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5">
-        <v>0.73363670000000003</v>
-      </c>
-      <c r="S15" s="5">
-        <v>2.7641659999999999</v>
-      </c>
-      <c r="T15" s="5">
-        <v>0</v>
-      </c>
-      <c r="U15" s="5">
-        <v>0.4195142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A16" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.67883590000000005</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.2731228</v>
-      </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5">
-        <v>0.57601480000000005</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0.98635320000000004</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0.22686829999999999</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5">
-        <v>0.37652819999999998</v>
-      </c>
-      <c r="N16" s="5">
-        <v>0.40740589999999999</v>
-      </c>
-      <c r="O16" s="5">
-        <v>0.34565050000000003</v>
-      </c>
-      <c r="P16" s="5">
-        <v>4.3667699999999997E-2</v>
-      </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5">
-        <v>0.67147999999999997</v>
-      </c>
-      <c r="S16" s="5">
-        <v>1</v>
-      </c>
-      <c r="T16" s="5">
-        <v>0</v>
-      </c>
-      <c r="U16" s="5">
-        <v>0.27138469999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A17" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="5">
-        <v>0.54799379999999998</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.49771880000000002</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5">
-        <v>0.55732950000000003</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0.49706329999999999</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5">
+      <c r="M19" s="63">
+        <v>0</v>
+      </c>
+      <c r="N19" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="O19" s="63">
+        <v>8.0345359999999992</v>
+      </c>
+      <c r="P19" s="63">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="63">
+        <v>7.0690710000000001</v>
+      </c>
+      <c r="R19" s="61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="63">
+        <v>5.4257199999999998E-2</v>
+      </c>
+      <c r="D20" s="63">
+        <v>1</v>
+      </c>
+      <c r="E20" s="63">
+        <v>0</v>
+      </c>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63">
+        <v>5.50876E-2</v>
+      </c>
+      <c r="H20" s="63">
+        <v>1</v>
+      </c>
+      <c r="I20" s="63">
+        <v>0</v>
+      </c>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63">
+        <v>4.2090000000000002E-2</v>
+      </c>
+      <c r="L20" s="63">
+        <v>1</v>
+      </c>
+      <c r="M20" s="63">
+        <v>0</v>
+      </c>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63">
         <v>0.5</v>
       </c>
-      <c r="N17" s="5">
-        <v>1</v>
-      </c>
-      <c r="O17" s="5">
-        <v>0</v>
-      </c>
-      <c r="P17" s="5">
-        <v>0.70710680000000004</v>
-      </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5">
-        <v>0.54864610000000003</v>
-      </c>
-      <c r="S17" s="5">
-        <v>1</v>
-      </c>
-      <c r="T17" s="5">
-        <v>0</v>
-      </c>
-      <c r="U17" s="5">
-        <v>0.49765350000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A18" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="5">
-        <v>54.775350000000003</v>
-      </c>
-      <c r="D18" s="5">
-        <v>76</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="P20" s="63">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="63">
+        <v>0</v>
+      </c>
+      <c r="R20" s="61"/>
+    </row>
+    <row r="21" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="62" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="63">
+        <v>4.2605789999999999</v>
+      </c>
+      <c r="D21" s="63">
+        <v>5</v>
+      </c>
+      <c r="E21" s="63">
+        <v>1</v>
+      </c>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63">
+        <v>4.2562620000000004</v>
+      </c>
+      <c r="H21" s="63">
+        <v>5</v>
+      </c>
+      <c r="I21" s="63">
+        <v>1</v>
+      </c>
+      <c r="J21" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="K21" s="63">
+        <v>4.3164009999999999</v>
+      </c>
+      <c r="L21" s="63">
+        <v>5</v>
+      </c>
+      <c r="M21" s="63">
+        <v>3</v>
+      </c>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63">
+        <v>4.5</v>
+      </c>
+      <c r="P21" s="63">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="63">
+        <v>4</v>
+      </c>
+      <c r="R21" s="61"/>
+    </row>
+    <row r="22" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="63">
+        <v>0.20765980000000001</v>
+      </c>
+      <c r="D22" s="63">
+        <v>1</v>
+      </c>
+      <c r="E22" s="63">
+        <v>0</v>
+      </c>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63">
+        <v>0.2094879</v>
+      </c>
+      <c r="H22" s="63">
+        <v>1</v>
+      </c>
+      <c r="I22" s="63">
+        <v>0</v>
+      </c>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63">
+        <v>0.18142240000000001</v>
+      </c>
+      <c r="L22" s="63">
+        <v>1</v>
+      </c>
+      <c r="M22" s="63">
+        <v>0</v>
+      </c>
+      <c r="N22" s="63" t="s">
+        <v>228</v>
+      </c>
+      <c r="O22" s="63">
+        <v>1</v>
+      </c>
+      <c r="P22" s="63">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="63">
+        <v>1</v>
+      </c>
+      <c r="R22" s="61" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="64"/>
+    </row>
+    <row r="25" spans="1:45" ht="15" x14ac:dyDescent="0.15">
+      <c r="A25" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="5">
-        <v>8.2261030000000002</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5">
-        <v>53.070489999999999</v>
-      </c>
-      <c r="I18" s="5">
-        <v>76</v>
-      </c>
-      <c r="J18" s="5">
-        <v>31</v>
-      </c>
-      <c r="K18" s="5">
-        <v>7.3305170000000004</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5">
-        <v>57.329729999999998</v>
-      </c>
-      <c r="N18" s="5">
-        <v>60</v>
-      </c>
-      <c r="O18" s="5">
-        <v>54.659469999999999</v>
-      </c>
-      <c r="P18" s="5">
-        <v>3.7763249999999999</v>
-      </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5">
-        <v>54.654940000000003</v>
-      </c>
-      <c r="S18" s="5">
-        <v>76</v>
-      </c>
-      <c r="T18" s="5">
-        <v>31</v>
-      </c>
-      <c r="U18" s="5">
-        <v>8.1765159999999995</v>
-      </c>
-    </row>
-    <row r="19" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A19" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="5">
-        <v>7.0596579999999998</v>
-      </c>
-      <c r="D19" s="5">
-        <v>17</v>
-      </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1.959765</v>
-      </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5">
-        <v>7.1895259999999999</v>
-      </c>
-      <c r="I19" s="5">
-        <v>15</v>
-      </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <v>1.8911789999999999</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5">
-        <v>8.0345359999999992</v>
-      </c>
-      <c r="N19" s="5">
-        <v>9</v>
-      </c>
-      <c r="O19" s="5">
-        <v>7.0690710000000001</v>
-      </c>
-      <c r="P19" s="5">
-        <v>1.3653729999999999</v>
-      </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5">
-        <v>7.0690710000000001</v>
-      </c>
-      <c r="S19" s="5">
-        <v>17</v>
-      </c>
-      <c r="T19" s="5">
-        <v>0</v>
-      </c>
-      <c r="U19" s="5">
-        <v>1.9550650000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A20" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="5">
-        <v>5.50876E-2</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0.2281637</v>
-      </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5">
-        <v>4.2090000000000002E-2</v>
-      </c>
-      <c r="I20" s="5">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0.20094029999999999</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="N20" s="5">
-        <v>1</v>
-      </c>
-      <c r="O20" s="5">
-        <v>0</v>
-      </c>
-      <c r="P20" s="5">
-        <v>0.70710680000000004</v>
-      </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5">
-        <v>5.4257199999999998E-2</v>
-      </c>
-      <c r="S20" s="5">
-        <v>1</v>
-      </c>
-      <c r="T20" s="5">
-        <v>0</v>
-      </c>
-      <c r="U20" s="5">
-        <v>0.22653609999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" s="5">
-        <v>4.2562620000000004</v>
-      </c>
-      <c r="D21" s="5">
-        <v>5</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5">
-        <v>0.63097460000000005</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5">
-        <v>4.3164009999999999</v>
-      </c>
-      <c r="I21" s="5">
-        <v>5</v>
-      </c>
-      <c r="J21" s="5">
-        <v>3</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0.55644309999999997</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="N21" s="5">
-        <v>5</v>
-      </c>
-      <c r="O21" s="5">
-        <v>4</v>
-      </c>
-      <c r="P21" s="5">
-        <v>0.70710680000000004</v>
-      </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5">
-        <v>4.2605789999999999</v>
-      </c>
-      <c r="S21" s="5">
-        <v>5</v>
-      </c>
-      <c r="T21" s="5">
-        <v>1</v>
-      </c>
-      <c r="U21" s="5">
-        <v>0.62612959999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="5">
-        <v>0.2094879</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0.40696569999999999</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5">
-        <v>0.18142240000000001</v>
-      </c>
-      <c r="I22" s="5">
-        <v>1</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0.38564769999999998</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5">
-        <v>1</v>
-      </c>
-      <c r="N22" s="5">
-        <v>1</v>
-      </c>
-      <c r="O22" s="5">
-        <v>1</v>
-      </c>
-      <c r="P22" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5">
-        <v>0.20765980000000001</v>
-      </c>
-      <c r="S22" s="5">
-        <v>1</v>
-      </c>
-      <c r="T22" s="5">
-        <v>0</v>
-      </c>
-      <c r="U22" s="5">
-        <v>0.40565279999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A23" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="31">
-        <v>9022</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="31">
-        <v>689</v>
-      </c>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="31">
-        <v>2</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="31">
-        <v>9713</v>
-      </c>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-    </row>
-    <row r="25" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A25" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
     </row>
     <row r="26" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="3"/>
@@ -3318,7 +3154,7 @@
       <c r="AS26" s="3"/>
     </row>
     <row r="27" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
         <v>20</v>
@@ -4863,7 +4699,7 @@
     </row>
     <row r="41" spans="1:45" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="5">
@@ -5516,23 +5352,23 @@
       <c r="AS46" s="4"/>
     </row>
     <row r="49" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A49" s="27" t="s">
+      <c r="A49" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
     </row>
     <row r="50" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B50" s="3"/>
@@ -5589,7 +5425,7 @@
       <c r="AS50" s="3"/>
     </row>
     <row r="51" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A51" s="31"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
         <v>20</v>
@@ -8167,23 +8003,23 @@
       </c>
     </row>
     <row r="73" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
     </row>
     <row r="74" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B74" s="3"/>
@@ -8240,7 +8076,7 @@
       <c r="AS74" s="3"/>
     </row>
     <row r="75" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A75" s="31"/>
+      <c r="A75" s="43"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
         <v>20</v>
@@ -10818,23 +10654,23 @@
       </c>
     </row>
     <row r="96" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A96" s="27" t="s">
+      <c r="A96" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="27"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="25"/>
     </row>
     <row r="97" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B97" s="3"/>
@@ -10891,7 +10727,7 @@
       <c r="AS97" s="3"/>
     </row>
     <row r="98" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A98" s="31"/>
+      <c r="A98" s="43"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4" t="s">
         <v>20</v>
@@ -13089,23 +12925,23 @@
       <c r="AS117" s="4"/>
     </row>
     <row r="119" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A119" s="27" t="s">
+      <c r="A119" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="27"/>
-      <c r="K119" s="27"/>
-      <c r="L119" s="27"/>
+      <c r="B119" s="25"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="25"/>
+      <c r="L119" s="25"/>
     </row>
     <row r="120" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A120" s="30" t="s">
+      <c r="A120" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B120" s="3"/>
@@ -13162,7 +12998,7 @@
       <c r="AS120" s="3"/>
     </row>
     <row r="121" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A121" s="31"/>
+      <c r="A121" s="43"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4" t="s">
         <v>20</v>
@@ -16411,12 +16247,15 @@
       <c r="H201" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="M23:P23"/>
-    <mergeCell ref="R23:U23"/>
+  <mergeCells count="15">
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="O23:Q23"/>
     <mergeCell ref="A97:A98"/>
     <mergeCell ref="A120:A121"/>
     <mergeCell ref="A50:A51"/>
@@ -16462,32 +16301,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="E2" s="32" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="E2" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="I2" s="32" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="I2" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -17381,348 +17220,348 @@
   <sheetData>
     <row r="4" spans="26:26" x14ac:dyDescent="0.15">
       <c r="Z4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="19:28" x14ac:dyDescent="0.15">
+      <c r="T17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="Y17" s="19"/>
+    </row>
+    <row r="18" spans="19:28" x14ac:dyDescent="0.15">
+      <c r="T18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+    </row>
+    <row r="19" spans="19:28" x14ac:dyDescent="0.15">
+      <c r="T19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+    </row>
+    <row r="20" spans="19:28" x14ac:dyDescent="0.15">
+      <c r="T20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+    </row>
+    <row r="21" spans="19:28" x14ac:dyDescent="0.15">
+      <c r="T21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+    </row>
+    <row r="22" spans="19:28" x14ac:dyDescent="0.15">
+      <c r="T22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+    </row>
+    <row r="23" spans="19:28" x14ac:dyDescent="0.15">
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+    </row>
+    <row r="28" spans="19:28" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="S28" s="47" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="17" spans="19:28" x14ac:dyDescent="0.15">
-      <c r="T17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="Y17" s="21"/>
-    </row>
-    <row r="18" spans="19:28" x14ac:dyDescent="0.15">
-      <c r="T18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="AA18" s="21"/>
-      <c r="AB18" s="21"/>
-    </row>
-    <row r="19" spans="19:28" x14ac:dyDescent="0.15">
-      <c r="T19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="AA19" s="21"/>
-      <c r="AB19" s="21"/>
-    </row>
-    <row r="20" spans="19:28" x14ac:dyDescent="0.15">
-      <c r="T20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="AA20" s="21"/>
-      <c r="AB20" s="21"/>
-    </row>
-    <row r="21" spans="19:28" x14ac:dyDescent="0.15">
-      <c r="T21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="21"/>
-    </row>
-    <row r="22" spans="19:28" x14ac:dyDescent="0.15">
-      <c r="T22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-    </row>
-    <row r="23" spans="19:28" x14ac:dyDescent="0.15">
-      <c r="AA23" s="21"/>
-      <c r="AB23" s="21"/>
-    </row>
-    <row r="28" spans="19:28" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="S28" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="54"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="39"/>
     </row>
     <row r="29" spans="19:28" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="S29" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="T29" s="33" t="s">
+      <c r="S29" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="T29" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50"/>
+      <c r="W29" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="50"/>
+      <c r="Z29" s="39"/>
+      <c r="AA29" s="39"/>
+    </row>
+    <row r="30" spans="19:28" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="S30" s="47"/>
+      <c r="T30" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="W30" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
+    </row>
+    <row r="31" spans="19:28" ht="15" x14ac:dyDescent="0.15">
+      <c r="S31" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="T31" s="37">
+        <v>-1.7630699999999999E-2</v>
+      </c>
+      <c r="U31" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="V31" s="38">
+        <v>9.0004000000000004E-3</v>
+      </c>
+      <c r="W31" s="37">
+        <v>-0.3200442</v>
+      </c>
+      <c r="X31" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y31" s="38">
+        <v>2.3203000000000001E-2</v>
+      </c>
+      <c r="Z31" s="32"/>
+      <c r="AA31" s="32"/>
+    </row>
+    <row r="32" spans="19:28" ht="15" x14ac:dyDescent="0.15">
+      <c r="S32" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="T32" s="37">
+        <v>-2.8243299999999999E-2</v>
+      </c>
+      <c r="U32" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="V32" s="38">
+        <v>1.0376399999999999E-2</v>
+      </c>
+      <c r="W32" s="37">
+        <v>-0.32835389999999998</v>
+      </c>
+      <c r="X32" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y32" s="38">
+        <v>2.5123199999999998E-2</v>
+      </c>
+      <c r="Z32" s="32"/>
+      <c r="AA32" s="32"/>
+    </row>
+    <row r="33" spans="19:28" ht="15" x14ac:dyDescent="0.15">
+      <c r="S33" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="54"/>
-      <c r="AA29" s="54"/>
-    </row>
-    <row r="30" spans="19:28" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="S30" s="35"/>
-      <c r="T30" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="W30" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z30" s="46"/>
-      <c r="AA30" s="46"/>
-    </row>
-    <row r="31" spans="19:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="S31" s="45" t="s">
+      <c r="T33" s="37">
+        <v>5.03563E-2</v>
+      </c>
+      <c r="U33" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="V33" s="38">
+        <v>2.4289499999999999E-2</v>
+      </c>
+      <c r="W33" s="37">
+        <v>0.14352570000000001</v>
+      </c>
+      <c r="X33" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y33" s="38">
+        <v>4.6495500000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="19:28" ht="15" x14ac:dyDescent="0.15">
+      <c r="S34" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="T31" s="52">
-        <v>-1.7630699999999999E-2</v>
-      </c>
-      <c r="U31" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="V31" s="53">
-        <v>9.0004000000000004E-3</v>
-      </c>
-      <c r="W31" s="52">
-        <v>-0.3200442</v>
-      </c>
-      <c r="X31" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y31" s="53">
-        <v>2.3203000000000001E-2</v>
-      </c>
-      <c r="Z31" s="46"/>
-      <c r="AA31" s="46"/>
-    </row>
-    <row r="32" spans="19:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="S32" s="45" t="s">
+      <c r="T34" s="37">
+        <v>-1.42995E-2</v>
+      </c>
+      <c r="U34" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="V34" s="38">
+        <v>8.5654000000000008E-3</v>
+      </c>
+      <c r="W34" s="37">
+        <v>-7.0711599999999999E-2</v>
+      </c>
+      <c r="X34" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y34" s="38">
+        <v>2.2545800000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="19:28" ht="15" x14ac:dyDescent="0.15">
+      <c r="S35" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="T32" s="52">
-        <v>-2.8243299999999999E-2</v>
-      </c>
-      <c r="U32" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="V32" s="53">
-        <v>1.0376399999999999E-2</v>
-      </c>
-      <c r="W32" s="52">
-        <v>-0.32835389999999998</v>
-      </c>
-      <c r="X32" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y32" s="53">
-        <v>2.5123199999999998E-2</v>
-      </c>
-      <c r="Z32" s="46"/>
-      <c r="AA32" s="46"/>
-    </row>
-    <row r="33" spans="19:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="S33" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="T33" s="52">
-        <v>5.03563E-2</v>
-      </c>
-      <c r="U33" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="V33" s="53">
-        <v>2.4289499999999999E-2</v>
-      </c>
-      <c r="W33" s="52">
-        <v>0.14352570000000001</v>
-      </c>
-      <c r="X33" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y33" s="53">
-        <v>4.6495500000000002E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="19:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="S34" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="T34" s="52">
-        <v>-1.42995E-2</v>
-      </c>
-      <c r="U34" s="52" t="s">
-        <v>225</v>
-      </c>
-      <c r="V34" s="53">
-        <v>8.5654000000000008E-3</v>
-      </c>
-      <c r="W34" s="52">
-        <v>-7.0711599999999999E-2</v>
-      </c>
-      <c r="X34" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y34" s="53">
-        <v>2.2545800000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="19:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="S35" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="T35" s="52">
+      <c r="T35" s="37">
         <v>-0.11313529999999999</v>
       </c>
-      <c r="U35" s="52" t="s">
-        <v>224</v>
-      </c>
-      <c r="V35" s="53">
+      <c r="U35" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="V35" s="38">
         <v>5.5008500000000002E-2</v>
       </c>
-      <c r="W35" s="52">
+      <c r="W35" s="37">
         <v>0.64316569999999995</v>
       </c>
-      <c r="X35" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y35" s="53">
+      <c r="X35" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y35" s="38">
         <v>0.1433798</v>
       </c>
     </row>
     <row r="36" spans="19:28" ht="15" x14ac:dyDescent="0.15">
       <c r="S36" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="T36" s="6">
         <v>9.4059E-3</v>
       </c>
       <c r="U36" s="6"/>
-      <c r="V36" s="51">
+      <c r="V36" s="36">
         <v>7.2049999999999996E-3</v>
       </c>
       <c r="W36" s="6">
         <v>-9.8284999999999997E-2</v>
       </c>
-      <c r="X36" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y36" s="51">
+      <c r="X36" s="36" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y36" s="36">
         <v>1.8197100000000001E-2</v>
       </c>
     </row>
     <row r="38" spans="19:28" x14ac:dyDescent="0.15">
-      <c r="U38" s="46"/>
-      <c r="V38" s="44"/>
-      <c r="W38" s="46"/>
-      <c r="X38" s="46"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="30"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
     </row>
     <row r="39" spans="19:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U39" s="46"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="49"/>
+      <c r="X39" s="49"/>
+      <c r="Y39" s="48"/>
+      <c r="Z39" s="48"/>
     </row>
     <row r="40" spans="19:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="T40" s="41"/>
-      <c r="U40" s="48"/>
-      <c r="V40" s="45"/>
-      <c r="W40" s="49"/>
-      <c r="X40" s="50"/>
-      <c r="Y40" s="43"/>
-      <c r="Z40" s="42"/>
-      <c r="AB40" s="21"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="34"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="28"/>
+      <c r="AB40" s="19"/>
     </row>
     <row r="41" spans="19:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="T41" s="41"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="45"/>
-      <c r="W41" s="49"/>
-      <c r="X41" s="50"/>
-      <c r="Y41" s="43"/>
-      <c r="Z41" s="42"/>
-      <c r="AB41" s="21"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="31"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="28"/>
+      <c r="AB41" s="19"/>
     </row>
     <row r="42" spans="19:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="T42" s="41"/>
-      <c r="U42" s="48"/>
-      <c r="V42" s="45"/>
-      <c r="W42" s="49"/>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="43"/>
-      <c r="Z42" s="42"/>
-      <c r="AB42" s="21"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="29"/>
+      <c r="Z42" s="28"/>
+      <c r="AB42" s="19"/>
     </row>
     <row r="43" spans="19:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="T43" s="41"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="49"/>
-      <c r="X43" s="50"/>
-      <c r="Y43" s="43"/>
-      <c r="Z43" s="42"/>
-      <c r="AB43" s="21"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="31"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="29"/>
+      <c r="Z43" s="28"/>
+      <c r="AB43" s="19"/>
     </row>
     <row r="44" spans="19:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="T44" s="41"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="49"/>
-      <c r="X44" s="50"/>
-      <c r="Y44" s="43"/>
-      <c r="Z44" s="42"/>
-      <c r="AB44" s="21"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="33"/>
+      <c r="V44" s="31"/>
+      <c r="W44" s="34"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="29"/>
+      <c r="Z44" s="28"/>
+      <c r="AB44" s="19"/>
     </row>
     <row r="45" spans="19:28" ht="15" x14ac:dyDescent="0.15">
-      <c r="T45" s="41"/>
-      <c r="U45" s="48"/>
-      <c r="V45" s="45"/>
-      <c r="W45" s="49"/>
-      <c r="X45" s="50"/>
-      <c r="Y45" s="43"/>
-      <c r="Z45" s="42"/>
-      <c r="AB45" s="21"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="33"/>
+      <c r="V45" s="31"/>
+      <c r="W45" s="34"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="29"/>
+      <c r="Z45" s="28"/>
+      <c r="AB45" s="19"/>
     </row>
     <row r="46" spans="19:28" x14ac:dyDescent="0.15">
-      <c r="U46" s="46"/>
-      <c r="V46" s="46"/>
-      <c r="W46" s="46"/>
-      <c r="X46" s="46"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
     </row>
     <row r="47" spans="19:28" x14ac:dyDescent="0.15">
-      <c r="U47" s="46"/>
-      <c r="V47" s="46"/>
-      <c r="W47" s="46"/>
-      <c r="X47" s="46"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
     </row>
     <row r="48" spans="19:28" x14ac:dyDescent="0.15">
-      <c r="U48" s="46"/>
-      <c r="V48" s="46"/>
-      <c r="W48" s="46"/>
-      <c r="X48" s="46"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="S28:Y28"/>
     <mergeCell ref="S29:S30"/>
     <mergeCell ref="Y39:Z39"/>
     <mergeCell ref="W39:X39"/>
     <mergeCell ref="W29:Y29"/>
     <mergeCell ref="T29:V29"/>
-    <mergeCell ref="S28:Y28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17735,7 +17574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A21:X122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
@@ -17747,26 +17586,26 @@
   </cols>
   <sheetData>
     <row r="21" spans="1:24" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:24" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:24" ht="15" x14ac:dyDescent="0.15">
@@ -17791,15 +17630,15 @@
       <c r="G23" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K23" s="40" t="s">
+      <c r="K23" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="L23" s="29"/>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
     </row>
     <row r="24" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
@@ -17808,7 +17647,7 @@
       <c r="B24" s="5">
         <v>4.7E-2</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D24" s="5">
@@ -17823,15 +17662,15 @@
       <c r="G24" s="5">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="K24" s="36" t="s">
+      <c r="K24" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="36"/>
-      <c r="Q24" s="36"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
     </row>
     <row r="25" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
@@ -17840,7 +17679,7 @@
       <c r="B25" s="5">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="21">
         <v>1E-3</v>
       </c>
       <c r="D25" s="5">
@@ -17884,7 +17723,7 @@
       <c r="B26" s="5">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="21">
         <v>5.5E-2</v>
       </c>
       <c r="D26" s="5">
@@ -17905,7 +17744,7 @@
       <c r="L26" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="M26" s="23">
+      <c r="M26" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="N26" s="5">
@@ -17920,13 +17759,13 @@
       <c r="Q26" s="5">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
     </row>
     <row r="27" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
@@ -17935,7 +17774,7 @@
       <c r="B27" s="5">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="21">
         <v>7.8E-2</v>
       </c>
       <c r="D27" s="5">
@@ -17956,7 +17795,7 @@
       <c r="L27" s="5">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="M27" s="23">
+      <c r="M27" s="21">
         <v>1E-3</v>
       </c>
       <c r="N27" s="5">
@@ -17971,12 +17810,12 @@
       <c r="Q27" s="5">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
     </row>
     <row r="28" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
@@ -17985,7 +17824,7 @@
       <c r="B28" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="21">
         <v>0.01</v>
       </c>
       <c r="D28" s="5">
@@ -18006,7 +17845,7 @@
       <c r="L28" s="5">
         <v>-0.02</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="21">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="N28" s="5">
@@ -18021,12 +17860,12 @@
       <c r="Q28" s="5">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
     </row>
     <row r="29" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
@@ -18035,7 +17874,7 @@
       <c r="B29" s="5">
         <v>0.81</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="21">
         <v>0.17</v>
       </c>
       <c r="D29" s="5">
@@ -18056,7 +17895,7 @@
       <c r="L29" s="5">
         <v>-8.8999999999999996E-2</v>
       </c>
-      <c r="M29" s="23">
+      <c r="M29" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="N29" s="5">
@@ -18071,12 +17910,12 @@
       <c r="Q29" s="5">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
     </row>
     <row r="30" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
@@ -18085,7 +17924,7 @@
       <c r="B30" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D30" s="5">
@@ -18106,7 +17945,7 @@
       <c r="L30" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M30" s="23">
+      <c r="M30" s="21">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="N30" s="5">
@@ -18121,12 +17960,12 @@
       <c r="Q30" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
     </row>
     <row r="31" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -18135,7 +17974,7 @@
       <c r="B31" s="5">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="21">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D31" s="5">
@@ -18156,7 +17995,7 @@
       <c r="L31" s="5">
         <v>0.51900000000000002</v>
       </c>
-      <c r="M31" s="23">
+      <c r="M31" s="21">
         <v>0.155</v>
       </c>
       <c r="N31" s="5">
@@ -18171,12 +18010,12 @@
       <c r="Q31" s="5">
         <v>0.82299999999999995</v>
       </c>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
     </row>
     <row r="32" spans="1:24" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
@@ -18185,7 +18024,7 @@
       <c r="B32" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="21">
         <v>0</v>
       </c>
       <c r="D32" s="5">
@@ -18206,7 +18045,7 @@
       <c r="L32" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M32" s="23">
+      <c r="M32" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N32" s="5">
@@ -18221,12 +18060,12 @@
       <c r="Q32" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
     </row>
     <row r="33" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
@@ -18235,7 +18074,7 @@
       <c r="B33" s="5">
         <v>-8.4000000000000005E-2</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="21">
         <v>1.9E-2</v>
       </c>
       <c r="D33" s="5">
@@ -18256,7 +18095,7 @@
       <c r="L33" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M33" s="23">
+      <c r="M33" s="21">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="N33" s="5">
@@ -18271,12 +18110,12 @@
       <c r="Q33" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
     </row>
     <row r="34" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
@@ -18285,7 +18124,7 @@
       <c r="B34" s="5">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="21">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="D34" s="5">
@@ -18306,7 +18145,7 @@
       <c r="L34" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M34" s="23">
+      <c r="M34" s="21">
         <v>0</v>
       </c>
       <c r="N34" s="5">
@@ -18321,12 +18160,12 @@
       <c r="Q34" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
     </row>
     <row r="35" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
@@ -18335,7 +18174,7 @@
       <c r="B35" s="5">
         <v>-2E-3</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="21">
         <v>1E-3</v>
       </c>
       <c r="D35" s="5">
@@ -18356,7 +18195,7 @@
       <c r="L35" s="5">
         <v>-6.3E-2</v>
       </c>
-      <c r="M35" s="23">
+      <c r="M35" s="21">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="N35" s="5">
@@ -18371,12 +18210,12 @@
       <c r="Q35" s="5">
         <v>-2.9000000000000001E-2</v>
       </c>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
     </row>
     <row r="36" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
@@ -18385,7 +18224,7 @@
       <c r="B36" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="21">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D36" s="5">
@@ -18406,7 +18245,7 @@
       <c r="L36" s="5">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="M36" s="23">
+      <c r="M36" s="21">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="N36" s="5">
@@ -18421,12 +18260,12 @@
       <c r="Q36" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="R36" s="21"/>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
     </row>
     <row r="37" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
@@ -18435,7 +18274,7 @@
       <c r="B37" s="5">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="21">
         <v>1E-3</v>
       </c>
       <c r="D37" s="5">
@@ -18456,7 +18295,7 @@
       <c r="L37" s="5">
         <v>-1E-3</v>
       </c>
-      <c r="M37" s="23">
+      <c r="M37" s="21">
         <v>1E-3</v>
       </c>
       <c r="N37" s="5">
@@ -18471,12 +18310,12 @@
       <c r="Q37" s="5">
         <v>1E-3</v>
       </c>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
     </row>
     <row r="38" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
@@ -18485,7 +18324,7 @@
       <c r="B38" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="21">
         <v>1.4E-2</v>
       </c>
       <c r="D38" s="5">
@@ -18506,7 +18345,7 @@
       <c r="L38" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M38" s="23">
+      <c r="M38" s="21">
         <v>0.01</v>
       </c>
       <c r="N38" s="5">
@@ -18521,12 +18360,12 @@
       <c r="Q38" s="5">
         <v>2.3E-2</v>
       </c>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
     </row>
     <row r="39" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
@@ -18535,7 +18374,7 @@
       <c r="B39" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="21">
         <v>2E-3</v>
       </c>
       <c r="D39" s="5">
@@ -18556,7 +18395,7 @@
       <c r="L39" s="5">
         <v>0</v>
       </c>
-      <c r="M39" s="23">
+      <c r="M39" s="21">
         <v>1E-3</v>
       </c>
       <c r="N39" s="5">
@@ -18571,12 +18410,12 @@
       <c r="Q39" s="5">
         <v>2E-3</v>
       </c>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
+      <c r="R39" s="19"/>
+      <c r="S39" s="19"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="19"/>
+      <c r="V39" s="19"/>
+      <c r="W39" s="19"/>
     </row>
     <row r="40" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
@@ -18585,7 +18424,7 @@
       <c r="B40" s="5">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="21">
         <v>1.2E-2</v>
       </c>
       <c r="D40" s="5">
@@ -18606,7 +18445,7 @@
       <c r="L40" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="M40" s="23">
+      <c r="M40" s="21">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="N40" s="5">
@@ -18621,12 +18460,12 @@
       <c r="Q40" s="5">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-      <c r="V40" s="21"/>
-      <c r="W40" s="21"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
     </row>
     <row r="41" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
@@ -18635,7 +18474,7 @@
       <c r="B41" s="5">
         <v>0</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="21">
         <v>0</v>
       </c>
       <c r="D41" s="5">
@@ -18656,7 +18495,7 @@
       <c r="L41" s="5">
         <v>1E-3</v>
       </c>
-      <c r="M41" s="23">
+      <c r="M41" s="21">
         <v>2E-3</v>
       </c>
       <c r="N41" s="5">
@@ -18671,12 +18510,12 @@
       <c r="Q41" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-      <c r="V41" s="21"/>
-      <c r="W41" s="21"/>
+      <c r="R41" s="19"/>
+      <c r="S41" s="19"/>
+      <c r="T41" s="19"/>
+      <c r="U41" s="19"/>
+      <c r="V41" s="19"/>
+      <c r="W41" s="19"/>
     </row>
     <row r="42" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
@@ -18685,7 +18524,7 @@
       <c r="B42" s="5">
         <v>2E-3</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="21">
         <v>2E-3</v>
       </c>
       <c r="D42" s="5">
@@ -18706,7 +18545,7 @@
       <c r="L42" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M42" s="23">
+      <c r="M42" s="21">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="N42" s="5">
@@ -18721,12 +18560,12 @@
       <c r="Q42" s="5">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-      <c r="V42" s="21"/>
-      <c r="W42" s="21"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
     </row>
     <row r="43" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
@@ -18735,7 +18574,7 @@
       <c r="B43" s="5">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="21">
         <v>1.2E-2</v>
       </c>
       <c r="D43" s="5">
@@ -18756,7 +18595,7 @@
       <c r="L43" s="5">
         <v>0</v>
       </c>
-      <c r="M43" s="23">
+      <c r="M43" s="21">
         <v>0</v>
       </c>
       <c r="N43" s="5">
@@ -18771,12 +18610,12 @@
       <c r="Q43" s="5">
         <v>1E-3</v>
       </c>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
+      <c r="R43" s="19"/>
+      <c r="S43" s="19"/>
+      <c r="T43" s="19"/>
+      <c r="U43" s="19"/>
+      <c r="V43" s="19"/>
+      <c r="W43" s="19"/>
     </row>
     <row r="44" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
@@ -18785,7 +18624,7 @@
       <c r="B44" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D44" s="5">
@@ -18806,7 +18645,7 @@
       <c r="L44" s="5">
         <v>1E-3</v>
       </c>
-      <c r="M44" s="23">
+      <c r="M44" s="21">
         <v>1E-3</v>
       </c>
       <c r="N44" s="5">
@@ -18821,12 +18660,12 @@
       <c r="Q44" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
+      <c r="R44" s="19"/>
+      <c r="S44" s="19"/>
+      <c r="T44" s="19"/>
+      <c r="U44" s="19"/>
+      <c r="V44" s="19"/>
+      <c r="W44" s="19"/>
     </row>
     <row r="45" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
@@ -18835,7 +18674,7 @@
       <c r="B45" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D45" s="5">
@@ -18856,7 +18695,7 @@
       <c r="L45" s="5">
         <v>-2.5999999999999999E-2</v>
       </c>
-      <c r="M45" s="23">
+      <c r="M45" s="21">
         <v>0.01</v>
       </c>
       <c r="N45" s="5">
@@ -18871,12 +18710,12 @@
       <c r="Q45" s="5">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
+      <c r="R45" s="19"/>
+      <c r="S45" s="19"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="19"/>
+      <c r="V45" s="19"/>
+      <c r="W45" s="19"/>
     </row>
     <row r="46" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
@@ -18885,7 +18724,7 @@
       <c r="B46" s="5">
         <v>-1E-3</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="21">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D46" s="5">
@@ -18906,7 +18745,7 @@
       <c r="L46" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="M46" s="23">
+      <c r="M46" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N46" s="5">
@@ -18921,12 +18760,12 @@
       <c r="Q46" s="5">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
     </row>
     <row r="47" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
@@ -18935,7 +18774,7 @@
       <c r="B47" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="21">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D47" s="5">
@@ -18956,7 +18795,7 @@
       <c r="L47" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="M47" s="23">
+      <c r="M47" s="21">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="N47" s="5">
@@ -18971,12 +18810,12 @@
       <c r="Q47" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="21"/>
+      <c r="R47" s="19"/>
+      <c r="S47" s="19"/>
+      <c r="T47" s="19"/>
+      <c r="U47" s="19"/>
+      <c r="V47" s="19"/>
+      <c r="W47" s="19"/>
     </row>
     <row r="48" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
@@ -18985,7 +18824,7 @@
       <c r="B48" s="5">
         <v>-6.4000000000000001E-2</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D48" s="5">
@@ -19006,7 +18845,7 @@
       <c r="L48" s="5">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="M48" s="23">
+      <c r="M48" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="N48" s="5">
@@ -19021,12 +18860,12 @@
       <c r="Q48" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
     </row>
     <row r="49" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
@@ -19035,7 +18874,7 @@
       <c r="B49" s="5">
         <v>-2E-3</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="21">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D49" s="5">
@@ -19056,7 +18895,7 @@
       <c r="L49" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="M49" s="23">
+      <c r="M49" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="N49" s="5">
@@ -19071,12 +18910,12 @@
       <c r="Q49" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
     </row>
     <row r="50" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
@@ -19085,7 +18924,7 @@
       <c r="B50" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="21">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D50" s="5">
@@ -19106,7 +18945,7 @@
       <c r="L50" s="5">
         <v>-3.1E-2</v>
       </c>
-      <c r="M50" s="23">
+      <c r="M50" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="N50" s="5">
@@ -19121,12 +18960,12 @@
       <c r="Q50" s="5">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="21"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
     </row>
     <row r="51" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
@@ -19135,7 +18974,7 @@
       <c r="B51" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="21">
         <v>1E-3</v>
       </c>
       <c r="D51" s="5">
@@ -19156,7 +18995,7 @@
       <c r="L51" s="5">
         <v>-3.4000000000000002E-2</v>
       </c>
-      <c r="M51" s="23">
+      <c r="M51" s="21">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="N51" s="5">
@@ -19171,12 +19010,12 @@
       <c r="Q51" s="5">
         <v>-1.6E-2</v>
       </c>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="21"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19"/>
+      <c r="W51" s="19"/>
     </row>
     <row r="52" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
@@ -19185,7 +19024,7 @@
       <c r="B52" s="5">
         <v>0</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="21">
         <v>0</v>
       </c>
       <c r="D52" s="5">
@@ -19206,7 +19045,7 @@
       <c r="L52" s="5">
         <v>-2.8000000000000001E-2</v>
       </c>
-      <c r="M52" s="23">
+      <c r="M52" s="21">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="N52" s="5">
@@ -19221,12 +19060,12 @@
       <c r="Q52" s="5">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="R52" s="21"/>
-      <c r="S52" s="21"/>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="21"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="U52" s="19"/>
+      <c r="V52" s="19"/>
+      <c r="W52" s="19"/>
     </row>
     <row r="53" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
@@ -19235,7 +19074,7 @@
       <c r="B53" s="5">
         <v>0.16200000000000001</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="21">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="D53" s="5">
@@ -19256,7 +19095,7 @@
       <c r="L53" s="5">
         <v>1E-3</v>
       </c>
-      <c r="M53" s="23">
+      <c r="M53" s="21">
         <v>1E-3</v>
       </c>
       <c r="N53" s="5">
@@ -19271,12 +19110,12 @@
       <c r="Q53" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="R53" s="21"/>
-      <c r="S53" s="21"/>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="21"/>
+      <c r="R53" s="19"/>
+      <c r="S53" s="19"/>
+      <c r="T53" s="19"/>
+      <c r="U53" s="19"/>
+      <c r="V53" s="19"/>
+      <c r="W53" s="19"/>
     </row>
     <row r="54" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
@@ -19285,7 +19124,7 @@
       <c r="B54" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="21">
         <v>2.4E-2</v>
       </c>
       <c r="D54" s="5">
@@ -19306,7 +19145,7 @@
       <c r="L54" s="5">
         <v>0</v>
       </c>
-      <c r="M54" s="23">
+      <c r="M54" s="21">
         <v>0</v>
       </c>
       <c r="N54" s="5">
@@ -19321,12 +19160,12 @@
       <c r="Q54" s="5">
         <v>0</v>
       </c>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="21"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="19"/>
+      <c r="T54" s="19"/>
+      <c r="U54" s="19"/>
+      <c r="V54" s="19"/>
+      <c r="W54" s="19"/>
     </row>
     <row r="55" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
@@ -19335,7 +19174,7 @@
       <c r="B55" s="5">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="21">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="D55" s="5">
@@ -19356,7 +19195,7 @@
       <c r="L55" s="5">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="M55" s="23">
+      <c r="M55" s="21">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="N55" s="5">
@@ -19371,12 +19210,12 @@
       <c r="Q55" s="5">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="R55" s="21"/>
-      <c r="S55" s="21"/>
-      <c r="T55" s="21"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="19"/>
+      <c r="T55" s="19"/>
+      <c r="U55" s="19"/>
+      <c r="V55" s="19"/>
+      <c r="W55" s="19"/>
     </row>
     <row r="56" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
@@ -19385,7 +19224,7 @@
       <c r="B56" s="5">
         <v>-8.3000000000000004E-2</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="21">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="D56" s="5">
@@ -19406,7 +19245,7 @@
       <c r="L56" s="5">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="M56" s="23">
+      <c r="M56" s="21">
         <v>1.2E-2</v>
       </c>
       <c r="N56" s="5">
@@ -19421,12 +19260,12 @@
       <c r="Q56" s="5">
         <v>0.05</v>
       </c>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="19"/>
+      <c r="T56" s="19"/>
+      <c r="U56" s="19"/>
+      <c r="V56" s="19"/>
+      <c r="W56" s="19"/>
     </row>
     <row r="57" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
@@ -19435,7 +19274,7 @@
       <c r="B57" s="5">
         <v>0.107</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="21">
         <v>2.4E-2</v>
       </c>
       <c r="D57" s="5">
@@ -19456,7 +19295,7 @@
       <c r="L57" s="5">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="M57" s="23">
+      <c r="M57" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="N57" s="5">
@@ -19471,12 +19310,12 @@
       <c r="Q57" s="5">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="R57" s="21"/>
-      <c r="S57" s="21"/>
-      <c r="T57" s="21"/>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="21"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
     </row>
     <row r="58" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
@@ -19485,7 +19324,7 @@
       <c r="B58" s="5">
         <v>2E-3</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="21">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D58" s="5">
@@ -19506,7 +19345,7 @@
       <c r="L58" s="5">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="M58" s="23">
+      <c r="M58" s="21">
         <v>1.2E-2</v>
       </c>
       <c r="N58" s="5">
@@ -19521,12 +19360,12 @@
       <c r="Q58" s="5">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="R58" s="21"/>
-      <c r="S58" s="21"/>
-      <c r="T58" s="21"/>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="21"/>
+      <c r="R58" s="19"/>
+      <c r="S58" s="19"/>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19"/>
+      <c r="V58" s="19"/>
+      <c r="W58" s="19"/>
     </row>
     <row r="59" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
@@ -19535,7 +19374,7 @@
       <c r="B59" s="5">
         <v>0</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="21">
         <v>0</v>
       </c>
       <c r="D59" s="5">
@@ -19556,7 +19395,7 @@
       <c r="L59" s="5">
         <v>4.593</v>
       </c>
-      <c r="M59" s="23">
+      <c r="M59" s="21">
         <v>0.39800000000000002</v>
       </c>
       <c r="N59" s="5">
@@ -19571,12 +19410,12 @@
       <c r="Q59" s="5">
         <v>5.3719999999999999</v>
       </c>
-      <c r="R59" s="21"/>
-      <c r="S59" s="21"/>
-      <c r="T59" s="21"/>
-      <c r="U59" s="21"/>
-      <c r="V59" s="21"/>
-      <c r="W59" s="21"/>
+      <c r="R59" s="19"/>
+      <c r="S59" s="19"/>
+      <c r="T59" s="19"/>
+      <c r="U59" s="19"/>
+      <c r="V59" s="19"/>
+      <c r="W59" s="19"/>
     </row>
     <row r="60" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
@@ -19585,7 +19424,7 @@
       <c r="B60" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="21">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D60" s="5">
@@ -19611,12 +19450,12 @@
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="21"/>
-      <c r="T60" s="21"/>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="21"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
     </row>
     <row r="61" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
@@ -19625,7 +19464,7 @@
       <c r="B61" s="5">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="21">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D61" s="5">
@@ -19651,12 +19490,12 @@
       <c r="O61" s="5"/>
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="21"/>
-      <c r="T61" s="21"/>
-      <c r="U61" s="21"/>
-      <c r="V61" s="21"/>
-      <c r="W61" s="21"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
     </row>
     <row r="62" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
@@ -19665,7 +19504,7 @@
       <c r="B62" s="5">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C62" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D62" s="5">
@@ -19691,12 +19530,12 @@
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="21"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="21"/>
-      <c r="W62" s="21"/>
+      <c r="R62" s="19"/>
+      <c r="S62" s="19"/>
+      <c r="T62" s="19"/>
+      <c r="U62" s="19"/>
+      <c r="V62" s="19"/>
+      <c r="W62" s="19"/>
     </row>
     <row r="63" spans="1:23" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
@@ -19705,7 +19544,7 @@
       <c r="B63" s="5">
         <v>0.05</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C63" s="21">
         <v>1.4E-2</v>
       </c>
       <c r="D63" s="5">
@@ -19728,7 +19567,7 @@
       <c r="B64" s="5">
         <v>3.452</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C64" s="21">
         <v>0.42399999999999999</v>
       </c>
       <c r="D64" s="5">
@@ -19748,14 +19587,14 @@
       <c r="A65" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B65" s="24">
-        <v>0</v>
-      </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
+      <c r="B65" s="22">
+        <v>0</v>
+      </c>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
     </row>
     <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
@@ -19794,30 +19633,30 @@
       <c r="G69" s="1"/>
     </row>
     <row r="83" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A83" s="40" t="s">
+      <c r="A83" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="45"/>
+      <c r="F83" s="45"/>
+      <c r="G83" s="45"/>
     </row>
     <row r="84" spans="1:19" ht="15" x14ac:dyDescent="0.15">
-      <c r="A84" s="36" t="s">
+      <c r="A84" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B84" s="36"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="36"/>
-      <c r="E84" s="36"/>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36"/>
-      <c r="J84" s="37" t="s">
+      <c r="B84" s="51"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="J84" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="K84" s="37"/>
+      <c r="K84" s="48"/>
     </row>
     <row r="85" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A85" s="8" t="s">
@@ -19848,12 +19687,12 @@
         <v>98</v>
       </c>
       <c r="L85" s="2"/>
-      <c r="N85" s="21"/>
-      <c r="O85" s="21"/>
-      <c r="P85" s="21"/>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="21"/>
-      <c r="S85" s="21"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+      <c r="R85" s="19"/>
+      <c r="S85" s="19"/>
     </row>
     <row r="86" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
@@ -19862,7 +19701,7 @@
       <c r="B86" s="5">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="C86" s="23">
+      <c r="C86" s="21">
         <v>1.4E-2</v>
       </c>
       <c r="D86" s="5">
@@ -19884,12 +19723,12 @@
         <v>104</v>
       </c>
       <c r="L86" s="2"/>
-      <c r="N86" s="21"/>
-      <c r="O86" s="21"/>
-      <c r="P86" s="21"/>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="21"/>
-      <c r="S86" s="21"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="19"/>
     </row>
     <row r="87" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
@@ -19898,7 +19737,7 @@
       <c r="B87" s="5">
         <v>1E-3</v>
       </c>
-      <c r="C87" s="23">
+      <c r="C87" s="21">
         <v>2E-3</v>
       </c>
       <c r="D87" s="5">
@@ -19920,12 +19759,12 @@
         <v>99</v>
       </c>
       <c r="L87" s="2"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="21"/>
-      <c r="P87" s="21"/>
-      <c r="Q87" s="21"/>
-      <c r="R87" s="21"/>
-      <c r="S87" s="21"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="19"/>
     </row>
     <row r="88" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
@@ -19934,7 +19773,7 @@
       <c r="B88" s="5">
         <v>-8.2000000000000003E-2</v>
       </c>
-      <c r="C88" s="23">
+      <c r="C88" s="21">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="D88" s="5">
@@ -19956,12 +19795,12 @@
         <v>100</v>
       </c>
       <c r="L88" s="2"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="21"/>
-      <c r="P88" s="21"/>
-      <c r="Q88" s="21"/>
-      <c r="R88" s="21"/>
-      <c r="S88" s="21"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+      <c r="R88" s="19"/>
+      <c r="S88" s="19"/>
     </row>
     <row r="89" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
@@ -19970,7 +19809,7 @@
       <c r="B89" s="5">
         <v>-0.12</v>
       </c>
-      <c r="C89" s="23">
+      <c r="C89" s="21">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D89" s="5">
@@ -19992,12 +19831,12 @@
         <v>105</v>
       </c>
       <c r="L89" s="2"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="21"/>
-      <c r="P89" s="21"/>
-      <c r="Q89" s="21"/>
-      <c r="R89" s="21"/>
-      <c r="S89" s="21"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+      <c r="R89" s="19"/>
+      <c r="S89" s="19"/>
     </row>
     <row r="90" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
@@ -20006,7 +19845,7 @@
       <c r="B90" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="C90" s="23">
+      <c r="C90" s="21">
         <v>0.01</v>
       </c>
       <c r="D90" s="5">
@@ -20028,12 +19867,12 @@
         <v>106</v>
       </c>
       <c r="L90" s="2"/>
-      <c r="N90" s="21"/>
-      <c r="O90" s="21"/>
-      <c r="P90" s="21"/>
-      <c r="Q90" s="21"/>
-      <c r="R90" s="21"/>
-      <c r="S90" s="21"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+      <c r="R90" s="19"/>
+      <c r="S90" s="19"/>
     </row>
     <row r="91" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
@@ -20042,7 +19881,7 @@
       <c r="B91" s="5">
         <v>0.109</v>
       </c>
-      <c r="C91" s="23">
+      <c r="C91" s="21">
         <v>0.183</v>
       </c>
       <c r="D91" s="5">
@@ -20064,12 +19903,12 @@
         <v>101</v>
       </c>
       <c r="L91" s="2"/>
-      <c r="N91" s="21"/>
-      <c r="O91" s="21"/>
-      <c r="P91" s="21"/>
-      <c r="Q91" s="21"/>
-      <c r="R91" s="21"/>
-      <c r="S91" s="21"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+      <c r="R91" s="19"/>
+      <c r="S91" s="19"/>
     </row>
     <row r="92" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
@@ -20078,7 +19917,7 @@
       <c r="B92" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="C92" s="23">
+      <c r="C92" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D92" s="5">
@@ -20100,12 +19939,12 @@
         <v>107</v>
       </c>
       <c r="L92" s="2"/>
-      <c r="N92" s="21"/>
-      <c r="O92" s="21"/>
-      <c r="P92" s="21"/>
-      <c r="Q92" s="21"/>
-      <c r="R92" s="21"/>
-      <c r="S92" s="21"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="19"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="19"/>
+      <c r="S92" s="19"/>
     </row>
     <row r="93" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
@@ -20114,7 +19953,7 @@
       <c r="B93" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="C93" s="23">
+      <c r="C93" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D93" s="5">
@@ -20136,12 +19975,12 @@
         <v>102</v>
       </c>
       <c r="L93" s="2"/>
-      <c r="N93" s="21"/>
-      <c r="O93" s="21"/>
-      <c r="P93" s="21"/>
-      <c r="Q93" s="21"/>
-      <c r="R93" s="21"/>
-      <c r="S93" s="21"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+      <c r="R93" s="19"/>
+      <c r="S93" s="19"/>
     </row>
     <row r="94" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
@@ -20150,7 +19989,7 @@
       <c r="B94" s="5">
         <v>2E-3</v>
       </c>
-      <c r="C94" s="23">
+      <c r="C94" s="21">
         <v>0</v>
       </c>
       <c r="D94" s="5">
@@ -20172,12 +20011,12 @@
         <v>103</v>
       </c>
       <c r="L94" s="2"/>
-      <c r="N94" s="21"/>
-      <c r="O94" s="21"/>
-      <c r="P94" s="21"/>
-      <c r="Q94" s="21"/>
-      <c r="R94" s="21"/>
-      <c r="S94" s="21"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
+      <c r="S94" s="19"/>
     </row>
     <row r="95" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
@@ -20186,7 +20025,7 @@
       <c r="B95" s="5">
         <v>-2.3E-2</v>
       </c>
-      <c r="C95" s="23">
+      <c r="C95" s="21">
         <v>0.02</v>
       </c>
       <c r="D95" s="5">
@@ -20206,12 +20045,12 @@
         <v>122</v>
       </c>
       <c r="L95" s="2"/>
-      <c r="N95" s="21"/>
-      <c r="O95" s="21"/>
-      <c r="P95" s="21"/>
-      <c r="Q95" s="21"/>
-      <c r="R95" s="21"/>
-      <c r="S95" s="21"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="19"/>
+      <c r="S95" s="19"/>
     </row>
     <row r="96" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
@@ -20220,7 +20059,7 @@
       <c r="B96" s="5">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="C96" s="23">
+      <c r="C96" s="21">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D96" s="5">
@@ -20240,12 +20079,12 @@
         <v>123</v>
       </c>
       <c r="L96" s="2"/>
-      <c r="N96" s="21"/>
-      <c r="O96" s="21"/>
-      <c r="P96" s="21"/>
-      <c r="Q96" s="21"/>
-      <c r="R96" s="21"/>
-      <c r="S96" s="21"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+      <c r="R96" s="19"/>
+      <c r="S96" s="19"/>
     </row>
     <row r="97" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
@@ -20254,7 +20093,7 @@
       <c r="B97" s="5">
         <v>2E-3</v>
       </c>
-      <c r="C97" s="23">
+      <c r="C97" s="21">
         <v>1E-3</v>
       </c>
       <c r="D97" s="5">
@@ -20269,12 +20108,12 @@
       <c r="G97" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N97" s="21"/>
-      <c r="O97" s="21"/>
-      <c r="P97" s="21"/>
-      <c r="Q97" s="21"/>
-      <c r="R97" s="21"/>
-      <c r="S97" s="21"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
+      <c r="R97" s="19"/>
+      <c r="S97" s="19"/>
     </row>
     <row r="98" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
@@ -20283,7 +20122,7 @@
       <c r="B98" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="C98" s="23">
+      <c r="C98" s="21">
         <v>1.2E-2</v>
       </c>
       <c r="D98" s="5">
@@ -20298,18 +20137,18 @@
       <c r="G98" s="5">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="J98" s="38" t="s">
+      <c r="J98" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="K98" s="38"/>
+      <c r="K98" s="52"/>
       <c r="L98" s="15"/>
       <c r="M98" s="15"/>
-      <c r="N98" s="21"/>
-      <c r="O98" s="21"/>
-      <c r="P98" s="21"/>
-      <c r="Q98" s="21"/>
-      <c r="R98" s="21"/>
-      <c r="S98" s="21"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+      <c r="R98" s="19"/>
+      <c r="S98" s="19"/>
     </row>
     <row r="99" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
@@ -20318,7 +20157,7 @@
       <c r="B99" s="5">
         <v>1E-3</v>
       </c>
-      <c r="C99" s="23">
+      <c r="C99" s="21">
         <v>1E-3</v>
       </c>
       <c r="D99" s="5">
@@ -20341,12 +20180,12 @@
       </c>
       <c r="L99" s="15"/>
       <c r="M99" s="15"/>
-      <c r="N99" s="21"/>
-      <c r="O99" s="21"/>
-      <c r="P99" s="21"/>
-      <c r="Q99" s="21"/>
-      <c r="R99" s="21"/>
-      <c r="S99" s="21"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="19"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="19"/>
+      <c r="R99" s="19"/>
+      <c r="S99" s="19"/>
     </row>
     <row r="100" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
@@ -20355,7 +20194,7 @@
       <c r="B100" s="5">
         <v>1.9E-2</v>
       </c>
-      <c r="C100" s="23">
+      <c r="C100" s="21">
         <v>1.6E-2</v>
       </c>
       <c r="D100" s="5">
@@ -20378,12 +20217,12 @@
       </c>
       <c r="L100" s="15"/>
       <c r="M100" s="15"/>
-      <c r="N100" s="21"/>
-      <c r="O100" s="21"/>
-      <c r="P100" s="21"/>
-      <c r="Q100" s="21"/>
-      <c r="R100" s="21"/>
-      <c r="S100" s="21"/>
+      <c r="N100" s="19"/>
+      <c r="O100" s="19"/>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="19"/>
+      <c r="R100" s="19"/>
+      <c r="S100" s="19"/>
     </row>
     <row r="101" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
@@ -20392,7 +20231,7 @@
       <c r="B101" s="5">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="C101" s="23">
+      <c r="C101" s="21">
         <v>2E-3</v>
       </c>
       <c r="D101" s="5">
@@ -20415,12 +20254,12 @@
       </c>
       <c r="L101" s="15"/>
       <c r="M101" s="15"/>
-      <c r="N101" s="21"/>
-      <c r="O101" s="21"/>
-      <c r="P101" s="21"/>
-      <c r="Q101" s="21"/>
-      <c r="R101" s="21"/>
-      <c r="S101" s="21"/>
+      <c r="N101" s="19"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="19"/>
+      <c r="Q101" s="19"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="19"/>
     </row>
     <row r="102" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
@@ -20429,7 +20268,7 @@
       <c r="B102" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="C102" s="23">
+      <c r="C102" s="21">
         <v>1.2E-2</v>
       </c>
       <c r="D102" s="5">
@@ -20452,12 +20291,12 @@
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
-      <c r="N102" s="21"/>
-      <c r="O102" s="21"/>
-      <c r="P102" s="21"/>
-      <c r="Q102" s="21"/>
-      <c r="R102" s="21"/>
-      <c r="S102" s="21"/>
+      <c r="N102" s="19"/>
+      <c r="O102" s="19"/>
+      <c r="P102" s="19"/>
+      <c r="Q102" s="19"/>
+      <c r="R102" s="19"/>
+      <c r="S102" s="19"/>
     </row>
     <row r="103" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
@@ -20466,7 +20305,7 @@
       <c r="B103" s="5">
         <v>0</v>
       </c>
-      <c r="C103" s="23">
+      <c r="C103" s="21">
         <v>0</v>
       </c>
       <c r="D103" s="5">
@@ -20487,12 +20326,12 @@
       </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
-      <c r="N103" s="21"/>
-      <c r="O103" s="21"/>
-      <c r="P103" s="21"/>
-      <c r="Q103" s="21"/>
-      <c r="R103" s="21"/>
-      <c r="S103" s="21"/>
+      <c r="N103" s="19"/>
+      <c r="O103" s="19"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="19"/>
+      <c r="S103" s="19"/>
     </row>
     <row r="104" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
@@ -20501,7 +20340,7 @@
       <c r="B104" s="5">
         <v>-2E-3</v>
       </c>
-      <c r="C104" s="23">
+      <c r="C104" s="21">
         <v>2E-3</v>
       </c>
       <c r="D104" s="5">
@@ -20520,12 +20359,12 @@
       <c r="K104" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="N104" s="21"/>
-      <c r="O104" s="21"/>
-      <c r="P104" s="21"/>
-      <c r="Q104" s="21"/>
-      <c r="R104" s="21"/>
-      <c r="S104" s="21"/>
+      <c r="N104" s="19"/>
+      <c r="O104" s="19"/>
+      <c r="P104" s="19"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="19"/>
+      <c r="S104" s="19"/>
     </row>
     <row r="105" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
@@ -20534,7 +20373,7 @@
       <c r="B105" s="5">
         <v>-0.03</v>
       </c>
-      <c r="C105" s="23">
+      <c r="C105" s="21">
         <v>1.2E-2</v>
       </c>
       <c r="D105" s="5">
@@ -20549,12 +20388,12 @@
       <c r="G105" s="5">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="N105" s="21"/>
-      <c r="O105" s="21"/>
-      <c r="P105" s="21"/>
-      <c r="Q105" s="21"/>
-      <c r="R105" s="21"/>
-      <c r="S105" s="21"/>
+      <c r="N105" s="19"/>
+      <c r="O105" s="19"/>
+      <c r="P105" s="19"/>
+      <c r="Q105" s="19"/>
+      <c r="R105" s="19"/>
+      <c r="S105" s="19"/>
     </row>
     <row r="106" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
@@ -20563,7 +20402,7 @@
       <c r="B106" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="C106" s="23">
+      <c r="C106" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D106" s="5">
@@ -20578,12 +20417,12 @@
       <c r="G106" s="5">
         <v>2.4E-2</v>
       </c>
-      <c r="N106" s="21"/>
-      <c r="O106" s="21"/>
-      <c r="P106" s="21"/>
-      <c r="Q106" s="21"/>
-      <c r="R106" s="21"/>
-      <c r="S106" s="21"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="19"/>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="19"/>
+      <c r="R106" s="19"/>
+      <c r="S106" s="19"/>
     </row>
     <row r="107" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
@@ -20592,7 +20431,7 @@
       <c r="B107" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="C107" s="23">
+      <c r="C107" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D107" s="5">
@@ -20607,12 +20446,12 @@
       <c r="G107" s="5">
         <v>2.7E-2</v>
       </c>
-      <c r="N107" s="21"/>
-      <c r="O107" s="21"/>
-      <c r="P107" s="21"/>
-      <c r="Q107" s="21"/>
-      <c r="R107" s="21"/>
-      <c r="S107" s="21"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="19"/>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="19"/>
+      <c r="R107" s="19"/>
+      <c r="S107" s="19"/>
     </row>
     <row r="108" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
@@ -20621,7 +20460,7 @@
       <c r="B108" s="5">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="C108" s="23">
+      <c r="C108" s="21">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D108" s="5">
@@ -20636,12 +20475,12 @@
       <c r="G108" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="N108" s="21"/>
-      <c r="O108" s="21"/>
-      <c r="P108" s="21"/>
-      <c r="Q108" s="21"/>
-      <c r="R108" s="21"/>
-      <c r="S108" s="21"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="19"/>
+      <c r="P108" s="19"/>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="19"/>
+      <c r="S108" s="19"/>
     </row>
     <row r="109" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
@@ -20650,7 +20489,7 @@
       <c r="B109" s="5">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="C109" s="23">
+      <c r="C109" s="21">
         <v>2E-3</v>
       </c>
       <c r="D109" s="5">
@@ -20665,12 +20504,12 @@
       <c r="G109" s="5">
         <v>-4.0000000000000001E-3</v>
       </c>
-      <c r="N109" s="21"/>
-      <c r="O109" s="21"/>
-      <c r="P109" s="21"/>
-      <c r="Q109" s="21"/>
-      <c r="R109" s="21"/>
-      <c r="S109" s="21"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="19"/>
+      <c r="P109" s="19"/>
+      <c r="Q109" s="19"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="19"/>
     </row>
     <row r="110" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
@@ -20679,7 +20518,7 @@
       <c r="B110" s="5">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="C110" s="23">
+      <c r="C110" s="21">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="D110" s="5">
@@ -20694,12 +20533,12 @@
       <c r="G110" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="N110" s="21"/>
-      <c r="O110" s="21"/>
-      <c r="P110" s="21"/>
-      <c r="Q110" s="21"/>
-      <c r="R110" s="21"/>
-      <c r="S110" s="21"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="19"/>
+      <c r="P110" s="19"/>
+      <c r="Q110" s="19"/>
+      <c r="R110" s="19"/>
+      <c r="S110" s="19"/>
     </row>
     <row r="111" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
@@ -20708,7 +20547,7 @@
       <c r="B111" s="5">
         <v>-3.5000000000000003E-2</v>
       </c>
-      <c r="C111" s="23">
+      <c r="C111" s="21">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D111" s="5">
@@ -20723,12 +20562,12 @@
       <c r="G111" s="5">
         <v>-1.4E-2</v>
       </c>
-      <c r="N111" s="21"/>
-      <c r="O111" s="21"/>
-      <c r="P111" s="21"/>
-      <c r="Q111" s="21"/>
-      <c r="R111" s="21"/>
-      <c r="S111" s="21"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="19"/>
+      <c r="P111" s="19"/>
+      <c r="Q111" s="19"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="19"/>
     </row>
     <row r="112" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
@@ -20737,7 +20576,7 @@
       <c r="B112" s="5">
         <v>-4.1000000000000002E-2</v>
       </c>
-      <c r="C112" s="23">
+      <c r="C112" s="21">
         <v>1.6E-2</v>
       </c>
       <c r="D112" s="5">
@@ -20752,12 +20591,12 @@
       <c r="G112" s="5">
         <v>-0.01</v>
       </c>
-      <c r="N112" s="21"/>
-      <c r="O112" s="21"/>
-      <c r="P112" s="21"/>
-      <c r="Q112" s="21"/>
-      <c r="R112" s="21"/>
-      <c r="S112" s="21"/>
+      <c r="N112" s="19"/>
+      <c r="O112" s="19"/>
+      <c r="P112" s="19"/>
+      <c r="Q112" s="19"/>
+      <c r="R112" s="19"/>
+      <c r="S112" s="19"/>
     </row>
     <row r="113" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
@@ -20766,7 +20605,7 @@
       <c r="B113" s="5">
         <v>-1E-3</v>
       </c>
-      <c r="C113" s="23">
+      <c r="C113" s="21">
         <v>1E-3</v>
       </c>
       <c r="D113" s="5">
@@ -20781,12 +20620,12 @@
       <c r="G113" s="5">
         <v>2E-3</v>
       </c>
-      <c r="N113" s="21"/>
-      <c r="O113" s="21"/>
-      <c r="P113" s="21"/>
-      <c r="Q113" s="21"/>
-      <c r="R113" s="21"/>
-      <c r="S113" s="21"/>
+      <c r="N113" s="19"/>
+      <c r="O113" s="19"/>
+      <c r="P113" s="19"/>
+      <c r="Q113" s="19"/>
+      <c r="R113" s="19"/>
+      <c r="S113" s="19"/>
     </row>
     <row r="114" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
@@ -20795,7 +20634,7 @@
       <c r="B114" s="5">
         <v>0</v>
       </c>
-      <c r="C114" s="23">
+      <c r="C114" s="21">
         <v>0</v>
       </c>
       <c r="D114" s="5">
@@ -20810,12 +20649,12 @@
       <c r="G114" s="5">
         <v>0</v>
       </c>
-      <c r="N114" s="21"/>
-      <c r="O114" s="21"/>
-      <c r="P114" s="21"/>
-      <c r="Q114" s="21"/>
-      <c r="R114" s="21"/>
-      <c r="S114" s="21"/>
+      <c r="N114" s="19"/>
+      <c r="O114" s="19"/>
+      <c r="P114" s="19"/>
+      <c r="Q114" s="19"/>
+      <c r="R114" s="19"/>
+      <c r="S114" s="19"/>
     </row>
     <row r="115" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
@@ -20824,7 +20663,7 @@
       <c r="B115" s="5">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="C115" s="23">
+      <c r="C115" s="21">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D115" s="5">
@@ -20839,12 +20678,12 @@
       <c r="G115" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="N115" s="21"/>
-      <c r="O115" s="21"/>
-      <c r="P115" s="21"/>
-      <c r="Q115" s="21"/>
-      <c r="R115" s="21"/>
-      <c r="S115" s="21"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="19"/>
+      <c r="P115" s="19"/>
+      <c r="Q115" s="19"/>
+      <c r="R115" s="19"/>
+      <c r="S115" s="19"/>
     </row>
     <row r="116" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
@@ -20853,7 +20692,7 @@
       <c r="B116" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="C116" s="23">
+      <c r="C116" s="21">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D116" s="5">
@@ -20868,12 +20707,12 @@
       <c r="G116" s="5">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="N116" s="21"/>
-      <c r="O116" s="21"/>
-      <c r="P116" s="21"/>
-      <c r="Q116" s="21"/>
-      <c r="R116" s="21"/>
-      <c r="S116" s="21"/>
+      <c r="N116" s="19"/>
+      <c r="O116" s="19"/>
+      <c r="P116" s="19"/>
+      <c r="Q116" s="19"/>
+      <c r="R116" s="19"/>
+      <c r="S116" s="19"/>
     </row>
     <row r="117" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
@@ -20882,7 +20721,7 @@
       <c r="B117" s="5">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="C117" s="23">
+      <c r="C117" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D117" s="5">
@@ -20897,12 +20736,12 @@
       <c r="G117" s="5">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="N117" s="21"/>
-      <c r="O117" s="21"/>
-      <c r="P117" s="21"/>
-      <c r="Q117" s="21"/>
-      <c r="R117" s="21"/>
-      <c r="S117" s="21"/>
+      <c r="N117" s="19"/>
+      <c r="O117" s="19"/>
+      <c r="P117" s="19"/>
+      <c r="Q117" s="19"/>
+      <c r="R117" s="19"/>
+      <c r="S117" s="19"/>
     </row>
     <row r="118" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
@@ -20911,7 +20750,7 @@
       <c r="B118" s="5">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="C118" s="23">
+      <c r="C118" s="21">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="D118" s="5">
@@ -20926,12 +20765,12 @@
       <c r="G118" s="5">
         <v>0.10199999999999999</v>
       </c>
-      <c r="N118" s="21"/>
-      <c r="O118" s="21"/>
-      <c r="P118" s="21"/>
-      <c r="Q118" s="21"/>
-      <c r="R118" s="21"/>
-      <c r="S118" s="21"/>
+      <c r="N118" s="19"/>
+      <c r="O118" s="19"/>
+      <c r="P118" s="19"/>
+      <c r="Q118" s="19"/>
+      <c r="R118" s="19"/>
+      <c r="S118" s="19"/>
     </row>
     <row r="119" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
@@ -20940,7 +20779,7 @@
       <c r="B119" s="5">
         <v>5.8810000000000002</v>
       </c>
-      <c r="C119" s="23">
+      <c r="C119" s="21">
         <v>0.49299999999999999</v>
       </c>
       <c r="D119" s="5">
@@ -20955,31 +20794,31 @@
       <c r="G119" s="5">
         <v>6.8479999999999999</v>
       </c>
-      <c r="N119" s="21"/>
-      <c r="O119" s="21"/>
-      <c r="P119" s="21"/>
-      <c r="Q119" s="21"/>
-      <c r="R119" s="21"/>
-      <c r="S119" s="21"/>
+      <c r="N119" s="19"/>
+      <c r="O119" s="19"/>
+      <c r="P119" s="19"/>
+      <c r="Q119" s="19"/>
+      <c r="R119" s="19"/>
+      <c r="S119" s="19"/>
     </row>
     <row r="120" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A120" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B120" s="24">
+      <c r="B120" s="22">
         <v>0.21099999999999999</v>
       </c>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="N120" s="21"/>
-      <c r="O120" s="21"/>
-      <c r="P120" s="21"/>
-      <c r="Q120" s="21"/>
-      <c r="R120" s="21"/>
-      <c r="S120" s="21"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+      <c r="F120" s="22"/>
+      <c r="G120" s="22"/>
+      <c r="N120" s="19"/>
+      <c r="O120" s="19"/>
+      <c r="P120" s="19"/>
+      <c r="Q120" s="19"/>
+      <c r="R120" s="19"/>
+      <c r="S120" s="19"/>
     </row>
     <row r="121" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
@@ -20993,12 +20832,12 @@
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="5"/>
-      <c r="N121" s="21"/>
-      <c r="O121" s="21"/>
-      <c r="P121" s="21"/>
-      <c r="Q121" s="21"/>
-      <c r="R121" s="21"/>
-      <c r="S121" s="21"/>
+      <c r="N121" s="19"/>
+      <c r="O121" s="19"/>
+      <c r="P121" s="19"/>
+      <c r="Q121" s="19"/>
+      <c r="R121" s="19"/>
+      <c r="S121" s="19"/>
     </row>
     <row r="122" spans="1:19" ht="15" x14ac:dyDescent="0.15">
       <c r="A122" s="4" t="s">
@@ -21012,11 +20851,11 @@
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
-      <c r="N122" s="21"/>
-      <c r="O122" s="21"/>
-      <c r="P122" s="21"/>
-      <c r="Q122" s="21"/>
-      <c r="R122" s="21"/>
+      <c r="N122" s="19"/>
+      <c r="O122" s="19"/>
+      <c r="P122" s="19"/>
+      <c r="Q122" s="19"/>
+      <c r="R122" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -21046,22 +20885,22 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="A1" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -21085,15 +20924,15 @@
         <v>56</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C4" s="23">
+        <v>166</v>
+      </c>
+      <c r="C4" s="21">
         <v>1.4E-2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="23">
+        <v>194</v>
+      </c>
+      <c r="E4" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="J4" s="8" t="s">
@@ -21117,15 +20956,15 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="23">
+        <v>167</v>
+      </c>
+      <c r="C5" s="21">
         <v>2E-3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E5" s="23">
+        <v>195</v>
+      </c>
+      <c r="E5" s="21">
         <v>1E-3</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -21134,7 +20973,7 @@
       <c r="K5" s="5">
         <v>4.7E-2</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="M5" s="5">
@@ -21144,7 +20983,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -21152,15 +20991,15 @@
         <v>51</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="23">
+        <v>168</v>
+      </c>
+      <c r="C6" s="21">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" s="23">
+        <v>196</v>
+      </c>
+      <c r="E6" s="21">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -21169,7 +21008,7 @@
       <c r="K6" s="5">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="21">
         <v>1E-3</v>
       </c>
       <c r="M6" s="5">
@@ -21179,7 +21018,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -21187,15 +21026,15 @@
         <v>47</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="23">
+        <v>169</v>
+      </c>
+      <c r="C7" s="21">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="23">
+        <v>197</v>
+      </c>
+      <c r="E7" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -21204,7 +21043,7 @@
       <c r="K7" s="5">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="21">
         <v>5.5E-2</v>
       </c>
       <c r="M7" s="5">
@@ -21219,15 +21058,15 @@
         <v>49</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="23">
+        <v>170</v>
+      </c>
+      <c r="C8" s="21">
         <v>0.01</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="23">
+        <v>198</v>
+      </c>
+      <c r="E8" s="21">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -21236,7 +21075,7 @@
       <c r="K8" s="5">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="21">
         <v>7.8E-2</v>
       </c>
       <c r="M8" s="5">
@@ -21251,15 +21090,15 @@
         <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="23">
+        <v>171</v>
+      </c>
+      <c r="C9" s="21">
         <v>0.183</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="E9" s="23">
+        <v>199</v>
+      </c>
+      <c r="E9" s="21">
         <v>0.155</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -21268,7 +21107,7 @@
       <c r="K9" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="21">
         <v>0.01</v>
       </c>
       <c r="M9" s="5">
@@ -21283,15 +21122,15 @@
         <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="23">
+        <v>172</v>
+      </c>
+      <c r="C10" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10" s="23">
+        <v>200</v>
+      </c>
+      <c r="E10" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -21300,7 +21139,7 @@
       <c r="K10" s="5">
         <v>0.81</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="21">
         <v>0.17</v>
       </c>
       <c r="M10" s="5">
@@ -21310,7 +21149,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -21318,15 +21157,15 @@
         <v>46</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="23">
+        <v>173</v>
+      </c>
+      <c r="C11" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="23">
+        <v>201</v>
+      </c>
+      <c r="E11" s="21">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -21335,7 +21174,7 @@
       <c r="K11" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="M11" s="5">
@@ -21345,7 +21184,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -21353,15 +21192,15 @@
         <v>57</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="23">
+        <v>174</v>
+      </c>
+      <c r="C12" s="21">
         <v>0</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E12" s="23">
+        <v>202</v>
+      </c>
+      <c r="E12" s="21">
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -21370,7 +21209,7 @@
       <c r="K12" s="5">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="21">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M12" s="5">
@@ -21385,15 +21224,15 @@
         <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C13" s="23">
+        <v>175</v>
+      </c>
+      <c r="C13" s="21">
         <v>0.02</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E13" s="23">
+        <v>203</v>
+      </c>
+      <c r="E13" s="21">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -21402,7 +21241,7 @@
       <c r="K13" s="5">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="21">
         <v>0</v>
       </c>
       <c r="M13" s="5">
@@ -21412,7 +21251,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -21420,15 +21259,15 @@
         <v>75</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="23">
+        <v>176</v>
+      </c>
+      <c r="C14" s="21">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="E14" s="23">
+        <v>204</v>
+      </c>
+      <c r="E14" s="21">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -21437,7 +21276,7 @@
       <c r="K14" s="5">
         <v>-8.4000000000000005E-2</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="21">
         <v>1.9E-2</v>
       </c>
       <c r="M14" s="5">
@@ -21447,7 +21286,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -21455,15 +21294,15 @@
         <v>76</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15" s="23">
+        <v>177</v>
+      </c>
+      <c r="C15" s="21">
         <v>1E-3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="E15" s="23">
+        <v>191</v>
+      </c>
+      <c r="E15" s="21">
         <v>1E-3</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -21472,7 +21311,7 @@
       <c r="K15" s="5">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="21">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="M15" s="5">
@@ -21482,7 +21321,7 @@
         <v>0.06</v>
       </c>
       <c r="O15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -21490,15 +21329,15 @@
         <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="23">
+        <v>178</v>
+      </c>
+      <c r="C16" s="21">
         <v>1.2E-2</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" s="23">
+        <v>205</v>
+      </c>
+      <c r="E16" s="21">
         <v>0.01</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -21507,7 +21346,7 @@
       <c r="K16" s="5">
         <v>-2E-3</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="21">
         <v>1E-3</v>
       </c>
       <c r="M16" s="5">
@@ -21517,7 +21356,7 @@
         <v>0.02</v>
       </c>
       <c r="O16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -21525,15 +21364,15 @@
         <v>77</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C17" s="23">
+        <v>167</v>
+      </c>
+      <c r="C17" s="21">
         <v>1E-3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E17" s="23">
+        <v>182</v>
+      </c>
+      <c r="E17" s="21">
         <v>1E-3</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -21542,7 +21381,7 @@
       <c r="K17" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="21">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="M17" s="5">
@@ -21557,15 +21396,15 @@
         <v>78</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="23">
+        <v>179</v>
+      </c>
+      <c r="C18" s="21">
         <v>1.6E-2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="E18" s="23">
+        <v>206</v>
+      </c>
+      <c r="E18" s="21">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -21574,7 +21413,7 @@
       <c r="K18" s="5">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="21">
         <v>1E-3</v>
       </c>
       <c r="M18" s="5">
@@ -21584,7 +21423,7 @@
         <v>1.6E-2</v>
       </c>
       <c r="O18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -21592,15 +21431,15 @@
         <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="23">
+        <v>180</v>
+      </c>
+      <c r="C19" s="21">
         <v>2E-3</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E19" s="23">
+        <v>167</v>
+      </c>
+      <c r="E19" s="21">
         <v>2E-3</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -21609,7 +21448,7 @@
       <c r="K19" s="5">
         <v>1.4E-2</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="21">
         <v>1.4E-2</v>
       </c>
       <c r="M19" s="5">
@@ -21624,15 +21463,15 @@
         <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="23">
+        <v>181</v>
+      </c>
+      <c r="C20" s="21">
         <v>1.2E-2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E20" s="23">
+        <v>200</v>
+      </c>
+      <c r="E20" s="21">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -21641,7 +21480,7 @@
       <c r="K20" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="21">
         <v>2E-3</v>
       </c>
       <c r="M20" s="5">
@@ -21651,7 +21490,7 @@
         <v>1E-3</v>
       </c>
       <c r="O20" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -21659,15 +21498,15 @@
         <v>15</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="23">
+        <v>182</v>
+      </c>
+      <c r="C21" s="21">
         <v>0</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" s="23">
+        <v>182</v>
+      </c>
+      <c r="E21" s="21">
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -21676,7 +21515,7 @@
       <c r="K21" s="5">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="21">
         <v>1.2E-2</v>
       </c>
       <c r="M21" s="5">
@@ -21691,15 +21530,15 @@
         <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="23">
+        <v>183</v>
+      </c>
+      <c r="C22" s="21">
         <v>2E-3</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E22" s="23">
+        <v>167</v>
+      </c>
+      <c r="E22" s="21">
         <v>1E-3</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -21708,7 +21547,7 @@
       <c r="K22" s="5">
         <v>0</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="21">
         <v>0</v>
       </c>
       <c r="M22" s="5">
@@ -21723,15 +21562,15 @@
         <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" s="23">
+        <v>184</v>
+      </c>
+      <c r="C23" s="21">
         <v>1.2E-2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="23">
+        <v>207</v>
+      </c>
+      <c r="E23" s="21">
         <v>0.01</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -21740,7 +21579,7 @@
       <c r="K23" s="5">
         <v>2E-3</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="21">
         <v>2E-3</v>
       </c>
       <c r="M23" s="5">
@@ -21755,15 +21594,15 @@
         <v>18</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="23">
+        <v>185</v>
+      </c>
+      <c r="C24" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="E24" s="23">
+        <v>208</v>
+      </c>
+      <c r="E24" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -21772,7 +21611,7 @@
       <c r="K24" s="5">
         <v>-1.2999999999999999E-2</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="21">
         <v>1.2E-2</v>
       </c>
       <c r="M24" s="5">
@@ -21787,15 +21626,15 @@
         <v>19</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="23">
+        <v>186</v>
+      </c>
+      <c r="C25" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="23">
+        <v>209</v>
+      </c>
+      <c r="E25" s="21">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -21804,7 +21643,7 @@
       <c r="K25" s="5">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M25" s="5">
@@ -21814,7 +21653,7 @@
         <v>1E-3</v>
       </c>
       <c r="O25" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -21822,15 +21661,15 @@
         <v>11</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C26" s="23">
+        <v>187</v>
+      </c>
+      <c r="C26" s="21">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" s="23">
+        <v>210</v>
+      </c>
+      <c r="E26" s="21">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -21839,7 +21678,7 @@
       <c r="K26" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="M26" s="5">
@@ -21849,7 +21688,7 @@
         <v>2E-3</v>
       </c>
       <c r="O26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -21857,15 +21696,15 @@
         <v>10</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C27" s="23">
+        <v>188</v>
+      </c>
+      <c r="C27" s="21">
         <v>2E-3</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E27" s="23">
+        <v>211</v>
+      </c>
+      <c r="E27" s="21">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -21874,7 +21713,7 @@
       <c r="K27" s="5">
         <v>-1E-3</v>
       </c>
-      <c r="L27" s="23">
+      <c r="L27" s="21">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="M27" s="5">
@@ -21889,15 +21728,15 @@
         <v>60</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" s="23">
+        <v>176</v>
+      </c>
+      <c r="C28" s="21">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="E28" s="23">
+        <v>212</v>
+      </c>
+      <c r="E28" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -21906,7 +21745,7 @@
       <c r="K28" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="L28" s="23">
+      <c r="L28" s="21">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M28" s="5">
@@ -21916,7 +21755,7 @@
         <v>1.2E-2</v>
       </c>
       <c r="O28" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -21924,15 +21763,15 @@
         <v>58</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C29" s="23">
+        <v>189</v>
+      </c>
+      <c r="C29" s="21">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E29" s="23">
+        <v>213</v>
+      </c>
+      <c r="E29" s="21">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -21941,7 +21780,7 @@
       <c r="K29" s="5">
         <v>-6.4000000000000001E-2</v>
       </c>
-      <c r="L29" s="23">
+      <c r="L29" s="21">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="M29" s="5">
@@ -21951,7 +21790,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.15">
@@ -21959,15 +21798,15 @@
         <v>12</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C30" s="23">
+        <v>190</v>
+      </c>
+      <c r="C30" s="21">
         <v>1.6E-2</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E30" s="23">
+        <v>214</v>
+      </c>
+      <c r="E30" s="21">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -21976,7 +21815,7 @@
       <c r="K30" s="5">
         <v>-2E-3</v>
       </c>
-      <c r="L30" s="23">
+      <c r="L30" s="21">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="M30" s="5">
@@ -21991,15 +21830,15 @@
         <v>59</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="23">
+        <v>191</v>
+      </c>
+      <c r="C31" s="21">
         <v>1E-3</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E31" s="23">
+        <v>167</v>
+      </c>
+      <c r="E31" s="21">
         <v>1E-3</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -22008,7 +21847,7 @@
       <c r="K31" s="5">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="L31" s="23">
+      <c r="L31" s="21">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="M31" s="5">
@@ -22023,15 +21862,15 @@
         <v>82</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C32" s="23">
+        <v>192</v>
+      </c>
+      <c r="C32" s="21">
         <v>0.49299999999999999</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="E32" s="23">
+        <v>215</v>
+      </c>
+      <c r="E32" s="21">
         <v>0.39800000000000002</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -22040,7 +21879,7 @@
       <c r="K32" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="L32" s="23">
+      <c r="L32" s="21">
         <v>1E-3</v>
       </c>
       <c r="M32" s="5">
@@ -22050,19 +21889,19 @@
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C33" s="23"/>
+        <v>165</v>
+      </c>
+      <c r="C33" s="21"/>
       <c r="D33" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>82</v>
@@ -22070,7 +21909,7 @@
       <c r="K33" s="5">
         <v>3.452</v>
       </c>
-      <c r="L33" s="23">
+      <c r="L33" s="21">
         <v>0.42399999999999999</v>
       </c>
       <c r="M33" s="5">
@@ -22080,40 +21919,40 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.15">
-      <c r="A34" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="24"/>
+      <c r="A34" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="22"/>
       <c r="D34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K34" s="24">
-        <v>0</v>
-      </c>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
+      <c r="K34" s="22">
+        <v>0</v>
+      </c>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
     </row>
     <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>163</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>88</v>
@@ -22129,12 +21968,12 @@
       <c r="A36" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C36" s="20"/>
+      <c r="B36" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="18"/>
       <c r="D36" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>89</v>
@@ -22175,57 +22014,57 @@
   <sheetData>
     <row r="10" spans="5:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>228</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>229</v>
+      <c r="E11" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="56">
-        <v>1</v>
-      </c>
-      <c r="F12" s="56">
-        <v>1</v>
-      </c>
-      <c r="G12" s="56">
+      <c r="E12" s="41">
+        <v>1</v>
+      </c>
+      <c r="F12" s="41">
+        <v>1</v>
+      </c>
+      <c r="G12" s="41">
         <v>613882.93999999994</v>
       </c>
     </row>
     <row r="13" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E13" s="56">
-        <v>1</v>
-      </c>
-      <c r="F13" s="56">
+      <c r="E13" s="41">
+        <v>1</v>
+      </c>
+      <c r="F13" s="41">
         <v>12</v>
       </c>
-      <c r="G13" s="56">
+      <c r="G13" s="41">
         <v>325464.01</v>
       </c>
     </row>
     <row r="14" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E14" s="56">
-        <v>1</v>
-      </c>
-      <c r="F14" s="56">
+      <c r="E14" s="41">
+        <v>1</v>
+      </c>
+      <c r="F14" s="41">
         <v>38</v>
       </c>
-      <c r="G14" s="56">
+      <c r="G14" s="41">
         <v>290389.75</v>
       </c>
     </row>
     <row r="15" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="56">
-        <v>1</v>
-      </c>
-      <c r="F15" s="56">
+      <c r="E15" s="41">
+        <v>1</v>
+      </c>
+      <c r="F15" s="41">
         <v>26</v>
       </c>
-      <c r="G15" s="56">
+      <c r="G15" s="41">
         <v>221768.17</v>
       </c>
       <c r="I15">
@@ -22242,13 +22081,13 @@
       </c>
     </row>
     <row r="16" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E16" s="56">
-        <v>1</v>
-      </c>
-      <c r="F16" s="56">
+      <c r="E16" s="41">
+        <v>1</v>
+      </c>
+      <c r="F16" s="41">
         <v>18</v>
       </c>
-      <c r="G16" s="56">
+      <c r="G16" s="41">
         <v>198288.78</v>
       </c>
       <c r="I16">
@@ -22265,354 +22104,354 @@
       </c>
     </row>
     <row r="17" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E17" s="56">
-        <v>1</v>
-      </c>
-      <c r="F17" s="56">
+      <c r="E17" s="41">
+        <v>1</v>
+      </c>
+      <c r="F17" s="41">
         <v>4</v>
       </c>
-      <c r="G17" s="56">
+      <c r="G17" s="41">
         <v>190092.75</v>
       </c>
     </row>
     <row r="18" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E18" s="56">
-        <v>1</v>
-      </c>
-      <c r="F18" s="56">
+      <c r="E18" s="41">
+        <v>1</v>
+      </c>
+      <c r="F18" s="41">
         <v>19</v>
       </c>
-      <c r="G18" s="56">
+      <c r="G18" s="41">
         <v>154640.03</v>
       </c>
     </row>
     <row r="19" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E19" s="56">
-        <v>1</v>
-      </c>
-      <c r="F19" s="56">
+      <c r="E19" s="41">
+        <v>1</v>
+      </c>
+      <c r="F19" s="41">
         <v>32</v>
       </c>
-      <c r="G19" s="56">
+      <c r="G19" s="41">
         <v>154115.67000000001</v>
       </c>
     </row>
     <row r="20" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E20" s="56">
-        <v>1</v>
-      </c>
-      <c r="F20" s="56">
+      <c r="E20" s="41">
+        <v>1</v>
+      </c>
+      <c r="F20" s="41">
         <v>31</v>
       </c>
-      <c r="G20" s="56">
+      <c r="G20" s="41">
         <v>146555.62</v>
       </c>
     </row>
     <row r="21" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E21" s="56">
-        <v>1</v>
-      </c>
-      <c r="F21" s="56">
+      <c r="E21" s="41">
+        <v>1</v>
+      </c>
+      <c r="F21" s="41">
         <v>10</v>
       </c>
-      <c r="G21" s="56">
+      <c r="G21" s="41">
         <v>140116.24</v>
       </c>
     </row>
     <row r="22" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E22" s="56">
-        <v>1</v>
-      </c>
-      <c r="F22" s="56">
+      <c r="E22" s="41">
+        <v>1</v>
+      </c>
+      <c r="F22" s="41">
         <v>5</v>
       </c>
-      <c r="G22" s="56">
+      <c r="G22" s="41">
         <v>107840.98</v>
       </c>
     </row>
     <row r="23" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E23" s="56">
-        <v>1</v>
-      </c>
-      <c r="F23" s="56">
+      <c r="E23" s="41">
+        <v>1</v>
+      </c>
+      <c r="F23" s="41">
         <v>16</v>
       </c>
-      <c r="G23" s="56">
+      <c r="G23" s="41">
         <v>105107.33</v>
       </c>
     </row>
     <row r="24" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E24" s="56">
-        <v>1</v>
-      </c>
-      <c r="F24" s="56">
+      <c r="E24" s="41">
+        <v>1</v>
+      </c>
+      <c r="F24" s="41">
         <v>37</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G24" s="41">
         <v>104545.45</v>
       </c>
     </row>
     <row r="25" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E25" s="56">
-        <v>1</v>
-      </c>
-      <c r="F25" s="56">
+      <c r="E25" s="41">
+        <v>1</v>
+      </c>
+      <c r="F25" s="41">
         <v>27</v>
       </c>
-      <c r="G25" s="56">
+      <c r="G25" s="41">
         <v>72095.899999999994</v>
       </c>
     </row>
     <row r="26" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E26" s="56">
-        <v>1</v>
-      </c>
-      <c r="F26" s="56">
+      <c r="E26" s="41">
+        <v>1</v>
+      </c>
+      <c r="F26" s="41">
         <v>15</v>
       </c>
-      <c r="G26" s="56">
+      <c r="G26" s="41">
         <v>61570.05</v>
       </c>
     </row>
     <row r="27" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="56">
-        <v>1</v>
-      </c>
-      <c r="F27" s="56">
+      <c r="E27" s="41">
+        <v>1</v>
+      </c>
+      <c r="F27" s="41">
         <v>13</v>
       </c>
-      <c r="G27" s="56">
+      <c r="G27" s="41">
         <v>53871.01</v>
       </c>
     </row>
     <row r="28" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="56">
+      <c r="E28" s="41">
         <v>1.2</v>
       </c>
-      <c r="F28" s="56">
+      <c r="F28" s="41">
         <v>21</v>
       </c>
-      <c r="G28" s="56">
+      <c r="G28" s="41">
         <v>555744.56999999995</v>
       </c>
     </row>
     <row r="29" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E29" s="56">
+      <c r="E29" s="41">
         <v>1.2</v>
       </c>
-      <c r="F29" s="56">
+      <c r="F29" s="41">
         <v>7</v>
       </c>
-      <c r="G29" s="56">
+      <c r="G29" s="41">
         <v>211115.16</v>
       </c>
     </row>
     <row r="30" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="56">
+      <c r="E30" s="41">
         <v>1.2</v>
       </c>
-      <c r="F30" s="56">
+      <c r="F30" s="41">
         <v>25</v>
       </c>
-      <c r="G30" s="56">
+      <c r="G30" s="41">
         <v>160450.59</v>
       </c>
     </row>
     <row r="31" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="56">
+      <c r="E31" s="41">
         <v>1.2</v>
       </c>
-      <c r="F31" s="56">
+      <c r="F31" s="41">
         <v>30</v>
       </c>
-      <c r="G31" s="56">
+      <c r="G31" s="41">
         <v>131425.56</v>
       </c>
     </row>
     <row r="32" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E32" s="56">
+      <c r="E32" s="41">
         <v>1.2</v>
       </c>
-      <c r="F32" s="56">
+      <c r="F32" s="41">
         <v>3</v>
       </c>
-      <c r="G32" s="56">
+      <c r="G32" s="41">
         <v>107642.43</v>
       </c>
     </row>
     <row r="33" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E33" s="56">
+      <c r="E33" s="41">
         <v>1.2</v>
       </c>
-      <c r="F33" s="56">
+      <c r="F33" s="41">
         <v>11</v>
       </c>
-      <c r="G33" s="56">
+      <c r="G33" s="41">
         <v>102853.46</v>
       </c>
     </row>
     <row r="34" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E34" s="56">
+      <c r="E34" s="41">
         <v>1.2</v>
       </c>
-      <c r="F34" s="56">
+      <c r="F34" s="41">
         <v>28</v>
       </c>
-      <c r="G34" s="56">
+      <c r="G34" s="41">
         <v>89612.479999999996</v>
       </c>
     </row>
     <row r="35" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E35" s="56">
+      <c r="E35" s="41">
         <v>1.2</v>
       </c>
-      <c r="F35" s="56">
+      <c r="F35" s="41">
         <v>29</v>
       </c>
-      <c r="G35" s="56">
+      <c r="G35" s="41">
         <v>62049.08</v>
       </c>
     </row>
     <row r="36" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E36" s="56">
+      <c r="E36" s="41">
         <v>1.2</v>
       </c>
-      <c r="F36" s="56">
+      <c r="F36" s="41">
         <v>9</v>
       </c>
-      <c r="G36" s="56">
+      <c r="G36" s="41">
         <v>60671.83</v>
       </c>
     </row>
     <row r="37" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E37" s="56">
+      <c r="E37" s="41">
         <v>1.2</v>
       </c>
-      <c r="F37" s="56">
+      <c r="F37" s="41">
         <v>20</v>
       </c>
-      <c r="G37" s="56">
+      <c r="G37" s="41">
         <v>44495.11</v>
       </c>
     </row>
     <row r="38" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E38" s="56">
+      <c r="E38" s="41">
         <v>2</v>
       </c>
-      <c r="F38" s="56">
+      <c r="F38" s="41">
         <v>14</v>
       </c>
-      <c r="G38" s="56">
+      <c r="G38" s="41">
         <v>157217.45000000001</v>
       </c>
     </row>
     <row r="39" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E39" s="56">
+      <c r="E39" s="41">
         <v>2</v>
       </c>
-      <c r="F39" s="56">
+      <c r="F39" s="41">
         <v>24</v>
       </c>
-      <c r="G39" s="56">
+      <c r="G39" s="41">
         <v>36939.51</v>
       </c>
     </row>
     <row r="40" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E40" s="56">
+      <c r="E40" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F40" s="56">
+      <c r="F40" s="41">
         <v>35</v>
       </c>
-      <c r="G40" s="56">
+      <c r="G40" s="41">
         <v>267834.62</v>
       </c>
     </row>
     <row r="41" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E41" s="56">
+      <c r="E41" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F41" s="56">
+      <c r="F41" s="41">
         <v>22</v>
       </c>
-      <c r="G41" s="56">
+      <c r="G41" s="41">
         <v>230726.27</v>
       </c>
     </row>
     <row r="42" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E42" s="56">
+      <c r="E42" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F42" s="56">
+      <c r="F42" s="41">
         <v>17</v>
       </c>
-      <c r="G42" s="56">
+      <c r="G42" s="41">
         <v>204124.81</v>
       </c>
     </row>
     <row r="43" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E43" s="56">
+      <c r="E43" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F43" s="56">
+      <c r="F43" s="41">
         <v>23</v>
       </c>
-      <c r="G43" s="56">
+      <c r="G43" s="41">
         <v>176058.26</v>
       </c>
     </row>
     <row r="44" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E44" s="56">
+      <c r="E44" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F44" s="56">
+      <c r="F44" s="41">
         <v>34</v>
       </c>
-      <c r="G44" s="56">
+      <c r="G44" s="41">
         <v>158894.73000000001</v>
       </c>
     </row>
     <row r="45" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E45" s="56">
+      <c r="E45" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F45" s="56">
+      <c r="F45" s="41">
         <v>6</v>
       </c>
-      <c r="G45" s="56">
+      <c r="G45" s="41">
         <v>116980.05</v>
       </c>
     </row>
     <row r="46" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E46" s="56">
+      <c r="E46" s="41">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F46" s="56">
+      <c r="F46" s="41">
         <v>8</v>
       </c>
-      <c r="G46" s="56">
+      <c r="G46" s="41">
         <v>97379.44</v>
       </c>
     </row>
     <row r="47" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E47" s="56">
+      <c r="E47" s="41">
         <v>3</v>
       </c>
-      <c r="F47" s="56">
+      <c r="F47" s="41">
         <v>2</v>
       </c>
-      <c r="G47" s="56">
+      <c r="G47" s="41">
         <v>233427.19</v>
       </c>
     </row>
     <row r="48" spans="5:7" ht="18" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E48" s="56">
+      <c r="E48" s="41">
         <v>3</v>
       </c>
-      <c r="F48" s="56">
+      <c r="F48" s="41">
         <v>36</v>
       </c>
-      <c r="G48" s="56">
+      <c r="G48" s="41">
         <v>83381.789999999994</v>
       </c>
     </row>

--- a/回归结果/double玉米.xlsx
+++ b/回归结果/double玉米.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="统计性描述" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="各要素回归" sheetId="4" r:id="rId4"/>
     <sheet name="回归结果" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="13" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">回归结果!$A$21:$G$55</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="355">
   <si>
     <t>yield</t>
   </si>
@@ -1540,12 +1541,118 @@
     <t>单产</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lnyield</t>
+    </r>
+  </si>
+  <si>
+    <t>(2)lnlabor</t>
+  </si>
+  <si>
+    <t>(3)lnfertile</t>
+  </si>
+  <si>
+    <t>(4)lnmachane</t>
+  </si>
+  <si>
+    <t>lnlaborlnfert</t>
+  </si>
+  <si>
+    <t>lnlaborlnmach</t>
+  </si>
+  <si>
+    <t>lnfertlnmach</t>
+  </si>
+  <si>
+    <t>lnmachlnot</t>
+  </si>
+  <si>
+    <t>0.643***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.113***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.071***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.014***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.32***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.018***</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N=9713</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Cluster in id=3123</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="178" formatCode="&quot;(&quot;General&quot;)&quot;"/>
@@ -1554,8 +1661,9 @@
     <numFmt numFmtId="181" formatCode="0.0_ "/>
     <numFmt numFmtId="182" formatCode="0.0%"/>
     <numFmt numFmtId="183" formatCode="0.00_ "/>
+    <numFmt numFmtId="184" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1642,6 +1750,40 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1657,7 +1799,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1714,13 +1856,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1910,6 +2072,66 @@
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1965,6 +2187,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4850,6 +5090,908 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>机械</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$U$10:$U$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$V$10:$V$110</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.479053633651614</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7683067831463444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.962506557183928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1004797335244709</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.201911646333067</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2780919601404621</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3360470269082976</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3804141209349385</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4143925619202804</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4402677426208377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.459718656780705</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4740076559552318</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4841024256656952</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4907571076266803</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.4945678286649038</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4960116621852602</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4954745580838598</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.4932717446611923</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.489662881366729</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4848634807526517</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4790536331997388</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4723847515480095</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.464984841845836</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4569626631518502</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4484110403070796</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4394095240884552</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4300265436613921</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4203211605406807</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4103445071925731</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4001409741543496</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.3897491951791041</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.3792028690882092</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.3685314487846214</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.3577607215713945</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.3469133000452023</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3360090390401891</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.325065391123315</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.3140977107956626</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.3031195156913031</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.292142711577644</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.2811777867666705</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.2702339805823004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.2593194297468226</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2484412959118751</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.2376058770373763</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2268187048925565</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.2160846305988446</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.2054078998405036</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.1947922191245435</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.1842408142672181</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.1737564821134798</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.1633416363518871</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.1529983481662791</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.1427283823629129</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.1325332295247668</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.12241413467068</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.112372122833841</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.1024080219201577</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.0925224831606699</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0827159994324638</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.0729889216881596</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.063341473704511</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0537737653349999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.0442858044291197</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.0348775075617378</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.0255487096991001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.0162991729134325</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.0071285942452466</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9980366128012672</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.9890228161660786</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.9800867461969076</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.9712279042634364</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.962445755987767</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.953739735533826</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.945109249490204</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.9365536803858774</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.9280723898740957</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.9196647216161389</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.9113300038933767</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.9030675519732254</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.8948766702519992</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.8867566541953926</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.8787067920952993</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.8707263666598035</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.8628146564516233</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8549709371887289</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.8471944829196378</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8394845670846538</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.8318404634732508</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.8242614470869338</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.8167467949159151</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.8092957866373058</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.8019077052417427</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.7945818375947611</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.7873174749386658</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.7801139133401387</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.7729704540883231</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.7658864040477633</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.7588610759701155</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.7518937887683017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D542-48BE-B709-52633871132F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="264028040"/>
+        <c:axId val="264028368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="264028040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="264028368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="264028368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="264028040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4891,6 +6033,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5962,6 +7144,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -6313,6 +8011,117 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>155464</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>145781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3800475" y="2981325"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>679339</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>183881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439150" y="3019425"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6969,38 +8778,38 @@
       <c r="AS1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="85" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
       <c r="F2" s="20"/>
-      <c r="G2" s="65">
+      <c r="G2" s="85">
         <v>1</v>
       </c>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="20"/>
-      <c r="K2" s="65">
+      <c r="K2" s="85">
         <v>2</v>
       </c>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="65">
+      <c r="O2" s="85">
         <v>3</v>
       </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
       <c r="R2" s="20"/>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="66"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="6"/>
       <c r="C3" s="37" t="s">
         <v>124</v>
@@ -8192,49 +10001,49 @@
         <v>146</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="68" t="s">
+      <c r="C23" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="38"/>
-      <c r="G23" s="68" t="s">
+      <c r="G23" s="88" t="s">
         <v>191</v>
       </c>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
       <c r="J23" s="38"/>
-      <c r="K23" s="68" t="s">
+      <c r="K23" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="88"/>
       <c r="N23" s="38"/>
-      <c r="O23" s="68" t="s">
+      <c r="O23" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
+      <c r="P23" s="88"/>
+      <c r="Q23" s="88"/>
       <c r="R23" s="42"/>
     </row>
     <row r="25" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
     </row>
     <row r="26" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="83" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="3"/>
@@ -8288,7 +10097,7 @@
       <c r="AS26" s="3"/>
     </row>
     <row r="27" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A27" s="64"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
         <v>20</v>
@@ -10577,7 +12386,7 @@
       <c r="L49" s="21"/>
     </row>
     <row r="50" spans="1:50" ht="15" x14ac:dyDescent="0.15">
-      <c r="A50" s="63" t="s">
+      <c r="A50" s="83" t="s">
         <v>30</v>
       </c>
       <c r="B50" s="3"/>
@@ -10634,7 +12443,7 @@
       <c r="AS50" s="3"/>
     </row>
     <row r="51" spans="1:50" ht="15" x14ac:dyDescent="0.15">
-      <c r="A51" s="64"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
         <v>20</v>
@@ -13456,7 +15265,7 @@
       <c r="L73" s="21"/>
     </row>
     <row r="74" spans="1:51" ht="15" x14ac:dyDescent="0.15">
-      <c r="A74" s="63" t="s">
+      <c r="A74" s="83" t="s">
         <v>30</v>
       </c>
       <c r="B74" s="3"/>
@@ -13513,7 +15322,7 @@
       <c r="AS74" s="3"/>
     </row>
     <row r="75" spans="1:51" ht="15" x14ac:dyDescent="0.15">
-      <c r="A75" s="64"/>
+      <c r="A75" s="84"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
         <v>20</v>
@@ -16335,7 +18144,7 @@
       <c r="L96" s="21"/>
     </row>
     <row r="97" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A97" s="63" t="s">
+      <c r="A97" s="83" t="s">
         <v>30</v>
       </c>
       <c r="B97" s="3"/>
@@ -16390,7 +18199,7 @@
       <c r="AS97" s="3"/>
     </row>
     <row r="98" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A98" s="64"/>
+      <c r="A98" s="84"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4" t="s">
         <v>20</v>
@@ -18718,7 +20527,7 @@
       <c r="L119" s="21"/>
     </row>
     <row r="120" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A120" s="63" t="s">
+      <c r="A120" s="83" t="s">
         <v>30</v>
       </c>
       <c r="B120" s="3"/>
@@ -18773,7 +20582,7 @@
       <c r="AS120" s="3"/>
     </row>
     <row r="121" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A121" s="64"/>
+      <c r="A121" s="84"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4" t="s">
         <v>20</v>
@@ -22190,32 +23999,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="E2" s="69" t="s">
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="E2" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="I2" s="69" t="s">
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="I2" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -23260,15 +25069,15 @@
       </c>
     </row>
     <row r="28" spans="19:33" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="S28" s="70" t="s">
+      <c r="S28" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="T28" s="70"/>
-      <c r="U28" s="70"/>
-      <c r="V28" s="70"/>
-      <c r="W28" s="70"/>
-      <c r="X28" s="70"/>
-      <c r="Y28" s="70"/>
+      <c r="T28" s="90"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="90"/>
       <c r="Z28" s="35"/>
       <c r="AA28">
         <v>1</v>
@@ -23279,19 +25088,19 @@
       </c>
     </row>
     <row r="29" spans="19:33" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="S29" s="71" t="s">
+      <c r="S29" s="91" t="s">
         <v>157</v>
       </c>
-      <c r="T29" s="74" t="s">
+      <c r="T29" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74" t="s">
+      <c r="U29" s="94"/>
+      <c r="V29" s="94"/>
+      <c r="W29" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="74"/>
+      <c r="X29" s="94"/>
+      <c r="Y29" s="94"/>
       <c r="Z29" s="35"/>
       <c r="AA29">
         <v>2</v>
@@ -23302,7 +25111,7 @@
       </c>
     </row>
     <row r="30" spans="19:33" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="S30" s="70"/>
+      <c r="S30" s="90"/>
       <c r="T30" s="22" t="s">
         <v>74</v>
       </c>
@@ -23531,10 +25340,10 @@
     <row r="39" spans="19:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="U39" s="28"/>
       <c r="V39" s="26"/>
-      <c r="W39" s="73"/>
-      <c r="X39" s="73"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="72"/>
+      <c r="W39" s="93"/>
+      <c r="X39" s="93"/>
+      <c r="Y39" s="92"/>
+      <c r="Z39" s="92"/>
       <c r="AA39">
         <v>12</v>
       </c>
@@ -25318,8 +27127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A21:X152"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L53" sqref="L26:L53"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="P106" sqref="P106:U106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27049,18 +28858,18 @@
       <c r="O73" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="P73" s="80" t="s">
+      <c r="P73" s="100" t="s">
         <v>235</v>
       </c>
-      <c r="Q73" s="80"/>
-      <c r="R73" s="80" t="s">
+      <c r="Q73" s="100"/>
+      <c r="R73" s="100" t="s">
         <v>236</v>
       </c>
-      <c r="S73" s="80"/>
-      <c r="T73" s="80" t="s">
+      <c r="S73" s="100"/>
+      <c r="T73" s="100" t="s">
         <v>237</v>
       </c>
-      <c r="U73" s="80"/>
+      <c r="U73" s="100"/>
     </row>
     <row r="74" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
@@ -27568,10 +29377,10 @@
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="72" t="s">
+      <c r="J84" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="K84" s="72"/>
+      <c r="K84" s="92"/>
       <c r="N84" s="18"/>
       <c r="O84" s="54" t="s">
         <v>75</v>
@@ -28357,10 +30166,10 @@
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="79" t="s">
+      <c r="J98" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="K98" s="79"/>
+      <c r="K98" s="99"/>
       <c r="L98" s="15"/>
       <c r="M98" s="1"/>
       <c r="N98" s="18"/>
@@ -28637,18 +30446,18 @@
       <c r="O103" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="P103" s="75" t="s">
+      <c r="P103" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="Q103" s="75"/>
-      <c r="R103" s="75" t="s">
+      <c r="Q103" s="95"/>
+      <c r="R103" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="S103" s="75"/>
-      <c r="T103" s="75" t="s">
+      <c r="S103" s="95"/>
+      <c r="T103" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="U103" s="75"/>
+      <c r="U103" s="95"/>
     </row>
     <row r="104" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
@@ -28671,18 +30480,18 @@
       <c r="O104" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="P104" s="78" t="s">
+      <c r="P104" s="98" t="s">
         <v>242</v>
       </c>
-      <c r="Q104" s="78"/>
-      <c r="R104" s="75" t="s">
+      <c r="Q104" s="98"/>
+      <c r="R104" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="S104" s="75"/>
-      <c r="T104" s="75" t="s">
+      <c r="S104" s="95"/>
+      <c r="T104" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="U104" s="75"/>
+      <c r="U104" s="95"/>
     </row>
     <row r="105" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
@@ -28701,40 +30510,40 @@
       <c r="O105" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="P105" s="75" t="s">
+      <c r="P105" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="Q105" s="75"/>
-      <c r="R105" s="75" t="s">
+      <c r="Q105" s="95"/>
+      <c r="R105" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="S105" s="75"/>
-      <c r="T105" s="75" t="s">
+      <c r="S105" s="95"/>
+      <c r="T105" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="U105" s="75"/>
+      <c r="U105" s="95"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.15">
       <c r="O106" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="P106" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q106" s="76"/>
-      <c r="R106" s="76"/>
-      <c r="S106" s="76"/>
-      <c r="T106" s="76"/>
-      <c r="U106" s="76"/>
+      <c r="P106" s="96" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q106" s="96"/>
+      <c r="R106" s="96"/>
+      <c r="S106" s="96"/>
+      <c r="T106" s="96"/>
+      <c r="U106" s="96"/>
     </row>
     <row r="107" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="O107" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="P107" s="77">
+      <c r="P107" s="97">
         <v>0.252</v>
       </c>
-      <c r="Q107" s="77"/>
+      <c r="Q107" s="97"/>
       <c r="R107" s="59"/>
       <c r="S107" s="59"/>
       <c r="T107" s="59"/>
@@ -29566,7 +31375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CX238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="BJ7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BU32" sqref="BU32"/>
     </sheetView>
   </sheetViews>
@@ -29594,18 +31403,18 @@
       <c r="A2" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="101" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81" t="s">
+      <c r="C2" s="101"/>
+      <c r="D2" s="101" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81" t="s">
+      <c r="E2" s="101"/>
+      <c r="F2" s="101" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="81"/>
+      <c r="G2" s="101"/>
       <c r="J2" s="8" t="s">
         <v>62</v>
       </c>
@@ -37237,18 +39046,18 @@
       <c r="A32" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="75" t="s">
+      <c r="C32" s="95"/>
+      <c r="D32" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75" t="s">
+      <c r="E32" s="95"/>
+      <c r="F32" s="95" t="s">
         <v>240</v>
       </c>
-      <c r="G32" s="75"/>
+      <c r="G32" s="95"/>
       <c r="J32" s="27">
         <v>2013</v>
       </c>
@@ -37404,18 +39213,18 @@
       <c r="A33" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="98" t="s">
         <v>242</v>
       </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="75" t="s">
+      <c r="C33" s="98"/>
+      <c r="D33" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75" t="s">
+      <c r="E33" s="95"/>
+      <c r="F33" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="G33" s="75"/>
+      <c r="G33" s="95"/>
       <c r="J33" s="27">
         <v>2014</v>
       </c>
@@ -37571,18 +39380,18 @@
       <c r="A34" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="B34" s="75" t="s">
+      <c r="B34" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="75"/>
-      <c r="D34" s="75" t="s">
+      <c r="C34" s="95"/>
+      <c r="D34" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75" t="s">
+      <c r="E34" s="95"/>
+      <c r="F34" s="95" t="s">
         <v>239</v>
       </c>
-      <c r="G34" s="75"/>
+      <c r="G34" s="95"/>
       <c r="J34" s="27">
         <v>2015</v>
       </c>
@@ -37724,14 +39533,14 @@
       <c r="A35" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="B35" s="76" t="s">
+      <c r="B35" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
       <c r="H35" s="47"/>
       <c r="J35" s="27" t="s">
         <v>80</v>
@@ -37874,10 +39683,10 @@
       <c r="A36" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="77">
+      <c r="B36" s="97">
         <v>0.252</v>
       </c>
-      <c r="C36" s="77"/>
+      <c r="C36" s="97"/>
       <c r="D36" s="59"/>
       <c r="E36" s="59"/>
       <c r="F36" s="59"/>
@@ -44834,4 +46643,1663 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E8:V110"/>
+  <sheetViews>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10:V110"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="8" spans="5:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="5:22" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="F9" s="107" t="s">
+        <v>340</v>
+      </c>
+      <c r="G9" s="107"/>
+      <c r="H9" s="102" t="s">
+        <v>341</v>
+      </c>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102" t="s">
+        <v>342</v>
+      </c>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102" t="s">
+        <v>343</v>
+      </c>
+      <c r="M9" s="102"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="65"/>
+    </row>
+    <row r="10" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E10" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="69">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="H10" s="81" t="s">
+        <v>352</v>
+      </c>
+      <c r="I10" s="73">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J10" s="79" t="s">
+        <v>350</v>
+      </c>
+      <c r="K10" s="76">
+        <v>2.3E-2</v>
+      </c>
+      <c r="L10" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="M10" s="76">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="N10" s="72" t="e">
+        <f>ROUND(H10,3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O10" s="72">
+        <f>ROUND(I10,3)</f>
+        <v>2.3E-2</v>
+      </c>
+      <c r="P10" s="72" t="e">
+        <f t="shared" ref="P10:S10" si="0">ROUND(J10,3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q10" s="72">
+        <f t="shared" si="0"/>
+        <v>2.3E-2</v>
+      </c>
+      <c r="R10" s="72" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S10" s="72">
+        <f t="shared" si="0"/>
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <f>EXP(0.643*LN(U10)-0.113*(LN(U10))^2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E11" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="55">
+        <v>1E-3</v>
+      </c>
+      <c r="G11" s="69">
+        <v>-2E-3</v>
+      </c>
+      <c r="N11" s="72" t="e">
+        <f t="shared" ref="N11:S11" si="1">ROUND(H12,3)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O11" s="72">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="P11" s="72" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q11" s="72">
+        <f t="shared" si="1"/>
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="R11" s="72" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="S11" s="72">
+        <f t="shared" si="1"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" ref="V11:V74" si="2">EXP(0.643*LN(U11)-0.113*(LN(U11))^2)</f>
+        <v>1.479053633651614</v>
+      </c>
+    </row>
+    <row r="12" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E12" s="66" t="s">
+        <v>334</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="81" t="s">
+        <v>353</v>
+      </c>
+      <c r="I12" s="74">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J12" s="80" t="s">
+        <v>351</v>
+      </c>
+      <c r="K12" s="77">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L12" s="78" t="s">
+        <v>349</v>
+      </c>
+      <c r="M12" s="77">
+        <v>5.5E-2</v>
+      </c>
+      <c r="N12" s="75"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="106"/>
+      <c r="Q12" s="106"/>
+      <c r="R12" s="106"/>
+      <c r="U12">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>1.7683067831463444</v>
+      </c>
+    </row>
+    <row r="13" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E13" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="55">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="G13" s="69">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="H13" s="66"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="U13">
+        <v>4</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>1.962506557183928</v>
+      </c>
+    </row>
+    <row r="14" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E14" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="55">
+        <v>-0.12</v>
+      </c>
+      <c r="G14" s="69">
+        <v>-9.5000000000000001E-2</v>
+      </c>
+      <c r="H14" s="66"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>2.1004797335244709</v>
+      </c>
+    </row>
+    <row r="15" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E15" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="69">
+        <v>-0.01</v>
+      </c>
+      <c r="H15" s="66"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
+      <c r="U15">
+        <v>6</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>2.201911646333067</v>
+      </c>
+    </row>
+    <row r="16" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E16" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="55">
+        <v>0.109</v>
+      </c>
+      <c r="G16" s="69">
+        <v>-0.183</v>
+      </c>
+      <c r="H16" s="66"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="U16">
+        <v>7</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>2.2780919601404621</v>
+      </c>
+    </row>
+    <row r="17" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E17" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="55">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G17" s="69">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="H17" s="66"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+      <c r="U17">
+        <v>8</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>2.3360470269082976</v>
+      </c>
+    </row>
+    <row r="18" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E18" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="69">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="H18" s="66"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="104"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="U18">
+        <v>9</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>2.3804141209349385</v>
+      </c>
+    </row>
+    <row r="19" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E19" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="69">
+        <v>0</v>
+      </c>
+      <c r="H19" s="66"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
+      <c r="U19">
+        <v>10</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="2"/>
+        <v>2.4143925619202804</v>
+      </c>
+    </row>
+    <row r="20" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E20" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="55">
+        <v>-2.3E-2</v>
+      </c>
+      <c r="G20" s="69">
+        <v>-0.02</v>
+      </c>
+      <c r="H20" s="66"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
+      <c r="U20">
+        <v>11</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="2"/>
+        <v>2.4402677426208377</v>
+      </c>
+    </row>
+    <row r="21" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E21" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="F21" s="55">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="G21" s="69">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="H21" s="66"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+      <c r="U21">
+        <v>12</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>2.459718656780705</v>
+      </c>
+    </row>
+    <row r="22" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E22" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="69">
+        <v>-1E-3</v>
+      </c>
+      <c r="H22" s="66"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="U22">
+        <v>13</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="2"/>
+        <v>2.4740076559552318</v>
+      </c>
+    </row>
+    <row r="23" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E23" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="55">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G23" s="69">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="H23" s="66"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104"/>
+      <c r="U23">
+        <v>14</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="2"/>
+        <v>2.4841024256656952</v>
+      </c>
+    </row>
+    <row r="24" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E24" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="F24" s="55">
+        <v>1E-3</v>
+      </c>
+      <c r="G24" s="69">
+        <v>-1E-3</v>
+      </c>
+      <c r="H24" s="66"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="104"/>
+      <c r="U24">
+        <v>15</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="2"/>
+        <v>2.4907571076266803</v>
+      </c>
+    </row>
+    <row r="25" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E25" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="55">
+        <v>1.9E-2</v>
+      </c>
+      <c r="G25" s="69">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="H25" s="66"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="104"/>
+      <c r="U25">
+        <v>16</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="2"/>
+        <v>2.4945678286649038</v>
+      </c>
+    </row>
+    <row r="26" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E26" s="66" t="s">
+        <v>347</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="69">
+        <v>-2E-3</v>
+      </c>
+      <c r="H26" s="66"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
+      <c r="U26">
+        <v>17</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="2"/>
+        <v>2.4960116621852602</v>
+      </c>
+    </row>
+    <row r="27" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E27" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="55">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="G27" s="69">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="H27" s="66"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="U27">
+        <v>18</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="2"/>
+        <v>2.4954745580838598</v>
+      </c>
+    </row>
+    <row r="28" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E28" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="55">
+        <v>0</v>
+      </c>
+      <c r="G28" s="69">
+        <v>0</v>
+      </c>
+      <c r="H28" s="66"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="104"/>
+      <c r="U28">
+        <v>19</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="2"/>
+        <v>2.4932717446611923</v>
+      </c>
+    </row>
+    <row r="29" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E29" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="55">
+        <v>-2E-3</v>
+      </c>
+      <c r="G29" s="69">
+        <v>-2E-3</v>
+      </c>
+      <c r="H29" s="66"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
+      <c r="U29">
+        <v>20</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="2"/>
+        <v>2.489662881366729</v>
+      </c>
+    </row>
+    <row r="30" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E30" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" s="69">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="H30" s="66"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="104"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="104"/>
+      <c r="U30">
+        <v>21</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="2"/>
+        <v>2.4848634807526517</v>
+      </c>
+    </row>
+    <row r="31" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E31" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="55" t="s">
+        <v>324</v>
+      </c>
+      <c r="G31" s="69">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="H31" s="66"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="104"/>
+      <c r="U31">
+        <v>22</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="2"/>
+        <v>2.4790536331997388</v>
+      </c>
+    </row>
+    <row r="32" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E32" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="69">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="H32" s="66"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="104"/>
+      <c r="U32">
+        <v>23</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="2"/>
+        <v>2.4723847515480095</v>
+      </c>
+    </row>
+    <row r="33" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E33" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="55">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="G33" s="69">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="H33" s="66"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="104"/>
+      <c r="Q33" s="104"/>
+      <c r="R33" s="104"/>
+      <c r="U33">
+        <v>24</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="2"/>
+        <v>2.464984841845836</v>
+      </c>
+    </row>
+    <row r="34" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E34" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" s="69">
+        <v>-2E-3</v>
+      </c>
+      <c r="H34" s="66"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="104"/>
+      <c r="Q34" s="104"/>
+      <c r="R34" s="104"/>
+      <c r="U34">
+        <v>25</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="2"/>
+        <v>2.4569626631518502</v>
+      </c>
+    </row>
+    <row r="35" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E35" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="55">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="G35" s="69">
+        <v>-8.9999999999999993E-3</v>
+      </c>
+      <c r="H35" s="66"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="104"/>
+      <c r="U35">
+        <v>26</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="2"/>
+        <v>2.4484110403070796</v>
+      </c>
+    </row>
+    <row r="36" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E36" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="F36" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" s="69">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+      <c r="H36" s="66"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="104"/>
+      <c r="Q36" s="104"/>
+      <c r="R36" s="104"/>
+      <c r="U36">
+        <v>27</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="2"/>
+        <v>2.4394095240884552</v>
+      </c>
+    </row>
+    <row r="37" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E37" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="55" t="s">
+        <v>326</v>
+      </c>
+      <c r="G37" s="69">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="H37" s="66"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="104"/>
+      <c r="Q37" s="104"/>
+      <c r="R37" s="104"/>
+      <c r="U37">
+        <v>28</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="2"/>
+        <v>2.4300265436613921</v>
+      </c>
+    </row>
+    <row r="38" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E38" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="55">
+        <v>-1E-3</v>
+      </c>
+      <c r="G38" s="69">
+        <v>-1E-3</v>
+      </c>
+      <c r="H38" s="66"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="104"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="104"/>
+      <c r="U38">
+        <v>29</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="2"/>
+        <v>2.4203211605406807</v>
+      </c>
+    </row>
+    <row r="39" spans="5:22" ht="15" x14ac:dyDescent="0.15">
+      <c r="E39" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="69">
+        <v>-0.49299999999999999</v>
+      </c>
+      <c r="H39" s="66"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="104"/>
+      <c r="Q39" s="104"/>
+      <c r="R39" s="104"/>
+      <c r="U39">
+        <v>30</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="2"/>
+        <v>2.4103445071925731</v>
+      </c>
+    </row>
+    <row r="40" spans="5:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="F40" s="103" t="s">
+        <v>246</v>
+      </c>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
+      <c r="K40" s="103"/>
+      <c r="L40" s="103"/>
+      <c r="M40" s="103"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="105"/>
+      <c r="U40">
+        <v>31</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="2"/>
+        <v>2.4001409741543496</v>
+      </c>
+    </row>
+    <row r="41" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="U41">
+        <v>32</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="2"/>
+        <v>2.3897491951791041</v>
+      </c>
+    </row>
+    <row r="42" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="U42">
+        <v>33</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="2"/>
+        <v>2.3792028690882092</v>
+      </c>
+    </row>
+    <row r="43" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="U43">
+        <v>34</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="2"/>
+        <v>2.3685314487846214</v>
+      </c>
+    </row>
+    <row r="44" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="U44">
+        <v>35</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="2"/>
+        <v>2.3577607215713945</v>
+      </c>
+    </row>
+    <row r="45" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="U45">
+        <v>36</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="2"/>
+        <v>2.3469133000452023</v>
+      </c>
+    </row>
+    <row r="46" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="U46">
+        <v>37</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="2"/>
+        <v>2.3360090390401891</v>
+      </c>
+    </row>
+    <row r="47" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="U47">
+        <v>38</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="2"/>
+        <v>2.325065391123315</v>
+      </c>
+    </row>
+    <row r="48" spans="5:22" x14ac:dyDescent="0.15">
+      <c r="U48">
+        <v>39</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="2"/>
+        <v>2.3140977107956626</v>
+      </c>
+    </row>
+    <row r="49" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U49">
+        <v>40</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="2"/>
+        <v>2.3031195156913031</v>
+      </c>
+    </row>
+    <row r="50" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U50">
+        <v>41</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="2"/>
+        <v>2.292142711577644</v>
+      </c>
+    </row>
+    <row r="51" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U51">
+        <v>42</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="2"/>
+        <v>2.2811777867666705</v>
+      </c>
+    </row>
+    <row r="52" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U52">
+        <v>43</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="2"/>
+        <v>2.2702339805823004</v>
+      </c>
+    </row>
+    <row r="53" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U53">
+        <v>44</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="2"/>
+        <v>2.2593194297468226</v>
+      </c>
+    </row>
+    <row r="54" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U54">
+        <v>45</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="2"/>
+        <v>2.2484412959118751</v>
+      </c>
+    </row>
+    <row r="55" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U55">
+        <v>46</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="2"/>
+        <v>2.2376058770373763</v>
+      </c>
+    </row>
+    <row r="56" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U56">
+        <v>47</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="2"/>
+        <v>2.2268187048925565</v>
+      </c>
+    </row>
+    <row r="57" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U57">
+        <v>48</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="2"/>
+        <v>2.2160846305988446</v>
+      </c>
+    </row>
+    <row r="58" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U58">
+        <v>49</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="2"/>
+        <v>2.2054078998405036</v>
+      </c>
+    </row>
+    <row r="59" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U59">
+        <v>50</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="2"/>
+        <v>2.1947922191245435</v>
+      </c>
+    </row>
+    <row r="60" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U60">
+        <v>51</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="2"/>
+        <v>2.1842408142672181</v>
+      </c>
+    </row>
+    <row r="61" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U61">
+        <v>52</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="2"/>
+        <v>2.1737564821134798</v>
+      </c>
+    </row>
+    <row r="62" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U62">
+        <v>53</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="2"/>
+        <v>2.1633416363518871</v>
+      </c>
+    </row>
+    <row r="63" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U63">
+        <v>54</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="2"/>
+        <v>2.1529983481662791</v>
+      </c>
+    </row>
+    <row r="64" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U64">
+        <v>55</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="2"/>
+        <v>2.1427283823629129</v>
+      </c>
+    </row>
+    <row r="65" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U65">
+        <v>56</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="2"/>
+        <v>2.1325332295247668</v>
+      </c>
+    </row>
+    <row r="66" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U66">
+        <v>57</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="2"/>
+        <v>2.12241413467068</v>
+      </c>
+    </row>
+    <row r="67" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U67">
+        <v>58</v>
+      </c>
+      <c r="V67">
+        <f t="shared" si="2"/>
+        <v>2.112372122833841</v>
+      </c>
+    </row>
+    <row r="68" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U68">
+        <v>59</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="2"/>
+        <v>2.1024080219201577</v>
+      </c>
+    </row>
+    <row r="69" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U69">
+        <v>60</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="2"/>
+        <v>2.0925224831606699</v>
+      </c>
+    </row>
+    <row r="70" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U70">
+        <v>61</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="2"/>
+        <v>2.0827159994324638</v>
+      </c>
+    </row>
+    <row r="71" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U71">
+        <v>62</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="2"/>
+        <v>2.0729889216881596</v>
+      </c>
+    </row>
+    <row r="72" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U72">
+        <v>63</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="2"/>
+        <v>2.063341473704511</v>
+      </c>
+    </row>
+    <row r="73" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U73">
+        <v>64</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="2"/>
+        <v>2.0537737653349999</v>
+      </c>
+    </row>
+    <row r="74" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U74">
+        <v>65</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="2"/>
+        <v>2.0442858044291197</v>
+      </c>
+    </row>
+    <row r="75" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U75">
+        <v>66</v>
+      </c>
+      <c r="V75">
+        <f t="shared" ref="V75:V110" si="3">EXP(0.643*LN(U75)-0.113*(LN(U75))^2)</f>
+        <v>2.0348775075617378</v>
+      </c>
+    </row>
+    <row r="76" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U76">
+        <v>67</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="3"/>
+        <v>2.0255487096991001</v>
+      </c>
+    </row>
+    <row r="77" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U77">
+        <v>68</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="3"/>
+        <v>2.0162991729134325</v>
+      </c>
+    </row>
+    <row r="78" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U78">
+        <v>69</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="3"/>
+        <v>2.0071285942452466</v>
+      </c>
+    </row>
+    <row r="79" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U79">
+        <v>70</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="3"/>
+        <v>1.9980366128012672</v>
+      </c>
+    </row>
+    <row r="80" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U80">
+        <v>71</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="3"/>
+        <v>1.9890228161660786</v>
+      </c>
+    </row>
+    <row r="81" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U81">
+        <v>72</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="3"/>
+        <v>1.9800867461969076</v>
+      </c>
+    </row>
+    <row r="82" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U82">
+        <v>73</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="3"/>
+        <v>1.9712279042634364</v>
+      </c>
+    </row>
+    <row r="83" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U83">
+        <v>74</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="3"/>
+        <v>1.962445755987767</v>
+      </c>
+    </row>
+    <row r="84" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U84">
+        <v>75</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="3"/>
+        <v>1.953739735533826</v>
+      </c>
+    </row>
+    <row r="85" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U85">
+        <v>76</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="3"/>
+        <v>1.945109249490204</v>
+      </c>
+    </row>
+    <row r="86" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U86">
+        <v>77</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="3"/>
+        <v>1.9365536803858774</v>
+      </c>
+    </row>
+    <row r="87" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U87">
+        <v>78</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="3"/>
+        <v>1.9280723898740957</v>
+      </c>
+    </row>
+    <row r="88" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U88">
+        <v>79</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="3"/>
+        <v>1.9196647216161389</v>
+      </c>
+    </row>
+    <row r="89" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U89">
+        <v>80</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="3"/>
+        <v>1.9113300038933767</v>
+      </c>
+    </row>
+    <row r="90" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U90">
+        <v>81</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="3"/>
+        <v>1.9030675519732254</v>
+      </c>
+    </row>
+    <row r="91" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U91">
+        <v>82</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="3"/>
+        <v>1.8948766702519992</v>
+      </c>
+    </row>
+    <row r="92" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U92">
+        <v>83</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="3"/>
+        <v>1.8867566541953926</v>
+      </c>
+    </row>
+    <row r="93" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U93">
+        <v>84</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="3"/>
+        <v>1.8787067920952993</v>
+      </c>
+    </row>
+    <row r="94" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U94">
+        <v>85</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="3"/>
+        <v>1.8707263666598035</v>
+      </c>
+    </row>
+    <row r="95" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U95">
+        <v>86</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="3"/>
+        <v>1.8628146564516233</v>
+      </c>
+    </row>
+    <row r="96" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U96">
+        <v>87</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="3"/>
+        <v>1.8549709371887289</v>
+      </c>
+    </row>
+    <row r="97" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U97">
+        <v>88</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="3"/>
+        <v>1.8471944829196378</v>
+      </c>
+    </row>
+    <row r="98" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U98">
+        <v>89</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="3"/>
+        <v>1.8394845670846538</v>
+      </c>
+    </row>
+    <row r="99" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U99">
+        <v>90</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="3"/>
+        <v>1.8318404634732508</v>
+      </c>
+    </row>
+    <row r="100" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U100">
+        <v>91</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="3"/>
+        <v>1.8242614470869338</v>
+      </c>
+    </row>
+    <row r="101" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U101">
+        <v>92</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="3"/>
+        <v>1.8167467949159151</v>
+      </c>
+    </row>
+    <row r="102" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U102">
+        <v>93</v>
+      </c>
+      <c r="V102">
+        <f t="shared" si="3"/>
+        <v>1.8092957866373058</v>
+      </c>
+    </row>
+    <row r="103" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U103">
+        <v>94</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="3"/>
+        <v>1.8019077052417427</v>
+      </c>
+    </row>
+    <row r="104" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U104">
+        <v>95</v>
+      </c>
+      <c r="V104">
+        <f t="shared" si="3"/>
+        <v>1.7945818375947611</v>
+      </c>
+    </row>
+    <row r="105" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U105">
+        <v>96</v>
+      </c>
+      <c r="V105">
+        <f t="shared" si="3"/>
+        <v>1.7873174749386658</v>
+      </c>
+    </row>
+    <row r="106" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U106">
+        <v>97</v>
+      </c>
+      <c r="V106">
+        <f t="shared" si="3"/>
+        <v>1.7801139133401387</v>
+      </c>
+    </row>
+    <row r="107" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U107">
+        <v>98</v>
+      </c>
+      <c r="V107">
+        <f t="shared" si="3"/>
+        <v>1.7729704540883231</v>
+      </c>
+    </row>
+    <row r="108" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U108">
+        <v>99</v>
+      </c>
+      <c r="V108">
+        <f t="shared" si="3"/>
+        <v>1.7658864040477633</v>
+      </c>
+    </row>
+    <row r="109" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U109">
+        <v>100</v>
+      </c>
+      <c r="V109">
+        <f t="shared" si="3"/>
+        <v>1.7588610759701155</v>
+      </c>
+    </row>
+    <row r="110" spans="21:22" x14ac:dyDescent="0.15">
+      <c r="U110">
+        <v>101</v>
+      </c>
+      <c r="V110">
+        <f t="shared" si="3"/>
+        <v>1.7518937887683017</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/回归结果/double玉米.xlsx
+++ b/回归结果/double玉米.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="统计性描述" sheetId="1" r:id="rId1"/>
@@ -1882,7 +1882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2090,9 +2090,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2132,22 +2129,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2168,7 +2165,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2177,17 +2183,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2195,17 +2201,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8050,16 +8047,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>155464</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>145781</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>298339</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>31481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8076,7 +8073,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3800475" y="2981325"/>
+          <a:off x="6686550" y="2105025"/>
           <a:ext cx="4584589" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8778,33 +8775,33 @@
       <c r="AS1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
       <c r="F2" s="20"/>
-      <c r="G2" s="85">
+      <c r="G2" s="82">
         <v>1</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
       <c r="J2" s="20"/>
-      <c r="K2" s="85">
+      <c r="K2" s="82">
         <v>2</v>
       </c>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="85">
+      <c r="O2" s="82">
         <v>3</v>
       </c>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
       <c r="R2" s="20"/>
       <c r="S2" s="3"/>
     </row>
@@ -10001,29 +9998,29 @@
         <v>146</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="83" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
       <c r="F23" s="38"/>
-      <c r="G23" s="88" t="s">
+      <c r="G23" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
       <c r="J23" s="38"/>
-      <c r="K23" s="88" t="s">
+      <c r="K23" s="83" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="88"/>
-      <c r="M23" s="88"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
       <c r="N23" s="38"/>
-      <c r="O23" s="88" t="s">
+      <c r="O23" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="P23" s="88"/>
-      <c r="Q23" s="88"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="83"/>
       <c r="R23" s="42"/>
     </row>
     <row r="25" spans="1:45" ht="15" x14ac:dyDescent="0.15">
@@ -10043,7 +10040,7 @@
       <c r="L25" s="87"/>
     </row>
     <row r="26" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A26" s="83" t="s">
+      <c r="A26" s="84" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="3"/>
@@ -10097,7 +10094,7 @@
       <c r="AS26" s="3"/>
     </row>
     <row r="27" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A27" s="84"/>
+      <c r="A27" s="85"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
         <v>20</v>
@@ -12386,7 +12383,7 @@
       <c r="L49" s="21"/>
     </row>
     <row r="50" spans="1:50" ht="15" x14ac:dyDescent="0.15">
-      <c r="A50" s="83" t="s">
+      <c r="A50" s="84" t="s">
         <v>30</v>
       </c>
       <c r="B50" s="3"/>
@@ -12443,7 +12440,7 @@
       <c r="AS50" s="3"/>
     </row>
     <row r="51" spans="1:50" ht="15" x14ac:dyDescent="0.15">
-      <c r="A51" s="84"/>
+      <c r="A51" s="85"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
         <v>20</v>
@@ -15265,7 +15262,7 @@
       <c r="L73" s="21"/>
     </row>
     <row r="74" spans="1:51" ht="15" x14ac:dyDescent="0.15">
-      <c r="A74" s="83" t="s">
+      <c r="A74" s="84" t="s">
         <v>30</v>
       </c>
       <c r="B74" s="3"/>
@@ -15322,7 +15319,7 @@
       <c r="AS74" s="3"/>
     </row>
     <row r="75" spans="1:51" ht="15" x14ac:dyDescent="0.15">
-      <c r="A75" s="84"/>
+      <c r="A75" s="85"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
         <v>20</v>
@@ -18144,7 +18141,7 @@
       <c r="L96" s="21"/>
     </row>
     <row r="97" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A97" s="83" t="s">
+      <c r="A97" s="84" t="s">
         <v>30</v>
       </c>
       <c r="B97" s="3"/>
@@ -18199,7 +18196,7 @@
       <c r="AS97" s="3"/>
     </row>
     <row r="98" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A98" s="84"/>
+      <c r="A98" s="85"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4" t="s">
         <v>20</v>
@@ -20527,7 +20524,7 @@
       <c r="L119" s="21"/>
     </row>
     <row r="120" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A120" s="83" t="s">
+      <c r="A120" s="84" t="s">
         <v>30</v>
       </c>
       <c r="B120" s="3"/>
@@ -20582,7 +20579,7 @@
       <c r="AS120" s="3"/>
     </row>
     <row r="121" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A121" s="84"/>
+      <c r="A121" s="85"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4" t="s">
         <v>20</v>
@@ -23946,6 +23943,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A26:A27"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="G2:I2"/>
@@ -23954,13 +23958,6 @@
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="K23:M23"/>
     <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23999,32 +23996,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="E2" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="I2" s="89" t="s">
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="I2" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -25069,15 +25066,15 @@
       </c>
     </row>
     <row r="28" spans="19:33" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="S28" s="90" t="s">
+      <c r="S28" s="89" t="s">
         <v>158</v>
       </c>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
-      <c r="V28" s="90"/>
-      <c r="W28" s="90"/>
-      <c r="X28" s="90"/>
-      <c r="Y28" s="90"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
       <c r="Z28" s="35"/>
       <c r="AA28">
         <v>1</v>
@@ -25088,19 +25085,19 @@
       </c>
     </row>
     <row r="29" spans="19:33" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="S29" s="91" t="s">
+      <c r="S29" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="T29" s="94" t="s">
+      <c r="T29" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="U29" s="94"/>
-      <c r="V29" s="94"/>
-      <c r="W29" s="94" t="s">
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="94"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="93"/>
       <c r="Z29" s="35"/>
       <c r="AA29">
         <v>2</v>
@@ -25111,7 +25108,7 @@
       </c>
     </row>
     <row r="30" spans="19:33" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="S30" s="90"/>
+      <c r="S30" s="89"/>
       <c r="T30" s="22" t="s">
         <v>74</v>
       </c>
@@ -25340,10 +25337,10 @@
     <row r="39" spans="19:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="U39" s="28"/>
       <c r="V39" s="26"/>
-      <c r="W39" s="93"/>
-      <c r="X39" s="93"/>
-      <c r="Y39" s="92"/>
-      <c r="Z39" s="92"/>
+      <c r="W39" s="92"/>
+      <c r="X39" s="92"/>
+      <c r="Y39" s="91"/>
+      <c r="Z39" s="91"/>
       <c r="AA39">
         <v>12</v>
       </c>
@@ -27127,8 +27124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A21:X152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="P106" sqref="P106:U106"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74:D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28858,18 +28855,18 @@
       <c r="O73" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="P73" s="100" t="s">
+      <c r="P73" s="95" t="s">
         <v>235</v>
       </c>
-      <c r="Q73" s="100"/>
-      <c r="R73" s="100" t="s">
+      <c r="Q73" s="95"/>
+      <c r="R73" s="95" t="s">
         <v>236</v>
       </c>
-      <c r="S73" s="100"/>
-      <c r="T73" s="100" t="s">
+      <c r="S73" s="95"/>
+      <c r="T73" s="95" t="s">
         <v>237</v>
       </c>
-      <c r="U73" s="100"/>
+      <c r="U73" s="95"/>
     </row>
     <row r="74" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
@@ -29377,10 +29374,10 @@
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="92" t="s">
+      <c r="J84" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="K84" s="92"/>
+      <c r="K84" s="91"/>
       <c r="N84" s="18"/>
       <c r="O84" s="54" t="s">
         <v>75</v>
@@ -30166,10 +30163,10 @@
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="99" t="s">
+      <c r="J98" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="K98" s="99"/>
+      <c r="K98" s="94"/>
       <c r="L98" s="15"/>
       <c r="M98" s="1"/>
       <c r="N98" s="18"/>
@@ -30446,18 +30443,18 @@
       <c r="O103" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="P103" s="95" t="s">
+      <c r="P103" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="Q103" s="95"/>
-      <c r="R103" s="95" t="s">
+      <c r="Q103" s="96"/>
+      <c r="R103" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="S103" s="95"/>
-      <c r="T103" s="95" t="s">
+      <c r="S103" s="96"/>
+      <c r="T103" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="U103" s="95"/>
+      <c r="U103" s="96"/>
     </row>
     <row r="104" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
@@ -30480,18 +30477,18 @@
       <c r="O104" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="P104" s="98" t="s">
+      <c r="P104" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="Q104" s="98"/>
-      <c r="R104" s="95" t="s">
+      <c r="Q104" s="97"/>
+      <c r="R104" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="S104" s="95"/>
-      <c r="T104" s="95" t="s">
+      <c r="S104" s="96"/>
+      <c r="T104" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="U104" s="95"/>
+      <c r="U104" s="96"/>
     </row>
     <row r="105" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
@@ -30510,40 +30507,40 @@
       <c r="O105" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="P105" s="95" t="s">
+      <c r="P105" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="Q105" s="95"/>
-      <c r="R105" s="95" t="s">
+      <c r="Q105" s="96"/>
+      <c r="R105" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="S105" s="95"/>
-      <c r="T105" s="95" t="s">
+      <c r="S105" s="96"/>
+      <c r="T105" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="U105" s="95"/>
+      <c r="U105" s="96"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.15">
       <c r="O106" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="P106" s="96" t="s">
+      <c r="P106" s="98" t="s">
         <v>354</v>
       </c>
-      <c r="Q106" s="96"/>
-      <c r="R106" s="96"/>
-      <c r="S106" s="96"/>
-      <c r="T106" s="96"/>
-      <c r="U106" s="96"/>
+      <c r="Q106" s="98"/>
+      <c r="R106" s="98"/>
+      <c r="S106" s="98"/>
+      <c r="T106" s="98"/>
+      <c r="U106" s="98"/>
     </row>
     <row r="107" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="O107" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="P107" s="97">
+      <c r="P107" s="99">
         <v>0.252</v>
       </c>
-      <c r="Q107" s="97"/>
+      <c r="Q107" s="99"/>
       <c r="R107" s="59"/>
       <c r="S107" s="59"/>
       <c r="T107" s="59"/>
@@ -31348,22 +31345,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="R105:S105"/>
+    <mergeCell ref="T105:U105"/>
+    <mergeCell ref="P106:U106"/>
+    <mergeCell ref="P107:Q107"/>
     <mergeCell ref="P103:Q103"/>
     <mergeCell ref="R103:S103"/>
     <mergeCell ref="T103:U103"/>
     <mergeCell ref="P104:Q104"/>
     <mergeCell ref="R104:S104"/>
     <mergeCell ref="T104:U104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="R105:S105"/>
-    <mergeCell ref="T105:U105"/>
-    <mergeCell ref="P106:U106"/>
-    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="T73:U73"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31403,18 +31400,18 @@
       <c r="A2" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="100" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101" t="s">
+      <c r="C2" s="100"/>
+      <c r="D2" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101" t="s">
+      <c r="E2" s="100"/>
+      <c r="F2" s="100" t="s">
         <v>196</v>
       </c>
-      <c r="G2" s="101"/>
+      <c r="G2" s="100"/>
       <c r="J2" s="8" t="s">
         <v>62</v>
       </c>
@@ -39046,18 +39043,18 @@
       <c r="A32" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="95" t="s">
+      <c r="B32" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95" t="s">
+      <c r="C32" s="96"/>
+      <c r="D32" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95" t="s">
+      <c r="E32" s="96"/>
+      <c r="F32" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="G32" s="95"/>
+      <c r="G32" s="96"/>
       <c r="J32" s="27">
         <v>2013</v>
       </c>
@@ -39213,18 +39210,18 @@
       <c r="A33" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="C33" s="98"/>
-      <c r="D33" s="95" t="s">
+      <c r="C33" s="97"/>
+      <c r="D33" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95" t="s">
+      <c r="E33" s="96"/>
+      <c r="F33" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="G33" s="95"/>
+      <c r="G33" s="96"/>
       <c r="J33" s="27">
         <v>2014</v>
       </c>
@@ -39380,18 +39377,18 @@
       <c r="A34" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="B34" s="95" t="s">
+      <c r="B34" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95" t="s">
+      <c r="C34" s="96"/>
+      <c r="D34" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95" t="s">
+      <c r="E34" s="96"/>
+      <c r="F34" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="G34" s="95"/>
+      <c r="G34" s="96"/>
       <c r="J34" s="27">
         <v>2015</v>
       </c>
@@ -39533,14 +39530,14 @@
       <c r="A35" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="B35" s="96" t="s">
+      <c r="B35" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
       <c r="H35" s="47"/>
       <c r="J35" s="27" t="s">
         <v>80</v>
@@ -39683,10 +39680,10 @@
       <c r="A36" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="97">
+      <c r="B36" s="99">
         <v>0.252</v>
       </c>
-      <c r="C36" s="97"/>
+      <c r="C36" s="99"/>
       <c r="D36" s="59"/>
       <c r="E36" s="59"/>
       <c r="F36" s="59"/>
@@ -46623,12 +46620,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B33:C33"/>
@@ -46637,6 +46628,12 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46649,8 +46646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E8:V110"/>
   <sheetViews>
-    <sheetView topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10:V110"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -46660,25 +46657,25 @@
       <c r="E9" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="F9" s="107" t="s">
+      <c r="F9" s="101" t="s">
         <v>340</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="102" t="s">
+      <c r="G9" s="101"/>
+      <c r="H9" s="104" t="s">
         <v>341</v>
       </c>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102" t="s">
+      <c r="I9" s="104"/>
+      <c r="J9" s="104" t="s">
         <v>342</v>
       </c>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102" t="s">
+      <c r="K9" s="104"/>
+      <c r="L9" s="104" t="s">
         <v>343</v>
       </c>
-      <c r="M9" s="102"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
+      <c r="M9" s="104"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
       <c r="R9" s="65"/>
     </row>
     <row r="10" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -46688,48 +46685,48 @@
       <c r="F10" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="69">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="H10" s="81" t="s">
+      <c r="G10" s="19">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H10" s="80" t="s">
         <v>352</v>
       </c>
-      <c r="I10" s="73">
+      <c r="I10" s="72">
         <v>2.3E-2</v>
       </c>
-      <c r="J10" s="79" t="s">
+      <c r="J10" s="78" t="s">
         <v>350</v>
       </c>
-      <c r="K10" s="76">
+      <c r="K10" s="75">
         <v>2.3E-2</v>
       </c>
-      <c r="L10" s="72" t="s">
+      <c r="L10" s="71" t="s">
         <v>348</v>
       </c>
-      <c r="M10" s="76">
+      <c r="M10" s="75">
         <v>0.14299999999999999</v>
       </c>
-      <c r="N10" s="72" t="e">
+      <c r="N10" s="71" t="e">
         <f>ROUND(H10,3)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O10" s="72">
+      <c r="O10" s="71">
         <f>ROUND(I10,3)</f>
         <v>2.3E-2</v>
       </c>
-      <c r="P10" s="72" t="e">
+      <c r="P10" s="71" t="e">
         <f t="shared" ref="P10:S10" si="0">ROUND(J10,3)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q10" s="72">
+      <c r="Q10" s="71">
         <f t="shared" si="0"/>
         <v>2.3E-2</v>
       </c>
-      <c r="R10" s="72" t="e">
+      <c r="R10" s="71" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S10" s="72">
+      <c r="S10" s="71">
         <f t="shared" si="0"/>
         <v>0.14299999999999999</v>
       </c>
@@ -46748,30 +46745,27 @@
       <c r="F11" s="55">
         <v>1E-3</v>
       </c>
-      <c r="G11" s="69">
-        <v>-2E-3</v>
-      </c>
-      <c r="N11" s="72" t="e">
+      <c r="N11" s="71" t="e">
         <f t="shared" ref="N11:S11" si="1">ROUND(H12,3)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O11" s="72">
+      <c r="O11" s="71">
         <f t="shared" si="1"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="P11" s="72" t="e">
+      <c r="P11" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Q11" s="72">
+      <c r="Q11" s="71">
         <f t="shared" si="1"/>
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="R11" s="72" t="e">
+      <c r="R11" s="71" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="S11" s="72">
+      <c r="S11" s="71">
         <f t="shared" si="1"/>
         <v>5.5E-2</v>
       </c>
@@ -46788,30 +46782,32 @@
         <v>334</v>
       </c>
       <c r="F12" s="55"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="81" t="s">
+      <c r="G12" s="19">
+        <v>2E-3</v>
+      </c>
+      <c r="H12" s="80" t="s">
         <v>353</v>
       </c>
-      <c r="I12" s="74">
+      <c r="I12" s="73">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="J12" s="80" t="s">
+      <c r="J12" s="79" t="s">
         <v>351</v>
       </c>
-      <c r="K12" s="77">
+      <c r="K12" s="76">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="L12" s="78" t="s">
+      <c r="L12" s="77" t="s">
         <v>349</v>
       </c>
-      <c r="M12" s="77">
+      <c r="M12" s="76">
         <v>5.5E-2</v>
       </c>
-      <c r="N12" s="75"/>
+      <c r="N12" s="74"/>
       <c r="O12" s="67"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="103"/>
       <c r="U12">
         <v>3</v>
       </c>
@@ -46827,20 +46823,20 @@
       <c r="F13" s="55">
         <v>-8.2000000000000003E-2</v>
       </c>
-      <c r="G13" s="69">
-        <v>-7.0999999999999994E-2</v>
+      <c r="G13" s="19">
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="H13" s="66"/>
       <c r="I13" s="64"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
       <c r="L13" s="64"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
       <c r="O13" s="64"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
       <c r="U13">
         <v>4</v>
       </c>
@@ -46856,20 +46852,20 @@
       <c r="F14" s="55">
         <v>-0.12</v>
       </c>
-      <c r="G14" s="69">
-        <v>-9.5000000000000001E-2</v>
+      <c r="G14" s="19">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="H14" s="66"/>
       <c r="I14" s="64"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
       <c r="L14" s="64"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
       <c r="O14" s="64"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
       <c r="U14">
         <v>5</v>
       </c>
@@ -46885,20 +46881,20 @@
       <c r="F15" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="G15" s="69">
-        <v>-0.01</v>
+      <c r="G15" s="19">
+        <v>0.01</v>
       </c>
       <c r="H15" s="66"/>
       <c r="I15" s="64"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
       <c r="L15" s="64"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
       <c r="O15" s="64"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
       <c r="U15">
         <v>6</v>
       </c>
@@ -46914,20 +46910,20 @@
       <c r="F16" s="55">
         <v>0.109</v>
       </c>
-      <c r="G16" s="69">
-        <v>-0.183</v>
+      <c r="G16" s="19">
+        <v>0.183</v>
       </c>
       <c r="H16" s="66"/>
       <c r="I16" s="64"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
       <c r="L16" s="64"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
       <c r="O16" s="64"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
+      <c r="P16" s="102"/>
+      <c r="Q16" s="102"/>
+      <c r="R16" s="102"/>
       <c r="U16">
         <v>7</v>
       </c>
@@ -46943,20 +46939,20 @@
       <c r="F17" s="55">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G17" s="69">
-        <v>-5.0000000000000001E-3</v>
+      <c r="G17" s="19">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H17" s="66"/>
       <c r="I17" s="64"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
       <c r="L17" s="64"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
       <c r="O17" s="64"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="104"/>
-      <c r="R17" s="104"/>
+      <c r="P17" s="102"/>
+      <c r="Q17" s="102"/>
+      <c r="R17" s="102"/>
       <c r="U17">
         <v>8</v>
       </c>
@@ -46972,20 +46968,20 @@
       <c r="F18" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="G18" s="69">
-        <v>-7.0000000000000001E-3</v>
+      <c r="G18" s="19">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H18" s="66"/>
       <c r="I18" s="64"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
       <c r="L18" s="64"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
       <c r="O18" s="64"/>
-      <c r="P18" s="104"/>
-      <c r="Q18" s="104"/>
-      <c r="R18" s="104"/>
+      <c r="P18" s="102"/>
+      <c r="Q18" s="102"/>
+      <c r="R18" s="102"/>
       <c r="U18">
         <v>9</v>
       </c>
@@ -47001,20 +46997,20 @@
       <c r="F19" s="55" t="s">
         <v>162</v>
       </c>
-      <c r="G19" s="69">
+      <c r="G19" s="19">
         <v>0</v>
       </c>
       <c r="H19" s="66"/>
       <c r="I19" s="64"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
       <c r="L19" s="64"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
       <c r="O19" s="64"/>
-      <c r="P19" s="104"/>
-      <c r="Q19" s="104"/>
-      <c r="R19" s="104"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
       <c r="U19">
         <v>10</v>
       </c>
@@ -47030,20 +47026,20 @@
       <c r="F20" s="55">
         <v>-2.3E-2</v>
       </c>
-      <c r="G20" s="69">
-        <v>-0.02</v>
+      <c r="G20" s="19">
+        <v>0.02</v>
       </c>
       <c r="H20" s="66"/>
       <c r="I20" s="64"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
       <c r="L20" s="64"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
       <c r="O20" s="64"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="104"/>
+      <c r="P20" s="102"/>
+      <c r="Q20" s="102"/>
+      <c r="R20" s="102"/>
       <c r="U20">
         <v>11</v>
       </c>
@@ -47059,20 +47055,20 @@
       <c r="F21" s="55">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="G21" s="69">
-        <v>-1.0999999999999999E-2</v>
+      <c r="G21" s="19">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H21" s="66"/>
       <c r="I21" s="64"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
       <c r="L21" s="64"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
       <c r="O21" s="64"/>
-      <c r="P21" s="104"/>
-      <c r="Q21" s="104"/>
-      <c r="R21" s="104"/>
+      <c r="P21" s="102"/>
+      <c r="Q21" s="102"/>
+      <c r="R21" s="102"/>
       <c r="U21">
         <v>12</v>
       </c>
@@ -47088,20 +47084,20 @@
       <c r="F22" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="G22" s="69">
-        <v>-1E-3</v>
+      <c r="G22" s="19">
+        <v>1E-3</v>
       </c>
       <c r="H22" s="66"/>
       <c r="I22" s="64"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
       <c r="L22" s="64"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
       <c r="O22" s="64"/>
-      <c r="P22" s="104"/>
-      <c r="Q22" s="104"/>
-      <c r="R22" s="104"/>
+      <c r="P22" s="102"/>
+      <c r="Q22" s="102"/>
+      <c r="R22" s="102"/>
       <c r="U22">
         <v>13</v>
       </c>
@@ -47117,20 +47113,20 @@
       <c r="F23" s="55">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="G23" s="69">
-        <v>-1.2E-2</v>
+      <c r="G23" s="19">
+        <v>1.2E-2</v>
       </c>
       <c r="H23" s="66"/>
       <c r="I23" s="64"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
       <c r="L23" s="64"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
       <c r="O23" s="64"/>
-      <c r="P23" s="104"/>
-      <c r="Q23" s="104"/>
-      <c r="R23" s="104"/>
+      <c r="P23" s="102"/>
+      <c r="Q23" s="102"/>
+      <c r="R23" s="102"/>
       <c r="U23">
         <v>14</v>
       </c>
@@ -47146,20 +47142,20 @@
       <c r="F24" s="55">
         <v>1E-3</v>
       </c>
-      <c r="G24" s="69">
-        <v>-1E-3</v>
+      <c r="G24" s="19">
+        <v>1E-3</v>
       </c>
       <c r="H24" s="66"/>
       <c r="I24" s="64"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
       <c r="L24" s="64"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
       <c r="O24" s="64"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="104"/>
+      <c r="P24" s="102"/>
+      <c r="Q24" s="102"/>
+      <c r="R24" s="102"/>
       <c r="U24">
         <v>15</v>
       </c>
@@ -47175,20 +47171,20 @@
       <c r="F25" s="55">
         <v>1.9E-2</v>
       </c>
-      <c r="G25" s="69">
-        <v>-1.6E-2</v>
+      <c r="G25" s="19">
+        <v>1.6E-2</v>
       </c>
       <c r="H25" s="66"/>
       <c r="I25" s="64"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
       <c r="L25" s="64"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
       <c r="O25" s="64"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="104"/>
+      <c r="P25" s="102"/>
+      <c r="Q25" s="102"/>
+      <c r="R25" s="102"/>
       <c r="U25">
         <v>16</v>
       </c>
@@ -47204,20 +47200,20 @@
       <c r="F26" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="G26" s="69">
-        <v>-2E-3</v>
+      <c r="G26" s="19">
+        <v>2E-3</v>
       </c>
       <c r="H26" s="66"/>
       <c r="I26" s="64"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
       <c r="L26" s="64"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
       <c r="O26" s="64"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="104"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
       <c r="U26">
         <v>17</v>
       </c>
@@ -47233,20 +47229,20 @@
       <c r="F27" s="55">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G27" s="69">
-        <v>-1.2E-2</v>
+      <c r="G27" s="19">
+        <v>1.2E-2</v>
       </c>
       <c r="H27" s="66"/>
       <c r="I27" s="64"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
       <c r="L27" s="64"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
       <c r="O27" s="64"/>
-      <c r="P27" s="104"/>
-      <c r="Q27" s="104"/>
-      <c r="R27" s="104"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="102"/>
       <c r="U27">
         <v>18</v>
       </c>
@@ -47262,20 +47258,20 @@
       <c r="F28" s="55">
         <v>0</v>
       </c>
-      <c r="G28" s="69">
+      <c r="G28" s="19">
         <v>0</v>
       </c>
       <c r="H28" s="66"/>
       <c r="I28" s="64"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
       <c r="L28" s="64"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
       <c r="O28" s="64"/>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="104"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="102"/>
       <c r="U28">
         <v>19</v>
       </c>
@@ -47291,20 +47287,20 @@
       <c r="F29" s="55">
         <v>-2E-3</v>
       </c>
-      <c r="G29" s="69">
-        <v>-2E-3</v>
+      <c r="G29" s="19">
+        <v>2E-3</v>
       </c>
       <c r="H29" s="66"/>
       <c r="I29" s="64"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
       <c r="L29" s="64"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
       <c r="O29" s="64"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
+      <c r="P29" s="102"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="102"/>
       <c r="U29">
         <v>20</v>
       </c>
@@ -47320,20 +47316,20 @@
       <c r="F30" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="G30" s="69">
-        <v>-1.2E-2</v>
+      <c r="G30" s="19">
+        <v>1.2E-2</v>
       </c>
       <c r="H30" s="66"/>
       <c r="I30" s="64"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
       <c r="L30" s="64"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
       <c r="O30" s="64"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
+      <c r="P30" s="102"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="102"/>
       <c r="U30">
         <v>21</v>
       </c>
@@ -47349,20 +47345,20 @@
       <c r="F31" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="G31" s="69">
-        <v>-5.0000000000000001E-3</v>
+      <c r="G31" s="19">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H31" s="66"/>
       <c r="I31" s="64"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
       <c r="L31" s="64"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
       <c r="O31" s="64"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
+      <c r="P31" s="102"/>
+      <c r="Q31" s="102"/>
+      <c r="R31" s="102"/>
       <c r="U31">
         <v>22</v>
       </c>
@@ -47378,20 +47374,20 @@
       <c r="F32" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="G32" s="69">
-        <v>-7.0000000000000001E-3</v>
+      <c r="G32" s="19">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H32" s="66"/>
       <c r="I32" s="64"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
       <c r="L32" s="64"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
       <c r="O32" s="64"/>
-      <c r="P32" s="104"/>
-      <c r="Q32" s="104"/>
-      <c r="R32" s="104"/>
+      <c r="P32" s="102"/>
+      <c r="Q32" s="102"/>
+      <c r="R32" s="102"/>
       <c r="U32">
         <v>23</v>
       </c>
@@ -47407,20 +47403,20 @@
       <c r="F33" s="55">
         <v>-8.9999999999999993E-3</v>
       </c>
-      <c r="G33" s="69">
-        <v>-6.0000000000000001E-3</v>
+      <c r="G33" s="19">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H33" s="66"/>
       <c r="I33" s="64"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
       <c r="L33" s="64"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
       <c r="O33" s="64"/>
-      <c r="P33" s="104"/>
-      <c r="Q33" s="104"/>
-      <c r="R33" s="104"/>
+      <c r="P33" s="102"/>
+      <c r="Q33" s="102"/>
+      <c r="R33" s="102"/>
       <c r="U33">
         <v>24</v>
       </c>
@@ -47436,20 +47432,20 @@
       <c r="F34" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="G34" s="69">
-        <v>-2E-3</v>
+      <c r="G34" s="19">
+        <v>2E-3</v>
       </c>
       <c r="H34" s="66"/>
       <c r="I34" s="64"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
       <c r="L34" s="64"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
       <c r="O34" s="64"/>
-      <c r="P34" s="104"/>
-      <c r="Q34" s="104"/>
-      <c r="R34" s="104"/>
+      <c r="P34" s="102"/>
+      <c r="Q34" s="102"/>
+      <c r="R34" s="102"/>
       <c r="U34">
         <v>25</v>
       </c>
@@ -47465,20 +47461,20 @@
       <c r="F35" s="55">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="G35" s="69">
-        <v>-8.9999999999999993E-3</v>
+      <c r="G35" s="19">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H35" s="66"/>
       <c r="I35" s="64"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
       <c r="L35" s="64"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
       <c r="O35" s="64"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="104"/>
+      <c r="P35" s="102"/>
+      <c r="Q35" s="102"/>
+      <c r="R35" s="102"/>
       <c r="U35">
         <v>26</v>
       </c>
@@ -47494,20 +47490,20 @@
       <c r="F36" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="G36" s="69">
-        <v>-1.0999999999999999E-2</v>
+      <c r="G36" s="19">
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="H36" s="66"/>
       <c r="I36" s="64"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
       <c r="L36" s="64"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
       <c r="O36" s="64"/>
-      <c r="P36" s="104"/>
-      <c r="Q36" s="104"/>
-      <c r="R36" s="104"/>
+      <c r="P36" s="102"/>
+      <c r="Q36" s="102"/>
+      <c r="R36" s="102"/>
       <c r="U36">
         <v>27</v>
       </c>
@@ -47523,20 +47519,20 @@
       <c r="F37" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="G37" s="69">
-        <v>-1.6E-2</v>
+      <c r="G37" s="19">
+        <v>1.6E-2</v>
       </c>
       <c r="H37" s="66"/>
       <c r="I37" s="64"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
       <c r="L37" s="64"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
       <c r="O37" s="64"/>
-      <c r="P37" s="104"/>
-      <c r="Q37" s="104"/>
-      <c r="R37" s="104"/>
+      <c r="P37" s="102"/>
+      <c r="Q37" s="102"/>
+      <c r="R37" s="102"/>
       <c r="U37">
         <v>28</v>
       </c>
@@ -47552,20 +47548,20 @@
       <c r="F38" s="55">
         <v>-1E-3</v>
       </c>
-      <c r="G38" s="69">
-        <v>-1E-3</v>
+      <c r="G38" s="19">
+        <v>1E-3</v>
       </c>
       <c r="H38" s="66"/>
       <c r="I38" s="64"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
       <c r="L38" s="64"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
       <c r="O38" s="64"/>
-      <c r="P38" s="104"/>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="104"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="102"/>
       <c r="U38">
         <v>29</v>
       </c>
@@ -47581,20 +47577,20 @@
       <c r="F39" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="G39" s="69">
-        <v>-0.49299999999999999</v>
+      <c r="G39" s="19">
+        <v>0.49299999999999999</v>
       </c>
       <c r="H39" s="66"/>
       <c r="I39" s="64"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
       <c r="L39" s="64"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
       <c r="O39" s="64"/>
-      <c r="P39" s="104"/>
-      <c r="Q39" s="104"/>
-      <c r="R39" s="104"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
+      <c r="R39" s="102"/>
       <c r="U39">
         <v>30</v>
       </c>
@@ -47607,21 +47603,21 @@
       <c r="E40" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="F40" s="103" t="s">
+      <c r="F40" s="105" t="s">
         <v>246</v>
       </c>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="103"/>
-      <c r="L40" s="103"/>
-      <c r="M40" s="103"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="105"/>
-      <c r="R40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="81"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="106"/>
+      <c r="R40" s="106"/>
       <c r="U40">
         <v>31</v>
       </c>
@@ -48262,40 +48258,40 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P18:R18"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="P15:R15"/>
     <mergeCell ref="P16:R16"/>
     <mergeCell ref="P13:R13"/>
     <mergeCell ref="P14:R14"/>
     <mergeCell ref="P12:R12"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="P24:R24"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
-    <mergeCell ref="F40:M40"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P30:R30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/回归结果/double玉米.xlsx
+++ b/回归结果/double玉米.xlsx
@@ -5110,10 +5110,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -5121,8 +5118,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>机械</a:t>
+              <a:rPr lang="zh-CN" altLang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>两熟玉米</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5143,10 +5144,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -5169,7 +5167,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5500,304 +5498,304 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.479053633651614</c:v>
+                  <c:v>0.9455960666106995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7683067831463444</c:v>
+                  <c:v>0.90946500591190305</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.962506557183928</c:v>
+                  <c:v>0.88220372544351155</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1004797335244709</c:v>
+                  <c:v>0.86024834574600451</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.201911646333067</c:v>
+                  <c:v>0.84184400405010951</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2780919601404621</c:v>
+                  <c:v>0.82599087817180372</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3360470269082976</c:v>
+                  <c:v>0.81206294024049308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3804141209349385</c:v>
+                  <c:v>0.799641252075868</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.4143925619202804</c:v>
+                  <c:v>0.78843121223402735</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.4402677426208377</c:v>
+                  <c:v>0.77821753281990902</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.459718656780705</c:v>
+                  <c:v>0.76883797533480436</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4740076559552318</c:v>
+                  <c:v>0.76016716399061413</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.4841024256656952</c:v>
+                  <c:v>0.75210615558850658</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.4907571076266803</c:v>
+                  <c:v>0.74457546641616834</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.4945678286649038</c:v>
+                  <c:v>0.73751026339536663</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4960116621852602</c:v>
+                  <c:v>0.73085695865894129</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4954745580838598</c:v>
+                  <c:v>0.72457074205912653</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.4932717446611923</c:v>
+                  <c:v>0.71861375712032827</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.489662881366729</c:v>
+                  <c:v>0.71295372864149864</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.4848634807526517</c:v>
+                  <c:v>0.70756291380547331</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.4790536331997388</c:v>
+                  <c:v>0.70241728922285718</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.4723847515480095</c:v>
+                  <c:v>0.6974959128446464</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.464984841845836</c:v>
+                  <c:v>0.69278041738340346</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4569626631518502</c:v>
+                  <c:v>0.68825460394738025</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.4484110403070796</c:v>
+                  <c:v>0.6839041129620842</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.4394095240884552</c:v>
+                  <c:v>0.67971615535654517</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.4300265436613921</c:v>
+                  <c:v>0.67567929121692782</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.4203211605406807</c:v>
+                  <c:v>0.67178324617654306</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.4103445071925731</c:v>
+                  <c:v>0.66801875806483613</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.4001409741543496</c:v>
+                  <c:v>0.66437744801347376</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.3897491951791041</c:v>
+                  <c:v>0.66085171147694555</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.3792028690882092</c:v>
+                  <c:v>0.65743462558107779</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.3685314487846214</c:v>
+                  <c:v>0.65411986994539106</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.3577607215713945</c:v>
+                  <c:v>0.65090165869145278</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.3469133000452023</c:v>
+                  <c:v>0.64777468179062647</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.3360090390401891</c:v>
+                  <c:v>0.64473405425112984</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.325065391123315</c:v>
+                  <c:v>0.64177527191837569</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.3140977107956626</c:v>
+                  <c:v>0.63889417288082018</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.3031195156913031</c:v>
+                  <c:v>0.63608690364844567</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.292142711577644</c:v>
+                  <c:v>0.63334988941203196</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.2811777867666705</c:v>
+                  <c:v>0.63067980780572153</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.2702339805823004</c:v>
+                  <c:v>0.62807356568861983</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.2593194297468226</c:v>
+                  <c:v>0.6255282785375782</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.2484412959118751</c:v>
+                  <c:v>0.62304125210622219</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.2376058770373763</c:v>
+                  <c:v>0.62060996605735319</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.2268187048925565</c:v>
+                  <c:v>0.61823205931910763</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.2160846305988446</c:v>
+                  <c:v>0.61590531695136319</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.2054078998405036</c:v>
+                  <c:v>0.61362765833913613</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.1947922191245435</c:v>
+                  <c:v>0.6113971265551571</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.1842408142672181</c:v>
+                  <c:v>0.60921187875530347</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.1737564821134798</c:v>
+                  <c:v>0.60707017748876246</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.1633416363518871</c:v>
+                  <c:v>0.60497038282028293</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.1529983481662791</c:v>
+                  <c:v>0.60291094517506549</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.1427283823629129</c:v>
+                  <c:v>0.60089039882814221</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.1325332295247668</c:v>
+                  <c:v>0.59890735596978162</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.12241413467068</c:v>
+                  <c:v>0.59696050128680211</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.112372122833841</c:v>
+                  <c:v>0.59504858700687202</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.1024080219201577</c:v>
+                  <c:v>0.59317042835910583</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.0925224831606699</c:v>
+                  <c:v>0.59132489940967348</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.0827159994324638</c:v>
+                  <c:v>0.58951092923583448</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.0729889216881596</c:v>
+                  <c:v>0.58772749840591798</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.063341473704511</c:v>
+                  <c:v>0.58597363573633954</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.0537737653349999</c:v>
+                  <c:v>0.58424841529989457</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.0442858044291197</c:v>
+                  <c:v>0.58255095366231369</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.0348775075617378</c:v>
+                  <c:v>0.58088040732649304</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.0255487096991001</c:v>
+                  <c:v>0.57923597036594543</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.0162991729134325</c:v>
+                  <c:v>0.57761687223090397</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.0071285942452466</c:v>
+                  <c:v>0.57602237571218029</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.9980366128012672</c:v>
+                  <c:v>0.57445177504935585</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.9890228161660786</c:v>
+                  <c:v>0.57290439417120087</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.9800867461969076</c:v>
+                  <c:v>0.57137958505738362</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.9712279042634364</c:v>
+                  <c:v>0.56987672621157226</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.962445755987767</c:v>
+                  <c:v>0.56839522123696451</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.953739735533826</c:v>
+                  <c:v>0.56693449750610792</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.945109249490204</c:v>
+                  <c:v>0.56549400491762003</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.9365536803858774</c:v>
+                  <c:v>0.56407321473308558</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.9280723898740957</c:v>
+                  <c:v>0.56267161848800384</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.9196647216161389</c:v>
+                  <c:v>0.56128872697120202</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.9113300038933767</c:v>
+                  <c:v>0.55992406926761418</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.9030675519732254</c:v>
+                  <c:v>0.5585771918597644</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.8948766702519992</c:v>
+                  <c:v>0.55724765778368524</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.8867566541953926</c:v>
+                  <c:v>0.55593504583536379</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8787067920952993</c:v>
+                  <c:v>0.55463894982412998</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.8707263666598035</c:v>
+                  <c:v>0.55335897786969257</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.8628146564516233</c:v>
+                  <c:v>0.55209475173980072</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.8549709371887289</c:v>
+                  <c:v>0.55084590622574237</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.8471944829196378</c:v>
+                  <c:v>0.54961208855312049</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.8394845670846538</c:v>
+                  <c:v>0.54839295782553921</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.8318404634732508</c:v>
+                  <c:v>0.54718818449902173</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.8242614470869338</c:v>
+                  <c:v>0.54599744988514609</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.8167467949159151</c:v>
+                  <c:v>0.5448204456810346</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.8092957866373058</c:v>
+                  <c:v>0.54365687352447745</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.8019077052417427</c:v>
+                  <c:v>0.54250644457259356</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.7945818375947611</c:v>
+                  <c:v>0.54136887910255127</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.7873174749386658</c:v>
+                  <c:v>0.54024390613297824</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.7801139133401387</c:v>
+                  <c:v>0.5391312630647872</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.7729704540883231</c:v>
+                  <c:v>0.53803069534023629</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.7658864040477633</c:v>
+                  <c:v>0.53694195611912421</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.7588610759701155</c:v>
+                  <c:v>0.53586480597109776</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.7518937887683017</c:v>
+                  <c:v>0.53479901258312035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5827,20 +5825,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5849,10 +5833,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -5865,12 +5846,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -5889,20 +5867,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5911,10 +5875,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -5926,12 +5887,7 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
+                <a:noFill/>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -5947,7 +5903,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -5957,16 +5915,9 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:noFill/>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -8017,16 +7968,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8047,16 +7998,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>298339</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>31481</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>403114</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>183881</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8073,7 +8024,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6686550" y="2105025"/>
+          <a:off x="2676525" y="2828925"/>
           <a:ext cx="4584589" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8085,16 +8036,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>679339</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>183881</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>612664</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>31481</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8111,7 +8062,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8439150" y="3019425"/>
+          <a:off x="7686675" y="3438525"/>
           <a:ext cx="4584589" cy="2755631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -46646,8 +46597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E8:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:F39"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10:V110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -46734,7 +46685,7 @@
         <v>1</v>
       </c>
       <c r="V10">
-        <f>EXP(0.643*LN(U10)-0.113*(LN(U10))^2)</f>
+        <f>EXP(-0.071*LN(U10)-0.014*(LN(U10))^2)</f>
         <v>1</v>
       </c>
     </row>
@@ -46745,6 +46696,9 @@
       <c r="F11" s="55">
         <v>1E-3</v>
       </c>
+      <c r="G11" s="19">
+        <v>2E-3</v>
+      </c>
       <c r="N11" s="71" t="e">
         <f t="shared" ref="N11:S11" si="1">ROUND(H12,3)</f>
         <v>#VALUE!</v>
@@ -46773,8 +46727,8 @@
         <v>2</v>
       </c>
       <c r="V11">
-        <f t="shared" ref="V11:V74" si="2">EXP(0.643*LN(U11)-0.113*(LN(U11))^2)</f>
-        <v>1.479053633651614</v>
+        <f t="shared" ref="V11:V74" si="2">EXP(-0.071*LN(U11)-0.014*(LN(U11))^2)</f>
+        <v>0.9455960666106995</v>
       </c>
     </row>
     <row r="12" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -46782,9 +46736,6 @@
         <v>334</v>
       </c>
       <c r="F12" s="55"/>
-      <c r="G12" s="19">
-        <v>2E-3</v>
-      </c>
       <c r="H12" s="80" t="s">
         <v>353</v>
       </c>
@@ -46813,7 +46764,7 @@
       </c>
       <c r="V12">
         <f t="shared" si="2"/>
-        <v>1.7683067831463444</v>
+        <v>0.90946500591190305</v>
       </c>
     </row>
     <row r="13" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -46842,7 +46793,7 @@
       </c>
       <c r="V13">
         <f t="shared" si="2"/>
-        <v>1.962506557183928</v>
+        <v>0.88220372544351155</v>
       </c>
     </row>
     <row r="14" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -46871,7 +46822,7 @@
       </c>
       <c r="V14">
         <f t="shared" si="2"/>
-        <v>2.1004797335244709</v>
+        <v>0.86024834574600451</v>
       </c>
     </row>
     <row r="15" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -46900,7 +46851,7 @@
       </c>
       <c r="V15">
         <f t="shared" si="2"/>
-        <v>2.201911646333067</v>
+        <v>0.84184400405010951</v>
       </c>
     </row>
     <row r="16" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -46929,7 +46880,7 @@
       </c>
       <c r="V16">
         <f t="shared" si="2"/>
-        <v>2.2780919601404621</v>
+        <v>0.82599087817180372</v>
       </c>
     </row>
     <row r="17" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -46958,7 +46909,7 @@
       </c>
       <c r="V17">
         <f t="shared" si="2"/>
-        <v>2.3360470269082976</v>
+        <v>0.81206294024049308</v>
       </c>
     </row>
     <row r="18" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -46987,7 +46938,7 @@
       </c>
       <c r="V18">
         <f t="shared" si="2"/>
-        <v>2.3804141209349385</v>
+        <v>0.799641252075868</v>
       </c>
     </row>
     <row r="19" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47016,7 +46967,7 @@
       </c>
       <c r="V19">
         <f t="shared" si="2"/>
-        <v>2.4143925619202804</v>
+        <v>0.78843121223402735</v>
       </c>
     </row>
     <row r="20" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47045,7 +46996,7 @@
       </c>
       <c r="V20">
         <f t="shared" si="2"/>
-        <v>2.4402677426208377</v>
+        <v>0.77821753281990902</v>
       </c>
     </row>
     <row r="21" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47074,7 +47025,7 @@
       </c>
       <c r="V21">
         <f t="shared" si="2"/>
-        <v>2.459718656780705</v>
+        <v>0.76883797533480436</v>
       </c>
     </row>
     <row r="22" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47103,7 +47054,7 @@
       </c>
       <c r="V22">
         <f t="shared" si="2"/>
-        <v>2.4740076559552318</v>
+        <v>0.76016716399061413</v>
       </c>
     </row>
     <row r="23" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47132,7 +47083,7 @@
       </c>
       <c r="V23">
         <f t="shared" si="2"/>
-        <v>2.4841024256656952</v>
+        <v>0.75210615558850658</v>
       </c>
     </row>
     <row r="24" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47161,7 +47112,7 @@
       </c>
       <c r="V24">
         <f t="shared" si="2"/>
-        <v>2.4907571076266803</v>
+        <v>0.74457546641616834</v>
       </c>
     </row>
     <row r="25" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47190,7 +47141,7 @@
       </c>
       <c r="V25">
         <f t="shared" si="2"/>
-        <v>2.4945678286649038</v>
+        <v>0.73751026339536663</v>
       </c>
     </row>
     <row r="26" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47219,7 +47170,7 @@
       </c>
       <c r="V26">
         <f t="shared" si="2"/>
-        <v>2.4960116621852602</v>
+        <v>0.73085695865894129</v>
       </c>
     </row>
     <row r="27" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47248,7 +47199,7 @@
       </c>
       <c r="V27">
         <f t="shared" si="2"/>
-        <v>2.4954745580838598</v>
+        <v>0.72457074205912653</v>
       </c>
     </row>
     <row r="28" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47277,7 +47228,7 @@
       </c>
       <c r="V28">
         <f t="shared" si="2"/>
-        <v>2.4932717446611923</v>
+        <v>0.71861375712032827</v>
       </c>
     </row>
     <row r="29" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47306,7 +47257,7 @@
       </c>
       <c r="V29">
         <f t="shared" si="2"/>
-        <v>2.489662881366729</v>
+        <v>0.71295372864149864</v>
       </c>
     </row>
     <row r="30" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47335,7 +47286,7 @@
       </c>
       <c r="V30">
         <f t="shared" si="2"/>
-        <v>2.4848634807526517</v>
+        <v>0.70756291380547331</v>
       </c>
     </row>
     <row r="31" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47364,7 +47315,7 @@
       </c>
       <c r="V31">
         <f t="shared" si="2"/>
-        <v>2.4790536331997388</v>
+        <v>0.70241728922285718</v>
       </c>
     </row>
     <row r="32" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47393,7 +47344,7 @@
       </c>
       <c r="V32">
         <f t="shared" si="2"/>
-        <v>2.4723847515480095</v>
+        <v>0.6974959128446464</v>
       </c>
     </row>
     <row r="33" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47422,7 +47373,7 @@
       </c>
       <c r="V33">
         <f t="shared" si="2"/>
-        <v>2.464984841845836</v>
+        <v>0.69278041738340346</v>
       </c>
     </row>
     <row r="34" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47451,7 +47402,7 @@
       </c>
       <c r="V34">
         <f t="shared" si="2"/>
-        <v>2.4569626631518502</v>
+        <v>0.68825460394738025</v>
       </c>
     </row>
     <row r="35" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47480,7 +47431,7 @@
       </c>
       <c r="V35">
         <f t="shared" si="2"/>
-        <v>2.4484110403070796</v>
+        <v>0.6839041129620842</v>
       </c>
     </row>
     <row r="36" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47509,7 +47460,7 @@
       </c>
       <c r="V36">
         <f t="shared" si="2"/>
-        <v>2.4394095240884552</v>
+        <v>0.67971615535654517</v>
       </c>
     </row>
     <row r="37" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47538,7 +47489,7 @@
       </c>
       <c r="V37">
         <f t="shared" si="2"/>
-        <v>2.4300265436613921</v>
+        <v>0.67567929121692782</v>
       </c>
     </row>
     <row r="38" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47567,7 +47518,7 @@
       </c>
       <c r="V38">
         <f t="shared" si="2"/>
-        <v>2.4203211605406807</v>
+        <v>0.67178324617654306</v>
       </c>
     </row>
     <row r="39" spans="5:22" ht="15" x14ac:dyDescent="0.15">
@@ -47596,7 +47547,7 @@
       </c>
       <c r="V39">
         <f t="shared" si="2"/>
-        <v>2.4103445071925731</v>
+        <v>0.66801875806483613</v>
       </c>
     </row>
     <row r="40" spans="5:22" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -47623,7 +47574,7 @@
       </c>
       <c r="V40">
         <f t="shared" si="2"/>
-        <v>2.4001409741543496</v>
+        <v>0.66437744801347376</v>
       </c>
     </row>
     <row r="41" spans="5:22" x14ac:dyDescent="0.15">
@@ -47632,7 +47583,7 @@
       </c>
       <c r="V41">
         <f t="shared" si="2"/>
-        <v>2.3897491951791041</v>
+        <v>0.66085171147694555</v>
       </c>
     </row>
     <row r="42" spans="5:22" x14ac:dyDescent="0.15">
@@ -47641,7 +47592,7 @@
       </c>
       <c r="V42">
         <f t="shared" si="2"/>
-        <v>2.3792028690882092</v>
+        <v>0.65743462558107779</v>
       </c>
     </row>
     <row r="43" spans="5:22" x14ac:dyDescent="0.15">
@@ -47650,7 +47601,7 @@
       </c>
       <c r="V43">
         <f t="shared" si="2"/>
-        <v>2.3685314487846214</v>
+        <v>0.65411986994539106</v>
       </c>
     </row>
     <row r="44" spans="5:22" x14ac:dyDescent="0.15">
@@ -47659,7 +47610,7 @@
       </c>
       <c r="V44">
         <f t="shared" si="2"/>
-        <v>2.3577607215713945</v>
+        <v>0.65090165869145278</v>
       </c>
     </row>
     <row r="45" spans="5:22" x14ac:dyDescent="0.15">
@@ -47668,7 +47619,7 @@
       </c>
       <c r="V45">
         <f t="shared" si="2"/>
-        <v>2.3469133000452023</v>
+        <v>0.64777468179062647</v>
       </c>
     </row>
     <row r="46" spans="5:22" x14ac:dyDescent="0.15">
@@ -47677,7 +47628,7 @@
       </c>
       <c r="V46">
         <f t="shared" si="2"/>
-        <v>2.3360090390401891</v>
+        <v>0.64473405425112984</v>
       </c>
     </row>
     <row r="47" spans="5:22" x14ac:dyDescent="0.15">
@@ -47686,7 +47637,7 @@
       </c>
       <c r="V47">
         <f t="shared" si="2"/>
-        <v>2.325065391123315</v>
+        <v>0.64177527191837569</v>
       </c>
     </row>
     <row r="48" spans="5:22" x14ac:dyDescent="0.15">
@@ -47695,7 +47646,7 @@
       </c>
       <c r="V48">
         <f t="shared" si="2"/>
-        <v>2.3140977107956626</v>
+        <v>0.63889417288082018</v>
       </c>
     </row>
     <row r="49" spans="21:22" x14ac:dyDescent="0.15">
@@ -47704,7 +47655,7 @@
       </c>
       <c r="V49">
         <f t="shared" si="2"/>
-        <v>2.3031195156913031</v>
+        <v>0.63608690364844567</v>
       </c>
     </row>
     <row r="50" spans="21:22" x14ac:dyDescent="0.15">
@@ -47713,7 +47664,7 @@
       </c>
       <c r="V50">
         <f t="shared" si="2"/>
-        <v>2.292142711577644</v>
+        <v>0.63334988941203196</v>
       </c>
     </row>
     <row r="51" spans="21:22" x14ac:dyDescent="0.15">
@@ -47722,7 +47673,7 @@
       </c>
       <c r="V51">
         <f t="shared" si="2"/>
-        <v>2.2811777867666705</v>
+        <v>0.63067980780572153</v>
       </c>
     </row>
     <row r="52" spans="21:22" x14ac:dyDescent="0.15">
@@ -47731,7 +47682,7 @@
       </c>
       <c r="V52">
         <f t="shared" si="2"/>
-        <v>2.2702339805823004</v>
+        <v>0.62807356568861983</v>
       </c>
     </row>
     <row r="53" spans="21:22" x14ac:dyDescent="0.15">
@@ -47740,7 +47691,7 @@
       </c>
       <c r="V53">
         <f t="shared" si="2"/>
-        <v>2.2593194297468226</v>
+        <v>0.6255282785375782</v>
       </c>
     </row>
     <row r="54" spans="21:22" x14ac:dyDescent="0.15">
@@ -47749,7 +47700,7 @@
       </c>
       <c r="V54">
         <f t="shared" si="2"/>
-        <v>2.2484412959118751</v>
+        <v>0.62304125210622219</v>
       </c>
     </row>
     <row r="55" spans="21:22" x14ac:dyDescent="0.15">
@@ -47758,7 +47709,7 @@
       </c>
       <c r="V55">
         <f t="shared" si="2"/>
-        <v>2.2376058770373763</v>
+        <v>0.62060996605735319</v>
       </c>
     </row>
     <row r="56" spans="21:22" x14ac:dyDescent="0.15">
@@ -47767,7 +47718,7 @@
       </c>
       <c r="V56">
         <f t="shared" si="2"/>
-        <v>2.2268187048925565</v>
+        <v>0.61823205931910763</v>
       </c>
     </row>
     <row r="57" spans="21:22" x14ac:dyDescent="0.15">
@@ -47776,7 +47727,7 @@
       </c>
       <c r="V57">
         <f t="shared" si="2"/>
-        <v>2.2160846305988446</v>
+        <v>0.61590531695136319</v>
       </c>
     </row>
     <row r="58" spans="21:22" x14ac:dyDescent="0.15">
@@ -47785,7 +47736,7 @@
       </c>
       <c r="V58">
         <f t="shared" si="2"/>
-        <v>2.2054078998405036</v>
+        <v>0.61362765833913613</v>
       </c>
     </row>
     <row r="59" spans="21:22" x14ac:dyDescent="0.15">
@@ -47794,7 +47745,7 @@
       </c>
       <c r="V59">
         <f t="shared" si="2"/>
-        <v>2.1947922191245435</v>
+        <v>0.6113971265551571</v>
       </c>
     </row>
     <row r="60" spans="21:22" x14ac:dyDescent="0.15">
@@ -47803,7 +47754,7 @@
       </c>
       <c r="V60">
         <f t="shared" si="2"/>
-        <v>2.1842408142672181</v>
+        <v>0.60921187875530347</v>
       </c>
     </row>
     <row r="61" spans="21:22" x14ac:dyDescent="0.15">
@@ -47812,7 +47763,7 @@
       </c>
       <c r="V61">
         <f t="shared" si="2"/>
-        <v>2.1737564821134798</v>
+        <v>0.60707017748876246</v>
       </c>
     </row>
     <row r="62" spans="21:22" x14ac:dyDescent="0.15">
@@ -47821,7 +47772,7 @@
       </c>
       <c r="V62">
         <f t="shared" si="2"/>
-        <v>2.1633416363518871</v>
+        <v>0.60497038282028293</v>
       </c>
     </row>
     <row r="63" spans="21:22" x14ac:dyDescent="0.15">
@@ -47830,7 +47781,7 @@
       </c>
       <c r="V63">
         <f t="shared" si="2"/>
-        <v>2.1529983481662791</v>
+        <v>0.60291094517506549</v>
       </c>
     </row>
     <row r="64" spans="21:22" x14ac:dyDescent="0.15">
@@ -47839,7 +47790,7 @@
       </c>
       <c r="V64">
         <f t="shared" si="2"/>
-        <v>2.1427283823629129</v>
+        <v>0.60089039882814221</v>
       </c>
     </row>
     <row r="65" spans="21:22" x14ac:dyDescent="0.15">
@@ -47848,7 +47799,7 @@
       </c>
       <c r="V65">
         <f t="shared" si="2"/>
-        <v>2.1325332295247668</v>
+        <v>0.59890735596978162</v>
       </c>
     </row>
     <row r="66" spans="21:22" x14ac:dyDescent="0.15">
@@ -47857,7 +47808,7 @@
       </c>
       <c r="V66">
         <f t="shared" si="2"/>
-        <v>2.12241413467068</v>
+        <v>0.59696050128680211</v>
       </c>
     </row>
     <row r="67" spans="21:22" x14ac:dyDescent="0.15">
@@ -47866,7 +47817,7 @@
       </c>
       <c r="V67">
         <f t="shared" si="2"/>
-        <v>2.112372122833841</v>
+        <v>0.59504858700687202</v>
       </c>
     </row>
     <row r="68" spans="21:22" x14ac:dyDescent="0.15">
@@ -47875,7 +47826,7 @@
       </c>
       <c r="V68">
         <f t="shared" si="2"/>
-        <v>2.1024080219201577</v>
+        <v>0.59317042835910583</v>
       </c>
     </row>
     <row r="69" spans="21:22" x14ac:dyDescent="0.15">
@@ -47884,7 +47835,7 @@
       </c>
       <c r="V69">
         <f t="shared" si="2"/>
-        <v>2.0925224831606699</v>
+        <v>0.59132489940967348</v>
       </c>
     </row>
     <row r="70" spans="21:22" x14ac:dyDescent="0.15">
@@ -47893,7 +47844,7 @@
       </c>
       <c r="V70">
         <f t="shared" si="2"/>
-        <v>2.0827159994324638</v>
+        <v>0.58951092923583448</v>
       </c>
     </row>
     <row r="71" spans="21:22" x14ac:dyDescent="0.15">
@@ -47902,7 +47853,7 @@
       </c>
       <c r="V71">
         <f t="shared" si="2"/>
-        <v>2.0729889216881596</v>
+        <v>0.58772749840591798</v>
       </c>
     </row>
     <row r="72" spans="21:22" x14ac:dyDescent="0.15">
@@ -47911,7 +47862,7 @@
       </c>
       <c r="V72">
         <f t="shared" si="2"/>
-        <v>2.063341473704511</v>
+        <v>0.58597363573633954</v>
       </c>
     </row>
     <row r="73" spans="21:22" x14ac:dyDescent="0.15">
@@ -47920,7 +47871,7 @@
       </c>
       <c r="V73">
         <f t="shared" si="2"/>
-        <v>2.0537737653349999</v>
+        <v>0.58424841529989457</v>
       </c>
     </row>
     <row r="74" spans="21:22" x14ac:dyDescent="0.15">
@@ -47929,7 +47880,7 @@
       </c>
       <c r="V74">
         <f t="shared" si="2"/>
-        <v>2.0442858044291197</v>
+        <v>0.58255095366231369</v>
       </c>
     </row>
     <row r="75" spans="21:22" x14ac:dyDescent="0.15">
@@ -47937,8 +47888,8 @@
         <v>66</v>
       </c>
       <c r="V75">
-        <f t="shared" ref="V75:V110" si="3">EXP(0.643*LN(U75)-0.113*(LN(U75))^2)</f>
-        <v>2.0348775075617378</v>
+        <f t="shared" ref="V75:V110" si="3">EXP(-0.071*LN(U75)-0.014*(LN(U75))^2)</f>
+        <v>0.58088040732649304</v>
       </c>
     </row>
     <row r="76" spans="21:22" x14ac:dyDescent="0.15">
@@ -47947,7 +47898,7 @@
       </c>
       <c r="V76">
         <f t="shared" si="3"/>
-        <v>2.0255487096991001</v>
+        <v>0.57923597036594543</v>
       </c>
     </row>
     <row r="77" spans="21:22" x14ac:dyDescent="0.15">
@@ -47956,7 +47907,7 @@
       </c>
       <c r="V77">
         <f t="shared" si="3"/>
-        <v>2.0162991729134325</v>
+        <v>0.57761687223090397</v>
       </c>
     </row>
     <row r="78" spans="21:22" x14ac:dyDescent="0.15">
@@ -47965,7 +47916,7 @@
       </c>
       <c r="V78">
         <f t="shared" si="3"/>
-        <v>2.0071285942452466</v>
+        <v>0.57602237571218029</v>
       </c>
     </row>
     <row r="79" spans="21:22" x14ac:dyDescent="0.15">
@@ -47974,7 +47925,7 @@
       </c>
       <c r="V79">
         <f t="shared" si="3"/>
-        <v>1.9980366128012672</v>
+        <v>0.57445177504935585</v>
       </c>
     </row>
     <row r="80" spans="21:22" x14ac:dyDescent="0.15">
@@ -47983,7 +47934,7 @@
       </c>
       <c r="V80">
         <f t="shared" si="3"/>
-        <v>1.9890228161660786</v>
+        <v>0.57290439417120087</v>
       </c>
     </row>
     <row r="81" spans="21:22" x14ac:dyDescent="0.15">
@@ -47992,7 +47943,7 @@
       </c>
       <c r="V81">
         <f t="shared" si="3"/>
-        <v>1.9800867461969076</v>
+        <v>0.57137958505738362</v>
       </c>
     </row>
     <row r="82" spans="21:22" x14ac:dyDescent="0.15">
@@ -48001,7 +47952,7 @@
       </c>
       <c r="V82">
         <f t="shared" si="3"/>
-        <v>1.9712279042634364</v>
+        <v>0.56987672621157226</v>
       </c>
     </row>
     <row r="83" spans="21:22" x14ac:dyDescent="0.15">
@@ -48010,7 +47961,7 @@
       </c>
       <c r="V83">
         <f t="shared" si="3"/>
-        <v>1.962445755987767</v>
+        <v>0.56839522123696451</v>
       </c>
     </row>
     <row r="84" spans="21:22" x14ac:dyDescent="0.15">
@@ -48019,7 +47970,7 @@
       </c>
       <c r="V84">
         <f t="shared" si="3"/>
-        <v>1.953739735533826</v>
+        <v>0.56693449750610792</v>
       </c>
     </row>
     <row r="85" spans="21:22" x14ac:dyDescent="0.15">
@@ -48028,7 +47979,7 @@
       </c>
       <c r="V85">
         <f t="shared" si="3"/>
-        <v>1.945109249490204</v>
+        <v>0.56549400491762003</v>
       </c>
     </row>
     <row r="86" spans="21:22" x14ac:dyDescent="0.15">
@@ -48037,7 +47988,7 @@
       </c>
       <c r="V86">
         <f t="shared" si="3"/>
-        <v>1.9365536803858774</v>
+        <v>0.56407321473308558</v>
       </c>
     </row>
     <row r="87" spans="21:22" x14ac:dyDescent="0.15">
@@ -48046,7 +47997,7 @@
       </c>
       <c r="V87">
         <f t="shared" si="3"/>
-        <v>1.9280723898740957</v>
+        <v>0.56267161848800384</v>
       </c>
     </row>
     <row r="88" spans="21:22" x14ac:dyDescent="0.15">
@@ -48055,7 +48006,7 @@
       </c>
       <c r="V88">
         <f t="shared" si="3"/>
-        <v>1.9196647216161389</v>
+        <v>0.56128872697120202</v>
       </c>
     </row>
     <row r="89" spans="21:22" x14ac:dyDescent="0.15">
@@ -48064,7 +48015,7 @@
       </c>
       <c r="V89">
         <f t="shared" si="3"/>
-        <v>1.9113300038933767</v>
+        <v>0.55992406926761418</v>
       </c>
     </row>
     <row r="90" spans="21:22" x14ac:dyDescent="0.15">
@@ -48073,7 +48024,7 @@
       </c>
       <c r="V90">
         <f t="shared" si="3"/>
-        <v>1.9030675519732254</v>
+        <v>0.5585771918597644</v>
       </c>
     </row>
     <row r="91" spans="21:22" x14ac:dyDescent="0.15">
@@ -48082,7 +48033,7 @@
       </c>
       <c r="V91">
         <f t="shared" si="3"/>
-        <v>1.8948766702519992</v>
+        <v>0.55724765778368524</v>
       </c>
     </row>
     <row r="92" spans="21:22" x14ac:dyDescent="0.15">
@@ -48091,7 +48042,7 @@
       </c>
       <c r="V92">
         <f t="shared" si="3"/>
-        <v>1.8867566541953926</v>
+        <v>0.55593504583536379</v>
       </c>
     </row>
     <row r="93" spans="21:22" x14ac:dyDescent="0.15">
@@ -48100,7 +48051,7 @@
       </c>
       <c r="V93">
         <f t="shared" si="3"/>
-        <v>1.8787067920952993</v>
+        <v>0.55463894982412998</v>
       </c>
     </row>
     <row r="94" spans="21:22" x14ac:dyDescent="0.15">
@@ -48109,7 +48060,7 @@
       </c>
       <c r="V94">
         <f t="shared" si="3"/>
-        <v>1.8707263666598035</v>
+        <v>0.55335897786969257</v>
       </c>
     </row>
     <row r="95" spans="21:22" x14ac:dyDescent="0.15">
@@ -48118,7 +48069,7 @@
       </c>
       <c r="V95">
         <f t="shared" si="3"/>
-        <v>1.8628146564516233</v>
+        <v>0.55209475173980072</v>
       </c>
     </row>
     <row r="96" spans="21:22" x14ac:dyDescent="0.15">
@@ -48127,7 +48078,7 @@
       </c>
       <c r="V96">
         <f t="shared" si="3"/>
-        <v>1.8549709371887289</v>
+        <v>0.55084590622574237</v>
       </c>
     </row>
     <row r="97" spans="21:22" x14ac:dyDescent="0.15">
@@ -48136,7 +48087,7 @@
       </c>
       <c r="V97">
         <f t="shared" si="3"/>
-        <v>1.8471944829196378</v>
+        <v>0.54961208855312049</v>
       </c>
     </row>
     <row r="98" spans="21:22" x14ac:dyDescent="0.15">
@@ -48145,7 +48096,7 @@
       </c>
       <c r="V98">
         <f t="shared" si="3"/>
-        <v>1.8394845670846538</v>
+        <v>0.54839295782553921</v>
       </c>
     </row>
     <row r="99" spans="21:22" x14ac:dyDescent="0.15">
@@ -48154,7 +48105,7 @@
       </c>
       <c r="V99">
         <f t="shared" si="3"/>
-        <v>1.8318404634732508</v>
+        <v>0.54718818449902173</v>
       </c>
     </row>
     <row r="100" spans="21:22" x14ac:dyDescent="0.15">
@@ -48163,7 +48114,7 @@
       </c>
       <c r="V100">
         <f t="shared" si="3"/>
-        <v>1.8242614470869338</v>
+        <v>0.54599744988514609</v>
       </c>
     </row>
     <row r="101" spans="21:22" x14ac:dyDescent="0.15">
@@ -48172,7 +48123,7 @@
       </c>
       <c r="V101">
         <f t="shared" si="3"/>
-        <v>1.8167467949159151</v>
+        <v>0.5448204456810346</v>
       </c>
     </row>
     <row r="102" spans="21:22" x14ac:dyDescent="0.15">
@@ -48181,7 +48132,7 @@
       </c>
       <c r="V102">
         <f t="shared" si="3"/>
-        <v>1.8092957866373058</v>
+        <v>0.54365687352447745</v>
       </c>
     </row>
     <row r="103" spans="21:22" x14ac:dyDescent="0.15">
@@ -48190,7 +48141,7 @@
       </c>
       <c r="V103">
         <f t="shared" si="3"/>
-        <v>1.8019077052417427</v>
+        <v>0.54250644457259356</v>
       </c>
     </row>
     <row r="104" spans="21:22" x14ac:dyDescent="0.15">
@@ -48199,7 +48150,7 @@
       </c>
       <c r="V104">
         <f t="shared" si="3"/>
-        <v>1.7945818375947611</v>
+        <v>0.54136887910255127</v>
       </c>
     </row>
     <row r="105" spans="21:22" x14ac:dyDescent="0.15">
@@ -48208,7 +48159,7 @@
       </c>
       <c r="V105">
         <f t="shared" si="3"/>
-        <v>1.7873174749386658</v>
+        <v>0.54024390613297824</v>
       </c>
     </row>
     <row r="106" spans="21:22" x14ac:dyDescent="0.15">
@@ -48217,7 +48168,7 @@
       </c>
       <c r="V106">
         <f t="shared" si="3"/>
-        <v>1.7801139133401387</v>
+        <v>0.5391312630647872</v>
       </c>
     </row>
     <row r="107" spans="21:22" x14ac:dyDescent="0.15">
@@ -48226,7 +48177,7 @@
       </c>
       <c r="V107">
         <f t="shared" si="3"/>
-        <v>1.7729704540883231</v>
+        <v>0.53803069534023629</v>
       </c>
     </row>
     <row r="108" spans="21:22" x14ac:dyDescent="0.15">
@@ -48235,7 +48186,7 @@
       </c>
       <c r="V108">
         <f t="shared" si="3"/>
-        <v>1.7658864040477633</v>
+        <v>0.53694195611912421</v>
       </c>
     </row>
     <row r="109" spans="21:22" x14ac:dyDescent="0.15">
@@ -48244,7 +48195,7 @@
       </c>
       <c r="V109">
         <f t="shared" si="3"/>
-        <v>1.7588610759701155</v>
+        <v>0.53586480597109776</v>
       </c>
     </row>
     <row r="110" spans="21:22" x14ac:dyDescent="0.15">
@@ -48253,7 +48204,7 @@
       </c>
       <c r="V110">
         <f t="shared" si="3"/>
-        <v>1.7518937887683017</v>
+        <v>0.53479901258312035</v>
       </c>
     </row>
   </sheetData>

--- a/回归结果/double玉米.xlsx
+++ b/回归结果/double玉米.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="统计性描述" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="回归结果" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="13" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="14" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="15" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">回归结果!$A$21:$G$55</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="372">
   <si>
     <t>yield</t>
   </si>
@@ -1647,6 +1648,57 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>-0.082</t>
+  </si>
+  <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>0.109</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>-0.023</t>
+  </si>
+  <si>
+    <t>-0.007</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>-0.004</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-0.002</t>
+  </si>
+  <si>
+    <t>0.014***</t>
+  </si>
+  <si>
+    <t>-0.009</t>
+  </si>
+  <si>
+    <t>-0.001</t>
+  </si>
 </sst>
 </file>
 
@@ -2129,22 +2181,22 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2165,16 +2217,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2183,26 +2226,35 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8726,38 +8778,38 @@
       <c r="AS1" s="1"/>
     </row>
     <row r="2" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="84" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="20"/>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
       <c r="F2" s="20"/>
-      <c r="G2" s="82">
+      <c r="G2" s="84">
         <v>1</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
       <c r="J2" s="20"/>
-      <c r="K2" s="82">
+      <c r="K2" s="84">
         <v>2</v>
       </c>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
       <c r="N2" s="20"/>
-      <c r="O2" s="82">
+      <c r="O2" s="84">
         <v>3</v>
       </c>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
       <c r="R2" s="20"/>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="86"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="6"/>
       <c r="C3" s="37" t="s">
         <v>124</v>
@@ -9949,49 +10001,49 @@
         <v>146</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="87" t="s">
         <v>190</v>
       </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="38"/>
-      <c r="G23" s="83" t="s">
+      <c r="G23" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
       <c r="J23" s="38"/>
-      <c r="K23" s="83" t="s">
+      <c r="K23" s="87" t="s">
         <v>192</v>
       </c>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
       <c r="N23" s="38"/>
-      <c r="O23" s="83" t="s">
+      <c r="O23" s="87" t="s">
         <v>193</v>
       </c>
-      <c r="P23" s="83"/>
-      <c r="Q23" s="83"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
       <c r="R23" s="42"/>
     </row>
     <row r="25" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A25" s="87" t="s">
+      <c r="A25" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
     </row>
     <row r="26" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A26" s="84" t="s">
+      <c r="A26" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="3"/>
@@ -10045,7 +10097,7 @@
       <c r="AS26" s="3"/>
     </row>
     <row r="27" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A27" s="85"/>
+      <c r="A27" s="83"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
         <v>20</v>
@@ -12334,7 +12386,7 @@
       <c r="L49" s="21"/>
     </row>
     <row r="50" spans="1:50" ht="15" x14ac:dyDescent="0.15">
-      <c r="A50" s="84" t="s">
+      <c r="A50" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B50" s="3"/>
@@ -12391,7 +12443,7 @@
       <c r="AS50" s="3"/>
     </row>
     <row r="51" spans="1:50" ht="15" x14ac:dyDescent="0.15">
-      <c r="A51" s="85"/>
+      <c r="A51" s="83"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
         <v>20</v>
@@ -15213,7 +15265,7 @@
       <c r="L73" s="21"/>
     </row>
     <row r="74" spans="1:51" ht="15" x14ac:dyDescent="0.15">
-      <c r="A74" s="84" t="s">
+      <c r="A74" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B74" s="3"/>
@@ -15270,7 +15322,7 @@
       <c r="AS74" s="3"/>
     </row>
     <row r="75" spans="1:51" ht="15" x14ac:dyDescent="0.15">
-      <c r="A75" s="85"/>
+      <c r="A75" s="83"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
         <v>20</v>
@@ -18092,7 +18144,7 @@
       <c r="L96" s="21"/>
     </row>
     <row r="97" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A97" s="84" t="s">
+      <c r="A97" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B97" s="3"/>
@@ -18147,7 +18199,7 @@
       <c r="AS97" s="3"/>
     </row>
     <row r="98" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A98" s="85"/>
+      <c r="A98" s="83"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4" t="s">
         <v>20</v>
@@ -20475,7 +20527,7 @@
       <c r="L119" s="21"/>
     </row>
     <row r="120" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A120" s="84" t="s">
+      <c r="A120" s="82" t="s">
         <v>30</v>
       </c>
       <c r="B120" s="3"/>
@@ -20530,7 +20582,7 @@
       <c r="AS120" s="3"/>
     </row>
     <row r="121" spans="1:45" ht="15" x14ac:dyDescent="0.15">
-      <c r="A121" s="85"/>
+      <c r="A121" s="83"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4" t="s">
         <v>20</v>
@@ -23894,13 +23946,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A97:A98"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="G2:I2"/>
@@ -23909,6 +23954,13 @@
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="K23:M23"/>
     <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23950,29 +24002,29 @@
       <c r="A2" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
       <c r="E2" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
       <c r="I2" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -27075,8 +27127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A21:X152"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74:D102"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28806,18 +28858,18 @@
       <c r="O73" s="53" t="s">
         <v>234</v>
       </c>
-      <c r="P73" s="95" t="s">
+      <c r="P73" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="Q73" s="95"/>
-      <c r="R73" s="95" t="s">
+      <c r="Q73" s="99"/>
+      <c r="R73" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="S73" s="95"/>
-      <c r="T73" s="95" t="s">
+      <c r="S73" s="99"/>
+      <c r="T73" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="U73" s="95"/>
+      <c r="U73" s="99"/>
     </row>
     <row r="74" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
@@ -30114,10 +30166,10 @@
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
-      <c r="J98" s="94" t="s">
+      <c r="J98" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="K98" s="94"/>
+      <c r="K98" s="98"/>
       <c r="L98" s="15"/>
       <c r="M98" s="1"/>
       <c r="N98" s="18"/>
@@ -30394,18 +30446,18 @@
       <c r="O103" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="P103" s="96" t="s">
+      <c r="P103" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="Q103" s="96"/>
-      <c r="R103" s="96" t="s">
+      <c r="Q103" s="94"/>
+      <c r="R103" s="94" t="s">
         <v>240</v>
       </c>
-      <c r="S103" s="96"/>
-      <c r="T103" s="96" t="s">
+      <c r="S103" s="94"/>
+      <c r="T103" s="94" t="s">
         <v>240</v>
       </c>
-      <c r="U103" s="96"/>
+      <c r="U103" s="94"/>
     </row>
     <row r="104" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
@@ -30432,14 +30484,14 @@
         <v>242</v>
       </c>
       <c r="Q104" s="97"/>
-      <c r="R104" s="96" t="s">
+      <c r="R104" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="S104" s="96"/>
-      <c r="T104" s="96" t="s">
+      <c r="S104" s="94"/>
+      <c r="T104" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="U104" s="96"/>
+      <c r="U104" s="94"/>
     </row>
     <row r="105" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
@@ -30458,40 +30510,40 @@
       <c r="O105" s="56" t="s">
         <v>243</v>
       </c>
-      <c r="P105" s="96" t="s">
+      <c r="P105" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="Q105" s="96"/>
-      <c r="R105" s="96" t="s">
+      <c r="Q105" s="94"/>
+      <c r="R105" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="S105" s="96"/>
-      <c r="T105" s="96" t="s">
+      <c r="S105" s="94"/>
+      <c r="T105" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="U105" s="96"/>
+      <c r="U105" s="94"/>
     </row>
     <row r="106" spans="1:21" x14ac:dyDescent="0.15">
       <c r="O106" s="56" t="s">
         <v>244</v>
       </c>
-      <c r="P106" s="98" t="s">
+      <c r="P106" s="95" t="s">
         <v>354</v>
       </c>
-      <c r="Q106" s="98"/>
-      <c r="R106" s="98"/>
-      <c r="S106" s="98"/>
-      <c r="T106" s="98"/>
-      <c r="U106" s="98"/>
+      <c r="Q106" s="95"/>
+      <c r="R106" s="95"/>
+      <c r="S106" s="95"/>
+      <c r="T106" s="95"/>
+      <c r="U106" s="95"/>
     </row>
     <row r="107" spans="1:21" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="O107" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="P107" s="99">
+      <c r="P107" s="96">
         <v>0.252</v>
       </c>
-      <c r="Q107" s="99"/>
+      <c r="Q107" s="96"/>
       <c r="R107" s="59"/>
       <c r="S107" s="59"/>
       <c r="T107" s="59"/>
@@ -31296,22 +31348,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="R105:S105"/>
-    <mergeCell ref="T105:U105"/>
-    <mergeCell ref="P106:U106"/>
-    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="T73:U73"/>
     <mergeCell ref="P103:Q103"/>
     <mergeCell ref="R103:S103"/>
     <mergeCell ref="T103:U103"/>
     <mergeCell ref="P104:Q104"/>
     <mergeCell ref="R104:S104"/>
     <mergeCell ref="T104:U104"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="R105:S105"/>
+    <mergeCell ref="T105:U105"/>
+    <mergeCell ref="P106:U106"/>
+    <mergeCell ref="P107:Q107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38994,18 +39046,18 @@
       <c r="A32" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="96" t="s">
+      <c r="B32" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="96" t="s">
+      <c r="C32" s="94"/>
+      <c r="D32" s="94" t="s">
         <v>240</v>
       </c>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96" t="s">
+      <c r="E32" s="94"/>
+      <c r="F32" s="94" t="s">
         <v>240</v>
       </c>
-      <c r="G32" s="96"/>
+      <c r="G32" s="94"/>
       <c r="J32" s="27">
         <v>2013</v>
       </c>
@@ -39165,14 +39217,14 @@
         <v>242</v>
       </c>
       <c r="C33" s="97"/>
-      <c r="D33" s="96" t="s">
+      <c r="D33" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96" t="s">
+      <c r="E33" s="94"/>
+      <c r="F33" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="G33" s="96"/>
+      <c r="G33" s="94"/>
       <c r="J33" s="27">
         <v>2014</v>
       </c>
@@ -39328,18 +39380,18 @@
       <c r="A34" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="B34" s="96" t="s">
+      <c r="B34" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96" t="s">
+      <c r="C34" s="94"/>
+      <c r="D34" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96" t="s">
+      <c r="E34" s="94"/>
+      <c r="F34" s="94" t="s">
         <v>239</v>
       </c>
-      <c r="G34" s="96"/>
+      <c r="G34" s="94"/>
       <c r="J34" s="27">
         <v>2015</v>
       </c>
@@ -39481,14 +39533,14 @@
       <c r="A35" s="27" t="s">
         <v>225</v>
       </c>
-      <c r="B35" s="98" t="s">
+      <c r="B35" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="98"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
       <c r="H35" s="47"/>
       <c r="J35" s="27" t="s">
         <v>80</v>
@@ -39631,10 +39683,10 @@
       <c r="A36" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="99">
+      <c r="B36" s="96">
         <v>0.252</v>
       </c>
-      <c r="C36" s="99"/>
+      <c r="C36" s="96"/>
       <c r="D36" s="59"/>
       <c r="E36" s="59"/>
       <c r="F36" s="59"/>
@@ -46571,6 +46623,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B33:C33"/>
@@ -46579,12 +46637,6 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:G34"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46597,7 +46649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E8:V110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="V10" sqref="V10:V110"/>
     </sheetView>
   </sheetViews>
@@ -46608,22 +46660,22 @@
       <c r="E9" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="F9" s="101" t="s">
+      <c r="F9" s="104" t="s">
         <v>340</v>
       </c>
-      <c r="G9" s="101"/>
-      <c r="H9" s="104" t="s">
+      <c r="G9" s="104"/>
+      <c r="H9" s="106" t="s">
         <v>341</v>
       </c>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104" t="s">
+      <c r="I9" s="106"/>
+      <c r="J9" s="106" t="s">
         <v>342</v>
       </c>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104" t="s">
+      <c r="K9" s="106"/>
+      <c r="L9" s="106" t="s">
         <v>343</v>
       </c>
-      <c r="M9" s="104"/>
+      <c r="M9" s="106"/>
       <c r="O9" s="69"/>
       <c r="P9" s="69"/>
       <c r="Q9" s="69"/>
@@ -46756,9 +46808,9 @@
       </c>
       <c r="N12" s="74"/>
       <c r="O12" s="67"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="103"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="105"/>
       <c r="U12">
         <v>3</v>
       </c>
@@ -46785,9 +46837,9 @@
       <c r="M13" s="70"/>
       <c r="N13" s="70"/>
       <c r="O13" s="64"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="102"/>
-      <c r="R13" s="102"/>
+      <c r="P13" s="101"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="101"/>
       <c r="U13">
         <v>4</v>
       </c>
@@ -46814,9 +46866,9 @@
       <c r="M14" s="70"/>
       <c r="N14" s="70"/>
       <c r="O14" s="64"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="102"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
       <c r="U14">
         <v>5</v>
       </c>
@@ -46843,9 +46895,9 @@
       <c r="M15" s="70"/>
       <c r="N15" s="70"/>
       <c r="O15" s="64"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="101"/>
       <c r="U15">
         <v>6</v>
       </c>
@@ -46872,9 +46924,9 @@
       <c r="M16" s="70"/>
       <c r="N16" s="70"/>
       <c r="O16" s="64"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="102"/>
-      <c r="R16" s="102"/>
+      <c r="P16" s="101"/>
+      <c r="Q16" s="101"/>
+      <c r="R16" s="101"/>
       <c r="U16">
         <v>7</v>
       </c>
@@ -46901,9 +46953,9 @@
       <c r="M17" s="70"/>
       <c r="N17" s="70"/>
       <c r="O17" s="64"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
-      <c r="R17" s="102"/>
+      <c r="P17" s="101"/>
+      <c r="Q17" s="101"/>
+      <c r="R17" s="101"/>
       <c r="U17">
         <v>8</v>
       </c>
@@ -46930,9 +46982,9 @@
       <c r="M18" s="70"/>
       <c r="N18" s="70"/>
       <c r="O18" s="64"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="102"/>
-      <c r="R18" s="102"/>
+      <c r="P18" s="101"/>
+      <c r="Q18" s="101"/>
+      <c r="R18" s="101"/>
       <c r="U18">
         <v>9</v>
       </c>
@@ -46959,9 +47011,9 @@
       <c r="M19" s="70"/>
       <c r="N19" s="70"/>
       <c r="O19" s="64"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="102"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="101"/>
       <c r="U19">
         <v>10</v>
       </c>
@@ -46988,9 +47040,9 @@
       <c r="M20" s="70"/>
       <c r="N20" s="70"/>
       <c r="O20" s="64"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="102"/>
-      <c r="R20" s="102"/>
+      <c r="P20" s="101"/>
+      <c r="Q20" s="101"/>
+      <c r="R20" s="101"/>
       <c r="U20">
         <v>11</v>
       </c>
@@ -47017,9 +47069,9 @@
       <c r="M21" s="70"/>
       <c r="N21" s="70"/>
       <c r="O21" s="64"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="102"/>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="101"/>
+      <c r="R21" s="101"/>
       <c r="U21">
         <v>12</v>
       </c>
@@ -47046,9 +47098,9 @@
       <c r="M22" s="70"/>
       <c r="N22" s="70"/>
       <c r="O22" s="64"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="102"/>
-      <c r="R22" s="102"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="101"/>
+      <c r="R22" s="101"/>
       <c r="U22">
         <v>13</v>
       </c>
@@ -47075,9 +47127,9 @@
       <c r="M23" s="70"/>
       <c r="N23" s="70"/>
       <c r="O23" s="64"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="102"/>
+      <c r="P23" s="101"/>
+      <c r="Q23" s="101"/>
+      <c r="R23" s="101"/>
       <c r="U23">
         <v>14</v>
       </c>
@@ -47104,9 +47156,9 @@
       <c r="M24" s="70"/>
       <c r="N24" s="70"/>
       <c r="O24" s="64"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="102"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="101"/>
       <c r="U24">
         <v>15</v>
       </c>
@@ -47133,9 +47185,9 @@
       <c r="M25" s="70"/>
       <c r="N25" s="70"/>
       <c r="O25" s="64"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="102"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="101"/>
       <c r="U25">
         <v>16</v>
       </c>
@@ -47162,9 +47214,9 @@
       <c r="M26" s="70"/>
       <c r="N26" s="70"/>
       <c r="O26" s="64"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="102"/>
+      <c r="P26" s="101"/>
+      <c r="Q26" s="101"/>
+      <c r="R26" s="101"/>
       <c r="U26">
         <v>17</v>
       </c>
@@ -47191,9 +47243,9 @@
       <c r="M27" s="70"/>
       <c r="N27" s="70"/>
       <c r="O27" s="64"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="102"/>
+      <c r="P27" s="101"/>
+      <c r="Q27" s="101"/>
+      <c r="R27" s="101"/>
       <c r="U27">
         <v>18</v>
       </c>
@@ -47220,9 +47272,9 @@
       <c r="M28" s="70"/>
       <c r="N28" s="70"/>
       <c r="O28" s="64"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="102"/>
+      <c r="P28" s="101"/>
+      <c r="Q28" s="101"/>
+      <c r="R28" s="101"/>
       <c r="U28">
         <v>19</v>
       </c>
@@ -47249,9 +47301,9 @@
       <c r="M29" s="70"/>
       <c r="N29" s="70"/>
       <c r="O29" s="64"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="102"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="101"/>
+      <c r="R29" s="101"/>
       <c r="U29">
         <v>20</v>
       </c>
@@ -47278,9 +47330,9 @@
       <c r="M30" s="70"/>
       <c r="N30" s="70"/>
       <c r="O30" s="64"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="102"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="101"/>
+      <c r="R30" s="101"/>
       <c r="U30">
         <v>21</v>
       </c>
@@ -47307,9 +47359,9 @@
       <c r="M31" s="70"/>
       <c r="N31" s="70"/>
       <c r="O31" s="64"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="102"/>
-      <c r="R31" s="102"/>
+      <c r="P31" s="101"/>
+      <c r="Q31" s="101"/>
+      <c r="R31" s="101"/>
       <c r="U31">
         <v>22</v>
       </c>
@@ -47336,9 +47388,9 @@
       <c r="M32" s="70"/>
       <c r="N32" s="70"/>
       <c r="O32" s="64"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="102"/>
+      <c r="P32" s="101"/>
+      <c r="Q32" s="101"/>
+      <c r="R32" s="101"/>
       <c r="U32">
         <v>23</v>
       </c>
@@ -47365,9 +47417,9 @@
       <c r="M33" s="70"/>
       <c r="N33" s="70"/>
       <c r="O33" s="64"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="102"/>
+      <c r="P33" s="101"/>
+      <c r="Q33" s="101"/>
+      <c r="R33" s="101"/>
       <c r="U33">
         <v>24</v>
       </c>
@@ -47394,9 +47446,9 @@
       <c r="M34" s="70"/>
       <c r="N34" s="70"/>
       <c r="O34" s="64"/>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="102"/>
-      <c r="R34" s="102"/>
+      <c r="P34" s="101"/>
+      <c r="Q34" s="101"/>
+      <c r="R34" s="101"/>
       <c r="U34">
         <v>25</v>
       </c>
@@ -47423,9 +47475,9 @@
       <c r="M35" s="70"/>
       <c r="N35" s="70"/>
       <c r="O35" s="64"/>
-      <c r="P35" s="102"/>
-      <c r="Q35" s="102"/>
-      <c r="R35" s="102"/>
+      <c r="P35" s="101"/>
+      <c r="Q35" s="101"/>
+      <c r="R35" s="101"/>
       <c r="U35">
         <v>26</v>
       </c>
@@ -47452,9 +47504,9 @@
       <c r="M36" s="70"/>
       <c r="N36" s="70"/>
       <c r="O36" s="64"/>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="102"/>
-      <c r="R36" s="102"/>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="101"/>
+      <c r="R36" s="101"/>
       <c r="U36">
         <v>27</v>
       </c>
@@ -47481,9 +47533,9 @@
       <c r="M37" s="70"/>
       <c r="N37" s="70"/>
       <c r="O37" s="64"/>
-      <c r="P37" s="102"/>
-      <c r="Q37" s="102"/>
-      <c r="R37" s="102"/>
+      <c r="P37" s="101"/>
+      <c r="Q37" s="101"/>
+      <c r="R37" s="101"/>
       <c r="U37">
         <v>28</v>
       </c>
@@ -47510,9 +47562,9 @@
       <c r="M38" s="70"/>
       <c r="N38" s="70"/>
       <c r="O38" s="64"/>
-      <c r="P38" s="102"/>
-      <c r="Q38" s="102"/>
-      <c r="R38" s="102"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="101"/>
+      <c r="R38" s="101"/>
       <c r="U38">
         <v>29</v>
       </c>
@@ -47539,9 +47591,9 @@
       <c r="M39" s="70"/>
       <c r="N39" s="70"/>
       <c r="O39" s="64"/>
-      <c r="P39" s="102"/>
-      <c r="Q39" s="102"/>
-      <c r="R39" s="102"/>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="101"/>
+      <c r="R39" s="101"/>
       <c r="U39">
         <v>30</v>
       </c>
@@ -47554,21 +47606,21 @@
       <c r="E40" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="F40" s="105" t="s">
+      <c r="F40" s="102" t="s">
         <v>246</v>
       </c>
-      <c r="G40" s="105"/>
-      <c r="H40" s="105"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
-      <c r="L40" s="105"/>
-      <c r="M40" s="105"/>
+      <c r="G40" s="102"/>
+      <c r="H40" s="102"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="102"/>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
       <c r="N40" s="81"/>
       <c r="O40" s="81"/>
       <c r="P40" s="81"/>
-      <c r="Q40" s="106"/>
-      <c r="R40" s="106"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="103"/>
       <c r="U40">
         <v>31</v>
       </c>
@@ -48209,31 +48261,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="F40:M40"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="P18:R18"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="P15:R15"/>
     <mergeCell ref="P16:R16"/>
@@ -48243,10 +48270,747 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:M9"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="F40:M40"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1.42992E-2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F5">
+        <v>5.4759999999999997E-4</v>
+      </c>
+      <c r="G5">
+        <v>5.6620999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C6" s="18">
+        <v>2.3105999999999999E-3</v>
+      </c>
+      <c r="D6">
+        <v>0.61</v>
+      </c>
+      <c r="E6">
+        <v>0.54</v>
+      </c>
+      <c r="F6">
+        <v>-3.1143999999999998E-3</v>
+      </c>
+      <c r="G6">
+        <v>5.9465000000000004E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="18">
+        <v>7.0604299999999995E-2</v>
+      </c>
+      <c r="D7">
+        <v>-1.1599999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.246</v>
+      </c>
+      <c r="F7">
+        <v>-0.22031619999999999</v>
+      </c>
+      <c r="G7">
+        <v>5.6554899999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" s="18">
+        <v>9.5387799999999995E-2</v>
+      </c>
+      <c r="D8">
+        <v>-1.26</v>
+      </c>
+      <c r="E8">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="F8">
+        <v>-0.30737110000000001</v>
+      </c>
+      <c r="G8">
+        <v>6.6687099999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="18">
+        <v>9.7871999999999994E-3</v>
+      </c>
+      <c r="D9">
+        <v>2.13</v>
+      </c>
+      <c r="E9">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.6900999999999999E-3</v>
+      </c>
+      <c r="G9">
+        <v>4.0069899999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.18349199999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.59</v>
+      </c>
+      <c r="E10">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="F10">
+        <v>-0.2508823</v>
+      </c>
+      <c r="G10">
+        <v>0.46867209999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C11" s="18">
+        <v>5.4190000000000002E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.2</v>
+      </c>
+      <c r="E11">
+        <v>0.23</v>
+      </c>
+      <c r="F11">
+        <v>-4.1199000000000001E-3</v>
+      </c>
+      <c r="G11">
+        <v>1.7130599999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="18">
+        <v>6.6328999999999997E-3</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="F12">
+        <v>2.3330000000000001E-4</v>
+      </c>
+      <c r="G12">
+        <v>2.6243800000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" s="18">
+        <v>4.7919999999999999E-4</v>
+      </c>
+      <c r="D13">
+        <v>5.05</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1.4796E-3</v>
+      </c>
+      <c r="G13">
+        <v>3.3587000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="18">
+        <v>2.0011000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>-1.17</v>
+      </c>
+      <c r="E14">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F14">
+        <v>-6.2581399999999995E-2</v>
+      </c>
+      <c r="G14">
+        <v>1.5890600000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1.12075E-2</v>
+      </c>
+      <c r="D15">
+        <v>-0.62</v>
+      </c>
+      <c r="E15">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="F15">
+        <v>-2.88753E-2</v>
+      </c>
+      <c r="G15">
+        <v>1.50744E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1.2675E-3</v>
+      </c>
+      <c r="D16">
+        <v>1.72</v>
+      </c>
+      <c r="E16">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F16">
+        <v>-3.054E-4</v>
+      </c>
+      <c r="G16">
+        <v>4.6649999999999999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="18">
+        <v>1.18815E-2</v>
+      </c>
+      <c r="D17">
+        <v>1.47</v>
+      </c>
+      <c r="E17">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="F17">
+        <v>-5.8236E-3</v>
+      </c>
+      <c r="G17">
+        <v>4.0769E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1.3507E-3</v>
+      </c>
+      <c r="D18">
+        <v>0.44</v>
+      </c>
+      <c r="E18">
+        <v>0.66</v>
+      </c>
+      <c r="F18">
+        <v>-2.0549000000000001E-3</v>
+      </c>
+      <c r="G18">
+        <v>3.2420000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>364</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1.6004600000000001E-2</v>
+      </c>
+      <c r="D19">
+        <v>1.18</v>
+      </c>
+      <c r="E19">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="F19">
+        <v>-1.24551E-2</v>
+      </c>
+      <c r="G19">
+        <v>5.0306299999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" s="18">
+        <v>2.0087999999999998E-3</v>
+      </c>
+      <c r="D20">
+        <v>-2.15</v>
+      </c>
+      <c r="E20">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F20">
+        <v>-8.2581000000000009E-3</v>
+      </c>
+      <c r="G20">
+        <v>-3.8059999999999998E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" s="18">
+        <v>1.2273299999999999E-2</v>
+      </c>
+      <c r="D21">
+        <v>1.45</v>
+      </c>
+      <c r="E21">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F21">
+        <v>-6.3090000000000004E-3</v>
+      </c>
+      <c r="G21">
+        <v>4.1820099999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C22" s="18">
+        <v>4.0759999999999999E-4</v>
+      </c>
+      <c r="D22">
+        <v>-0.83</v>
+      </c>
+      <c r="E22">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F22">
+        <v>-1.1383999999999999E-3</v>
+      </c>
+      <c r="G22">
+        <v>4.5990000000000001E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C23" s="18">
+        <v>1.8207E-3</v>
+      </c>
+      <c r="D23">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="E23">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F23">
+        <v>-5.6100999999999998E-3</v>
+      </c>
+      <c r="G23">
+        <v>1.5296000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1.2196800000000001E-2</v>
+      </c>
+      <c r="D24">
+        <v>-2.46</v>
+      </c>
+      <c r="E24">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F24">
+        <v>-5.3879700000000003E-2</v>
+      </c>
+      <c r="G24">
+        <v>-6.0507E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25" s="18">
+        <v>5.2119999999999996E-3</v>
+      </c>
+      <c r="D25">
+        <v>2.62</v>
+      </c>
+      <c r="E25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F25">
+        <v>3.4581E-3</v>
+      </c>
+      <c r="G25">
+        <v>2.3896799999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C26" s="18">
+        <v>6.6847E-3</v>
+      </c>
+      <c r="D26">
+        <v>2.11</v>
+      </c>
+      <c r="E26">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F26">
+        <v>9.7050000000000001E-4</v>
+      </c>
+      <c r="G26">
+        <v>2.7184099999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>370</v>
+      </c>
+      <c r="C27" s="18">
+        <v>5.8342999999999997E-3</v>
+      </c>
+      <c r="D27">
+        <v>-1.48</v>
+      </c>
+      <c r="E27">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F27">
+        <v>-2.00463E-2</v>
+      </c>
+      <c r="G27">
+        <v>2.8327999999999999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="18">
+        <v>2.2174999999999999E-3</v>
+      </c>
+      <c r="D28">
+        <v>-3.93</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>-1.3070500000000001E-2</v>
+      </c>
+      <c r="G28">
+        <v>-4.3747999999999999E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>361</v>
+      </c>
+      <c r="C29" s="18">
+        <v>9.0930000000000004E-3</v>
+      </c>
+      <c r="D29">
+        <v>-0.79</v>
+      </c>
+      <c r="E29">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="F29">
+        <v>-2.50317E-2</v>
+      </c>
+      <c r="G29">
+        <v>1.0626099999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" s="18">
+        <v>1.0626399999999999E-2</v>
+      </c>
+      <c r="D30">
+        <v>-3.25</v>
+      </c>
+      <c r="E30">
+        <v>1E-3</v>
+      </c>
+      <c r="F30">
+        <v>-5.5387100000000002E-2</v>
+      </c>
+      <c r="G30">
+        <v>-1.37161E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>326</v>
+      </c>
+      <c r="C31" s="18">
+        <v>1.5701699999999999E-2</v>
+      </c>
+      <c r="D31">
+        <v>-2.59</v>
+      </c>
+      <c r="E31">
+        <v>0.01</v>
+      </c>
+      <c r="F31">
+        <v>-7.14172E-2</v>
+      </c>
+      <c r="G31">
+        <v>-9.8438999999999992E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>371</v>
+      </c>
+      <c r="C32" s="18">
+        <v>1.2895000000000001E-3</v>
+      </c>
+      <c r="D32">
+        <v>-0.44</v>
+      </c>
+      <c r="E32">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="F32">
+        <v>-3.0894E-3</v>
+      </c>
+      <c r="G32">
+        <v>1.9673999999999998E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="18">
+        <v>0.4933515</v>
+      </c>
+      <c r="D33">
+        <v>11.92</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>4.9137959999999996</v>
+      </c>
+      <c r="G33">
+        <v>6.8484480000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>